--- a/data/results.raw.xlsx
+++ b/data/results.raw.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="103">
   <si>
     <t>application</t>
   </si>
@@ -250,10 +250,22 @@
     <t>Time efficiency</t>
   </si>
   <si>
+    <t>dynamic energy for p, package</t>
+  </si>
+  <si>
+    <t>modeled E_s w/o gating for p, package</t>
+  </si>
+  <si>
+    <t>percent error w/o gating for p, package</t>
+  </si>
+  <si>
     <t>static energy per core, total</t>
   </si>
   <si>
     <t>dynamic energy, total</t>
+  </si>
+  <si>
+    <t>dynamic energy for p, total</t>
   </si>
   <si>
     <t>total energy efficiency</t>
@@ -263,6 +275,12 @@
   </si>
   <si>
     <t>percent error without gating, total</t>
+  </si>
+  <si>
+    <t>modeled E_s w/o gating for p, total</t>
+  </si>
+  <si>
+    <t>percent error w/o gating for p, total</t>
   </si>
   <si>
     <t>avg total power</t>
@@ -411,12 +429,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -492,7 +514,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -505,7 +527,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Headgasket - Sandy Bridge-EP'!$AB$1</c:f>
+              <c:f>'Keystone - Haswell'!$Y$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -537,81 +559,33 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Headgasket - Sandy Bridge-EP'!$AB$2:$AB$25</c:f>
+              <c:f>'Keystone - Haswell'!$Y$2:$Y$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.621555404531611</c:v>
+                  <c:v>7.741779361875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.18569195916735</c:v>
+                  <c:v>21.5636274577622</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.91269520083624</c:v>
+                  <c:v>24.4891685421627</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.4791828180585</c:v>
+                  <c:v>30.8324616632113</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.91726289122986</c:v>
+                  <c:v>28.4308481912876</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.00699185415795</c:v>
+                  <c:v>34.8974386418976</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.10025529851433</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.83905434039023</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.70699980929267</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10.6229096273974</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11.4266841719413</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10.4747023582968</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10.2112771043589</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>11.6959043055039</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>12.8541064569518</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>13.4484723590696</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>14.2782246378139</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>15.2937403409324</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>16.4279240793001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>16.8188265251067</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>17.5888557516738</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>15.3208989457052</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>18.611479144173</c:v>
+                  <c:v>36.2602215693112</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -622,11 +596,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Headgasket - Sandy Bridge-EP'!$AG$1</c:f>
+              <c:f>'Keystone - Haswell'!$AD$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>percent error without gating, total</c:v>
+                  <c:v>percent error without gating, pp0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -654,92 +628,44 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Headgasket - Sandy Bridge-EP'!$AG$2:$AG$25</c:f>
+              <c:f>'Keystone - Haswell'!$AD$2:$AD$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.412996827537889</c:v>
+                  <c:v>-9.84485693982749</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9236698811237</c:v>
+                  <c:v>0.195151341285554</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.79817088029944</c:v>
+                  <c:v>-0.124428849516904</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.2217566629159</c:v>
+                  <c:v>10.7854632053525</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.56695633127279</c:v>
+                  <c:v>9.08690530704349</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.53305101948225</c:v>
+                  <c:v>15.5266476278266</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.64095413883512</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.40365406417448</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.27847839326656</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10.1706789806793</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11.0070169564811</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9.87654794263814</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9.60891222822913</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>10.9065455534203</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>12.0457955104825</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>12.5850720281638</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>13.3334484418182</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>14.3215897801805</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>15.4063273212865</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>15.8059960765491</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>16.5445694308714</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>14.3325077368902</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>17.5897132994564</c:v>
+                  <c:v>16.227310306294</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="36872511"/>
-        <c:axId val="12615752"/>
+        <c:axId val="95274673"/>
+        <c:axId val="10630275"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="36872511"/>
+        <c:axId val="95274673"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -755,14 +681,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="12615752"/>
+        <c:crossAx val="10630275"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="12615752"/>
+        <c:axId val="10630275"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -787,7 +713,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="36872511"/>
+        <c:crossAx val="95274673"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -822,7 +748,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -835,7 +761,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Headgasket - Sandy Bridge-EP'!$AB$26</c:f>
+              <c:f>'Keystone - Haswell'!$Y$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -867,81 +793,33 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Headgasket - Sandy Bridge-EP'!$AB$27:$AB$50</c:f>
+              <c:f>'Keystone - Haswell'!$Y$11:$Y$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.41190254814521</c:v>
+                  <c:v>-0.378470928172355</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.96496240637923</c:v>
+                  <c:v>-11.4107292756701</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.74758709316713</c:v>
+                  <c:v>-23.8183371571062</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.83827555957808</c:v>
+                  <c:v>-26.7303556479231</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.52949895330938</c:v>
+                  <c:v>-26.1224553543415</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.1509978381331</c:v>
+                  <c:v>-30.2275848884331</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.44664031883057</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-4.51670023351769</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-7.93353269943163</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-10.9038834524161</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-13.8408038678828</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-13.9014647456344</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-13.5591414134238</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-13.4952118199475</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-13.0314469109739</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-12.9100370899099</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-12.2792095932418</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-14.4829336127767</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-14.5357634013758</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-15.2326726258069</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-15.828096420309</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-16.5195584112452</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-17.4563998129675</c:v>
+                  <c:v>-28.3047716613402</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -952,11 +830,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Headgasket - Sandy Bridge-EP'!$AG$26</c:f>
+              <c:f>'Keystone - Haswell'!$AD$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>percent error without gating, total</c:v>
+                  <c:v>percent error without gating, pp0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -984,92 +862,44 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Headgasket - Sandy Bridge-EP'!$AG$27:$AG$50</c:f>
+              <c:f>'Keystone - Haswell'!$AD$11:$AD$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.36309179885869</c:v>
+                  <c:v>-17.1326828023853</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.92912079451927</c:v>
+                  <c:v>-39.9778260363394</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.0389375241729</c:v>
+                  <c:v>-63.176831990677</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.5637151764643</c:v>
+                  <c:v>-68.2128050025084</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.8005411501326</c:v>
+                  <c:v>-67.4946704351104</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.6643076251981</c:v>
+                  <c:v>-73.2341421877553</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.0392618551092</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.17217363623536</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.00148161049123</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.95438745047047</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-0.365528987211567</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-0.307290841672452</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-0.144242660589408</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.13090617042921</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.172238632194589</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-0.149293816240333</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.70396296580352</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-1.80869904170185</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-1.6598083706933</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-2.32302236281416</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-2.53156704254815</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-3.40971871324312</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-4.49652526603259</c:v>
+                  <c:v>-70.3190399671002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="36308961"/>
-        <c:axId val="46950928"/>
+        <c:axId val="25911883"/>
+        <c:axId val="43265414"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="36308961"/>
+        <c:axId val="25911883"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1085,14 +915,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="46950928"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="43265414"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46950928"/>
+        <c:axId val="43265414"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1117,8 +947,8 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="36308961"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="25911883"/>
+        <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1152,7 +982,1135 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart40.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Headgasket - Sandy Bridge-EP'!$AC$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>percent error without gating, package</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Headgasket - Sandy Bridge-EP'!$AC$2:$AC$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.621555404531611</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.18569195916735</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.91269520083624</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.4791828180585</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.91726289122986</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.00699185415795</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.10025529851433</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.83905434039023</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.70699980929267</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.6229096273974</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.4266841719413</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.4747023582968</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.2112771043589</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.6959043055039</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.8541064569518</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.4484723590696</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.2782246378139</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15.2937403409324</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16.4279240793001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16.8188265251067</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>17.5888557516738</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15.3208989457052</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>18.611479144173</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Headgasket - Sandy Bridge-EP'!$AE$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>percent error w/o gating for p, package</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Headgasket - Sandy Bridge-EP'!$AE$2:$AE$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.328510908358996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.18978790911675</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.861899900866535</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.11708379391462</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.29400320647522</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.37694642700314</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.45686901637904</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4752135575129</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.52023946621492</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.57326995132561</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.61264477993285</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.71668512406579</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.76292371931902</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.93484008274421</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.04554838189826</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.06411325913666</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.12149072877646</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.20519193992166</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.30330773972787</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.2970797508207</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.34576195349237</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.25652625668776</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.37479480416324</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Headgasket - Sandy Bridge-EP'!$AK$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>percent error without gating, total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Headgasket - Sandy Bridge-EP'!$AK$2:$AK$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.412996827537889</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9236698811237</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.79817088029944</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2217566629159</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.56695633127279</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.53305101948225</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.64095413883512</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.40365406417448</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.27847839326656</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.1706789806793</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.0070169564811</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.87654794263814</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.60891222822913</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.9065455534203</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.0457955104825</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12.5850720281638</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.3334484418182</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14.3215897801805</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15.4063273212865</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15.8059960765491</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16.5445694308714</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14.3325077368902</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>17.5897132994564</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Headgasket - Sandy Bridge-EP'!$AM$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>percent error w/o gating for p, total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Headgasket - Sandy Bridge-EP'!$AM$2:$AM$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.216333214471397</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.07360146125049</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.808299150631914</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.02117814777506</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.17387934322572</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.23129287377568</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.31156252054033</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.33249953042593</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.37483398241633</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.41960564010634</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.45883284664717</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5360331578015</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.57938801224282</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.71318786574951</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.81557652108767</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.82500657295853</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.8675322670363</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.94238985542659</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.02754247311923</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.02220714824946</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.0630350346987</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.98867370032209</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.09088759057877</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="0"/>
+        <c:axId val="46199510"/>
+        <c:axId val="4122124"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="46199510"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="4122124"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="4122124"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="46199510"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart41.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Headgasket - Sandy Bridge-EP'!$AC$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>percent error without gating, package</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Headgasket - Sandy Bridge-EP'!$AC$27:$AC$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.41190254814521</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.96496240637923</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.74758709316713</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.83827555957808</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.52949895330938</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1509978381331</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.44664031883057</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.51670023351769</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-7.93353269943163</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-10.9038834524161</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-13.8408038678828</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-13.9014647456344</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-13.5591414134238</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-13.4952118199475</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-13.0314469109739</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-12.9100370899099</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-12.2792095932418</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-14.4829336127767</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-14.5357634013758</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-15.2326726258069</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-15.828096420309</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-16.5195584112452</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-17.4563998129675</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Headgasket - Sandy Bridge-EP'!$AE$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>percent error w/o gating for p, package</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Headgasket - Sandy Bridge-EP'!$AE$27:$AE$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.37732438911887</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.28405606034017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.39236291051631</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.33143640639911</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.519860248907348</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.984802576886582</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.466134467020341</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.46719775123699</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.64837769398382</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-3.69760245975875</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-4.79081467593084</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.76925945253696</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-4.57951129008627</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-4.52123754817036</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-4.3079652475985</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-4.24594725506133</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3.97777931303694</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-4.92519480578509</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-4.90115852764524</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-5.19477716068444</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-5.44697713170269</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-5.76411670693238</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-6.19366165262157</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Headgasket - Sandy Bridge-EP'!$AK$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>percent error without gating, total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Headgasket - Sandy Bridge-EP'!$AK$27:$AK$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.36309179885869</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.92912079451927</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.0389375241729</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.5637151764643</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.8005411501326</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.6643076251981</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.0392618551092</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.17217363623536</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.00148161049123</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.95438745047047</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.365528987211567</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.307290841672452</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.144242660589408</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.13090617042921</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.172238632194589</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.149293816240333</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.70396296580352</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.80869904170185</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.6598083706933</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-2.32302236281416</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2.53156704254815</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-3.40971871324312</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-4.49652526603259</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Headgasket - Sandy Bridge-EP'!$AM$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>percent error w/o gating for p, total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Headgasket - Sandy Bridge-EP'!$AM$27:$AM$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.23313098463668</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.24221896229793</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0337218385938</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9663809218892</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.19945871840154</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.33039153704021</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.36674982148194</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.68873374372081</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5333701325878</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.758491238306361</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.144239183987439</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.120387290240159</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.0557977563866698</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0503093208851942</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0654855028268614</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.056527543004701</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.263321708086193</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.703557866884064</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.641200923603642</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.905686474113921</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.994270109057165</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.35429575405024</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.81044380833656</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="0"/>
+        <c:axId val="92177410"/>
+        <c:axId val="65045841"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="92177410"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="65045841"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="65045841"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="92177410"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart42.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1185,11 +2143,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Headgasket - Sandy Bridge-EP'!$AH$1:$AH$1</c:f>
+              <c:f>'Headgasket - Sandy Bridge-EP'!$AL$1:$AL$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>modeled E_s w/o gating for p, total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1217,81 +2175,81 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Headgasket - Sandy Bridge-EP'!$AH$2:$AH$25</c:f>
+              <c:f>'Headgasket - Sandy Bridge-EP'!$AL$2:$AL$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>1.90533827496414</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
+                  <c:v>2.7751348330156</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>3.53266951022947</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v/>
+                  <c:v>4.2723526914295</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v/>
+                  <c:v>4.9629753065363</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v/>
+                  <c:v>5.60681189996558</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>6.22508707446641</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>6.79355474586264</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>7.33675343470409</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v/>
+                  <c:v>7.8623914908708</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v/>
+                  <c:v>8.3546072715423</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v/>
+                  <c:v>7.02496387616652</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v/>
+                  <c:v>6.62438915459714</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v/>
+                  <c:v>7.02314571040725</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v/>
+                  <c:v>7.40639581256689</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v/>
+                  <c:v>7.7447347710545</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v/>
+                  <c:v>8.08417256492045</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v/>
+                  <c:v>8.43848987493392</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v/>
+                  <c:v>8.80025550298777</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v/>
+                  <c:v>9.09583800704229</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v/>
+                  <c:v>9.41111120151658</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v/>
+                  <c:v>8.24553551612857</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v/>
+                  <c:v>9.99470002975243</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1302,11 +2260,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Headgasket - Sandy Bridge-EP'!$AI$1:$AI$1</c:f>
+              <c:f>'Headgasket - Sandy Bridge-EP'!$AM$1:$AM$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>percent error w/o gating for p, total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1334,81 +2292,81 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Headgasket - Sandy Bridge-EP'!$AI$2:$AI$25</c:f>
+              <c:f>'Headgasket - Sandy Bridge-EP'!$AM$2:$AM$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>-0.216333214471397</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
+                  <c:v>1.07360146125049</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>0.808299150631914</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v/>
+                  <c:v>1.02117814777506</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v/>
+                  <c:v>1.17387934322572</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v/>
+                  <c:v>1.23129287377568</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>1.31156252054033</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>1.33249953042593</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>1.37483398241633</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v/>
+                  <c:v>1.41960564010634</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v/>
+                  <c:v>1.45883284664717</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v/>
+                  <c:v>1.5360331578015</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v/>
+                  <c:v>1.57938801224282</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v/>
+                  <c:v>1.71318786574951</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v/>
+                  <c:v>1.81557652108767</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v/>
+                  <c:v>1.82500657295853</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v/>
+                  <c:v>1.8675322670363</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v/>
+                  <c:v>1.94238985542659</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v/>
+                  <c:v>2.02754247311923</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v/>
+                  <c:v>2.02220714824946</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v/>
+                  <c:v>2.0630350346987</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v/>
+                  <c:v>1.98867370032209</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v/>
+                  <c:v>2.09088759057877</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1419,7 +2377,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Headgasket - Sandy Bridge-EP'!$AJ$1:$AJ$1</c:f>
+              <c:f>'Headgasket - Sandy Bridge-EP'!$AN$1:$AN$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1451,7 +2409,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Headgasket - Sandy Bridge-EP'!$AJ$2:$AJ$25</c:f>
+              <c:f>'Headgasket - Sandy Bridge-EP'!$AN$2:$AN$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1620,11 +2578,11 @@
           </c:dLbls>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="62127061"/>
-        <c:axId val="11622412"/>
+        <c:axId val="97284341"/>
+        <c:axId val="35915098"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="62127061"/>
+        <c:axId val="97284341"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1660,14 +2618,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="11622412"/>
+        <c:crossAx val="35915098"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="11622412"/>
+        <c:axId val="35915098"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1714,7 +2672,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="62127061"/>
+        <c:crossAx val="97284341"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -1749,7 +2707,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart43.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1782,11 +2740,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Headgasket - Sandy Bridge-EP'!$AH$26:$AH$26</c:f>
+              <c:f>'Headgasket - Sandy Bridge-EP'!$AL$26:$AL$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>modeled E_s w/o gating for p, total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1814,81 +2772,81 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Headgasket - Sandy Bridge-EP'!$AH$27:$AH$50</c:f>
+              <c:f>'Headgasket - Sandy Bridge-EP'!$AL$27:$AL$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>1.69612586502985</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
+                  <c:v>2.21314649295052</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>2.58212878454634</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v/>
+                  <c:v>2.74956269997503</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v/>
+                  <c:v>2.76221794749113</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v/>
+                  <c:v>3.05198444840466</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>2.85229691800832</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>2.79632689744298</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>2.67669180501369</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v/>
+                  <c:v>2.6081063162768</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v/>
+                  <c:v>2.52859898863209</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v/>
+                  <c:v>2.54776283313655</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v/>
+                  <c:v>2.58281476517918</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v/>
+                  <c:v>2.6041260877411</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v/>
+                  <c:v>2.63299222153259</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v/>
+                  <c:v>2.63863455684984</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v/>
+                  <c:v>2.68525870353955</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v/>
+                  <c:v>2.54288319438745</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v/>
+                  <c:v>2.5626561339057</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v/>
+                  <c:v>2.529401608668</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v/>
+                  <c:v>2.50798069777467</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v/>
+                  <c:v>2.46766294557519</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v/>
+                  <c:v>2.41981669803402</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1899,11 +2857,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Headgasket - Sandy Bridge-EP'!$AI$26:$AI$26</c:f>
+              <c:f>'Headgasket - Sandy Bridge-EP'!$AM$26:$AM$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>percent error w/o gating for p, total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1931,81 +2889,81 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Headgasket - Sandy Bridge-EP'!$AI$27:$AI$50</c:f>
+              <c:f>'Headgasket - Sandy Bridge-EP'!$AM$27:$AM$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>3.23313098463668</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
+                  <c:v>4.24221896229793</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>5.0337218385938</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v/>
+                  <c:v>4.9663809218892</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v/>
+                  <c:v>4.19945871840154</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v/>
+                  <c:v>5.33039153704021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>3.36674982148194</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>2.68873374372081</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>1.5333701325878</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v/>
+                  <c:v>0.758491238306361</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v/>
+                  <c:v>-0.144239183987439</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v/>
+                  <c:v>-0.120387290240159</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v/>
+                  <c:v>-0.0557977563866698</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v/>
+                  <c:v>0.0503093208851942</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v/>
+                  <c:v>0.0654855028268614</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v/>
+                  <c:v>-0.056527543004701</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v/>
+                  <c:v>0.263321708086193</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v/>
+                  <c:v>-0.703557866884064</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v/>
+                  <c:v>-0.641200923603642</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v/>
+                  <c:v>-0.905686474113921</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v/>
+                  <c:v>-0.994270109057165</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v/>
+                  <c:v>-1.35429575405024</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v/>
+                  <c:v>-1.81044380833656</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2016,7 +2974,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Headgasket - Sandy Bridge-EP'!$AJ$26:$AJ$26</c:f>
+              <c:f>'Headgasket - Sandy Bridge-EP'!$AN$26:$AN$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2048,7 +3006,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Headgasket - Sandy Bridge-EP'!$AJ$27:$AJ$50</c:f>
+              <c:f>'Headgasket - Sandy Bridge-EP'!$AN$27:$AN$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -2217,11 +3175,11 @@
           </c:dLbls>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="4948271"/>
-        <c:axId val="57636647"/>
+        <c:axId val="42212958"/>
+        <c:axId val="53976649"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="4948271"/>
+        <c:axId val="42212958"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2257,14 +3215,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="57636647"/>
+        <c:crossAx val="53976649"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57636647"/>
+        <c:axId val="53976649"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2311,7 +3269,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="4948271"/>
+        <c:crossAx val="42212958"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -2346,7 +3304,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart44.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2379,7 +3337,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Headgasket - Sandy Bridge-EP'!$AH$101:$AH$101</c:f>
+              <c:f>'Headgasket - Sandy Bridge-EP'!$AL$101:$AL$101</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2411,7 +3369,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Headgasket - Sandy Bridge-EP'!$AH$102:$AH$125</c:f>
+              <c:f>'Headgasket - Sandy Bridge-EP'!$AL$102:$AL$125</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -2496,7 +3454,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Headgasket - Sandy Bridge-EP'!$AI$101:$AI$101</c:f>
+              <c:f>'Headgasket - Sandy Bridge-EP'!$AM$101:$AM$101</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2528,7 +3486,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Headgasket - Sandy Bridge-EP'!$AI$102:$AI$125</c:f>
+              <c:f>'Headgasket - Sandy Bridge-EP'!$AM$102:$AM$125</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -2613,7 +3571,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Headgasket - Sandy Bridge-EP'!$AJ$101:$AJ$101</c:f>
+              <c:f>'Headgasket - Sandy Bridge-EP'!$AN$101:$AN$101</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2645,7 +3603,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Headgasket - Sandy Bridge-EP'!$AJ$102:$AJ$125</c:f>
+              <c:f>'Headgasket - Sandy Bridge-EP'!$AN$102:$AN$125</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -2814,11 +3772,11 @@
           </c:dLbls>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="59604171"/>
-        <c:axId val="93585014"/>
+        <c:axId val="41224925"/>
+        <c:axId val="13681576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="59604171"/>
+        <c:axId val="41224925"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2854,14 +3812,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="93585014"/>
+        <c:crossAx val="13681576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93585014"/>
+        <c:axId val="13681576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2908,7 +3866,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="59604171"/>
+        <c:crossAx val="41224925"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -2943,7 +3901,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart45.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -3405,11 +4363,11 @@
           </c:dLbls>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="85284217"/>
-        <c:axId val="28957461"/>
+        <c:axId val="79211679"/>
+        <c:axId val="65933043"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="85284217"/>
+        <c:axId val="79211679"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3445,14 +4403,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="28957461"/>
+        <c:crossAx val="65933043"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="28957461"/>
+        <c:axId val="65933043"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3497,7 +4455,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="85284217"/>
+        <c:crossAx val="79211679"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -3532,7 +4490,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart46.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -3565,7 +4523,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Headgasket - Sandy Bridge-EP'!$AH$151:$AH$151</c:f>
+              <c:f>'Headgasket - Sandy Bridge-EP'!$AL$151:$AL$151</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3597,7 +4555,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Headgasket - Sandy Bridge-EP'!$AH$152:$AH$175</c:f>
+              <c:f>'Headgasket - Sandy Bridge-EP'!$AL$152:$AL$175</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -3682,7 +4640,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Headgasket - Sandy Bridge-EP'!$AI$151:$AI$151</c:f>
+              <c:f>'Headgasket - Sandy Bridge-EP'!$AM$151:$AM$151</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3714,7 +4672,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Headgasket - Sandy Bridge-EP'!$AI$152:$AI$175</c:f>
+              <c:f>'Headgasket - Sandy Bridge-EP'!$AM$152:$AM$175</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -3799,7 +4757,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Headgasket - Sandy Bridge-EP'!$AJ$151:$AJ$151</c:f>
+              <c:f>'Headgasket - Sandy Bridge-EP'!$AN$151:$AN$151</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3831,7 +4789,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Headgasket - Sandy Bridge-EP'!$AJ$152:$AJ$175</c:f>
+              <c:f>'Headgasket - Sandy Bridge-EP'!$AN$152:$AN$175</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -3916,7 +4874,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Headgasket - Sandy Bridge-EP'!$AQ$151:$AQ$151</c:f>
+              <c:f>'Headgasket - Sandy Bridge-EP'!$AU$151:$AU$151</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3948,7 +4906,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Headgasket - Sandy Bridge-EP'!$AQ$152:$AQ$175</c:f>
+              <c:f>'Headgasket - Sandy Bridge-EP'!$AU$152:$AU$175</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -4095,11 +5053,11 @@
           </c:dLbls>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="13793439"/>
-        <c:axId val="67666158"/>
+        <c:axId val="21331609"/>
+        <c:axId val="83921539"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="13793439"/>
+        <c:axId val="21331609"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4135,14 +5093,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="67666158"/>
+        <c:crossAx val="83921539"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67666158"/>
+        <c:axId val="83921539"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4187,7 +5145,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="13793439"/>
+        <c:crossAx val="21331609"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -4226,15 +5184,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>444600</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>402120</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>7200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>142560</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>334440</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>158400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
@@ -4243,8 +5201,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="49247280" y="982440"/>
-        <a:ext cx="9451800" cy="3239640"/>
+        <a:off x="46006920" y="7200"/>
+        <a:ext cx="5759640" cy="3239640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4256,16 +5214,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>465480</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>6840</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>425160</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>46080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>123120</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>158040</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>357480</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>34560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4273,8 +5231,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="49268160" y="4395960"/>
-        <a:ext cx="9411480" cy="3239640"/>
+        <a:off x="46029960" y="3297240"/>
+        <a:ext cx="5759640" cy="3239640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4291,6 +5249,71 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>36360</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>36000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>779400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95760</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="61111080" y="36000"/>
+        <a:ext cx="10496520" cy="3961080"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>51120</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>45360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>740160</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>57600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="61125840" y="4109040"/>
+        <a:ext cx="10442520" cy="3913920"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>127800</xdr:colOff>
       <xdr:row>12</xdr:row>
@@ -4304,7 +5327,7 @@
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvPr id="4" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4334,7 +5357,7 @@
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvPr id="5" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4364,7 +5387,7 @@
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name=""/>
+        <xdr:cNvPr id="6" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4394,7 +5417,7 @@
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name=""/>
+        <xdr:cNvPr id="7" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4424,7 +5447,7 @@
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name=""/>
+        <xdr:cNvPr id="8" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4449,8 +5472,8 @@
   </sheetPr>
   <dimension ref="A1:AD159"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Y1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AC39" activeCellId="0" sqref="AC39"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R11" activeCellId="0" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -4657,7 +5680,7 @@
         <v>0.814973491177068</v>
       </c>
       <c r="V2" s="0" t="n">
-        <f aca="false">K2-$Q$137*J2</f>
+        <f aca="false">K$2-$Q$137*J$2</f>
         <v>23.0414850978752</v>
       </c>
       <c r="W2" s="0" t="n">
@@ -4677,7 +5700,7 @@
         <v>0.0930219586695227</v>
       </c>
       <c r="AA2" s="0" t="n">
-        <f aca="false">L2-$R$137*J2</f>
+        <f aca="false">L$2-$R$137*J$2</f>
         <v>14.6986779019657</v>
       </c>
       <c r="AB2" s="0" t="n">
@@ -4767,40 +5790,40 @@
         <v>0.814973491177068</v>
       </c>
       <c r="V3" s="0" t="n">
-        <f aca="false">K3-$Q$137*J3</f>
-        <v>20.8789722708986</v>
+        <f aca="false">K$2-$Q$137*J$2</f>
+        <v>23.0414850978752</v>
       </c>
       <c r="W3" s="0" t="n">
         <f aca="false">$V3/($U3*12+$V3)</f>
-        <v>0.681013985757997</v>
+        <v>0.702031256338065</v>
       </c>
       <c r="X3" s="1" t="n">
         <f aca="false">(U3*12+V3)/(U3*12/Q3+V3)</f>
-        <v>1.1896798615178</v>
+        <v>1.17499526514518</v>
       </c>
       <c r="Y3" s="0" t="n">
         <f aca="false">(R3-X3)/R3*100</f>
-        <v>6.58877494363217</v>
+        <v>7.741779361875</v>
       </c>
       <c r="Z3" s="0" t="n">
         <f aca="false">$R$137*J$2/12</f>
         <v>0.0930219586695227</v>
       </c>
       <c r="AA3" s="0" t="n">
-        <f aca="false">L3-$R$137*J3</f>
-        <v>16.2007080281803</v>
+        <f aca="false">L$2-$R$137*J$2</f>
+        <v>14.6986779019657</v>
       </c>
       <c r="AB3" s="0" t="n">
         <f aca="false">$AA3/($Z3*12+$AA3)</f>
-        <v>0.935539334810495</v>
+        <v>0.929417158408771</v>
       </c>
       <c r="AC3" s="1" t="n">
         <f aca="false">(Z3*12+AA3)/(Z3*12/Q3+AA3)</f>
-        <v>1.03329179687494</v>
+        <v>1.03656932664997</v>
       </c>
       <c r="AD3" s="0" t="n">
         <f aca="false">(S3-AC3)/S3*100</f>
-        <v>-9.49753835726984</v>
+        <v>-9.84485693982749</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4877,40 +5900,40 @@
         <v>0.814973491177068</v>
       </c>
       <c r="V4" s="0" t="n">
-        <f aca="false">K4-$Q$137*J4</f>
-        <v>17.3694406467686</v>
+        <f aca="false">K$2-$Q$137*J$2</f>
+        <v>23.0414850978752</v>
       </c>
       <c r="W4" s="0" t="n">
         <f aca="false">$V4/($U4*12+$V4)</f>
-        <v>0.639779080174906</v>
+        <v>0.702031256338065</v>
       </c>
       <c r="X4" s="1" t="n">
         <f aca="false">(U4*12+V4)/(U4*12/Q4+V4)</f>
-        <v>1.31589274240168</v>
+        <v>1.24777480826407</v>
       </c>
       <c r="Y4" s="0" t="n">
         <f aca="false">(R4-X4)/R4*100</f>
-        <v>17.2816659824715</v>
+        <v>21.5636274577622</v>
       </c>
       <c r="Z4" s="0" t="n">
         <f aca="false">$R$137*J$2/12</f>
         <v>0.0930219586695227</v>
       </c>
       <c r="AA4" s="0" t="n">
-        <f aca="false">L4-$R$137*J4</f>
-        <v>14.6692665705146</v>
+        <f aca="false">L$2-$R$137*J$2</f>
+        <v>14.6986779019657</v>
       </c>
       <c r="AB4" s="0" t="n">
         <f aca="false">$AA4/($Z4*12+$AA4)</f>
-        <v>0.929285649657465</v>
+        <v>0.929417158408771</v>
       </c>
       <c r="AC4" s="1" t="n">
         <f aca="false">(Z4*12+AA4)/(Z4*12/Q4+AA4)</f>
-        <v>1.04945636194756</v>
+        <v>1.04935984719387</v>
       </c>
       <c r="AD4" s="0" t="n">
         <f aca="false">(S4-AC4)/S4*100</f>
-        <v>0.185971801577322</v>
+        <v>0.195151341285554</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4987,40 +6010,40 @@
         <v>0.814973491177068</v>
       </c>
       <c r="V5" s="0" t="n">
-        <f aca="false">K5-$Q$137*J5</f>
-        <v>16.7970284584295</v>
+        <f aca="false">K$2-$Q$137*J$2</f>
+        <v>23.0414850978752</v>
       </c>
       <c r="W5" s="0" t="n">
         <f aca="false">$V5/($U5*12+$V5)</f>
-        <v>0.632020601331313</v>
+        <v>0.702031256338065</v>
       </c>
       <c r="X5" s="1" t="n">
         <f aca="false">(U5*12+V5)/(U5*12/Q5+V5)</f>
-        <v>1.38029322655487</v>
+        <v>1.28716257734942</v>
       </c>
       <c r="Y5" s="0" t="n">
         <f aca="false">(R5-X5)/R5*100</f>
-        <v>19.0256996071094</v>
+        <v>24.4891685421627</v>
       </c>
       <c r="Z5" s="0" t="n">
         <f aca="false">$R$137*J$2/12</f>
         <v>0.0930219586695227</v>
       </c>
       <c r="AA5" s="0" t="n">
-        <f aca="false">L5-$R$137*J5</f>
-        <v>14.7173163038115</v>
+        <f aca="false">L$2-$R$137*J$2</f>
+        <v>14.6986779019657</v>
       </c>
       <c r="AB5" s="0" t="n">
         <f aca="false">$AA5/($Z5*12+$AA5)</f>
-        <v>0.929500244570015</v>
+        <v>0.929417158408771</v>
       </c>
       <c r="AC5" s="1" t="n">
         <f aca="false">(Z5*12+AA5)/(Z5*12/Q5+AA5)</f>
-        <v>1.05572663467236</v>
+        <v>1.05579597468276</v>
       </c>
       <c r="AD5" s="0" t="n">
         <f aca="false">(S5-AC5)/S5*100</f>
-        <v>-0.117853119826769</v>
+        <v>-0.124428849516904</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5097,40 +6120,40 @@
         <v>0.814973491177068</v>
       </c>
       <c r="V6" s="0" t="n">
-        <f aca="false">K6-$Q$137*J6</f>
-        <v>15.1699689007986</v>
+        <f aca="false">K$2-$Q$137*J$2</f>
+        <v>23.0414850978752</v>
       </c>
       <c r="W6" s="0" t="n">
         <f aca="false">$V6/($U6*12+$V6)</f>
-        <v>0.608023295616036</v>
+        <v>0.702031256338065</v>
       </c>
       <c r="X6" s="1" t="n">
         <f aca="false">(U6*12+V6)/(U6*12/Q6+V6)</f>
-        <v>1.41290173595132</v>
+        <v>1.2855939665074</v>
       </c>
       <c r="Y6" s="0" t="n">
         <f aca="false">(R6-X6)/R6*100</f>
-        <v>23.9830478879538</v>
+        <v>30.8324616632113</v>
       </c>
       <c r="Z6" s="0" t="n">
         <f aca="false">$R$137*J$2/12</f>
         <v>0.0930219586695227</v>
       </c>
       <c r="AA6" s="0" t="n">
-        <f aca="false">L6-$R$137*J6</f>
-        <v>13.0827226320825</v>
+        <f aca="false">L$2-$R$137*J$2</f>
+        <v>14.6986779019657</v>
       </c>
       <c r="AB6" s="0" t="n">
         <f aca="false">$AA6/($Z6*12+$AA6)</f>
-        <v>0.921384281008985</v>
+        <v>0.929417158408771</v>
       </c>
       <c r="AC6" s="1" t="n">
         <f aca="false">(Z6*12+AA6)/(Z6*12/Q6+AA6)</f>
-        <v>1.06226085209615</v>
+        <v>1.05554573080198</v>
       </c>
       <c r="AD6" s="0" t="n">
         <f aca="false">(S6-AC6)/S6*100</f>
-        <v>10.2179023519501</v>
+        <v>10.7854632053525</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5207,40 +6230,40 @@
         <v>0.814973491177068</v>
       </c>
       <c r="V7" s="0" t="n">
-        <f aca="false">K7-$Q$137*J7</f>
-        <v>15.7756694220096</v>
+        <f aca="false">K$2-$Q$137*J$2</f>
+        <v>23.0414850978752</v>
       </c>
       <c r="W7" s="0" t="n">
         <f aca="false">$V7/($U7*12+$V7)</f>
-        <v>0.617313737027344</v>
+        <v>0.702031256338065</v>
       </c>
       <c r="X7" s="1" t="n">
         <f aca="false">(U7*12+V7)/(U7*12/Q7+V7)</f>
-        <v>1.39720916469695</v>
+        <v>1.28427923008008</v>
       </c>
       <c r="Y7" s="0" t="n">
         <f aca="false">(R7-X7)/R7*100</f>
-        <v>22.1375908956456</v>
+        <v>28.4308481912876</v>
       </c>
       <c r="Z7" s="0" t="n">
         <f aca="false">$R$137*J$2/12</f>
         <v>0.0930219586695227</v>
       </c>
       <c r="AA7" s="0" t="n">
-        <f aca="false">L7-$R$137*J7</f>
-        <v>13.3369416562488</v>
+        <f aca="false">L$2-$R$137*J$2</f>
+        <v>14.6986779019657</v>
       </c>
       <c r="AB7" s="0" t="n">
         <f aca="false">$AA7/($Z7*12+$AA7)</f>
-        <v>0.922767061585639</v>
+        <v>0.929417158408771</v>
       </c>
       <c r="AC7" s="1" t="n">
         <f aca="false">(Z7*12+AA7)/(Z7*12/Q7+AA7)</f>
-        <v>1.06086648904443</v>
+        <v>1.05533560882124</v>
       </c>
       <c r="AD7" s="0" t="n">
         <f aca="false">(S7-AC7)/S7*100</f>
-        <v>8.61044129572501</v>
+        <v>9.08690530704349</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5317,40 +6340,40 @@
         <v>0.814973491177068</v>
       </c>
       <c r="V8" s="0" t="n">
-        <f aca="false">K8-$Q$137*J8</f>
-        <v>14.2476044702403</v>
+        <f aca="false">K$2-$Q$137*J$2</f>
+        <v>23.0414850978752</v>
       </c>
       <c r="W8" s="0" t="n">
         <f aca="false">$V8/($U8*12+$V8)</f>
-        <v>0.592976012945471</v>
+        <v>0.702031256338065</v>
       </c>
       <c r="X8" s="1" t="n">
         <f aca="false">(U8*12+V8)/(U8*12/Q8+V8)</f>
-        <v>1.46460204181597</v>
+        <v>1.30246782934424</v>
       </c>
       <c r="Y8" s="0" t="n">
         <f aca="false">(R8-X8)/R8*100</f>
-        <v>26.7933209985445</v>
+        <v>34.8974386418976</v>
       </c>
       <c r="Z8" s="0" t="n">
         <f aca="false">$R$137*J$2/12</f>
         <v>0.0930219586695227</v>
       </c>
       <c r="AA8" s="0" t="n">
-        <f aca="false">L8-$R$137*J8</f>
-        <v>12.3782260740905</v>
+        <f aca="false">L$2-$R$137*J$2</f>
+        <v>14.6986779019657</v>
       </c>
       <c r="AB8" s="0" t="n">
         <f aca="false">$AA8/($Z8*12+$AA8)</f>
-        <v>0.917280049936547</v>
+        <v>0.929417158408771</v>
       </c>
       <c r="AC8" s="1" t="n">
         <f aca="false">(Z8*12+AA8)/(Z8*12/Q8+AA8)</f>
-        <v>1.06891180265486</v>
+        <v>1.05821210988266</v>
       </c>
       <c r="AD8" s="0" t="n">
         <f aca="false">(S8-AC8)/S8*100</f>
-        <v>14.6725287707663</v>
+        <v>15.5266476278266</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5427,40 +6450,40 @@
         <v>0.814973491177068</v>
       </c>
       <c r="V9" s="0" t="n">
-        <f aca="false">K9-$Q$137*J9</f>
-        <v>13.9873716145456</v>
+        <f aca="false">K$2-$Q$137*J$2</f>
+        <v>23.0414850978752</v>
       </c>
       <c r="W9" s="0" t="n">
         <f aca="false">$V9/($U9*12+$V9)</f>
-        <v>0.588519380807675</v>
+        <v>0.702031256338065</v>
       </c>
       <c r="X9" s="1" t="n">
         <f aca="false">(U9*12+V9)/(U9*12/Q9+V9)</f>
-        <v>1.49330773419315</v>
+        <v>1.31443325675616</v>
       </c>
       <c r="Y9" s="0" t="n">
         <f aca="false">(R9-X9)/R9*100</f>
-        <v>27.5862021772001</v>
+        <v>36.2602215693112</v>
       </c>
       <c r="Z9" s="0" t="n">
         <f aca="false">$R$137*J$2/12</f>
         <v>0.0930219586695227</v>
       </c>
       <c r="AA9" s="0" t="n">
-        <f aca="false">L9-$R$137*J9</f>
-        <v>12.2777610818557</v>
+        <f aca="false">L$2-$R$137*J$2</f>
+        <v>14.6986779019657</v>
       </c>
       <c r="AB9" s="0" t="n">
         <f aca="false">$AA9/($Z9*12+$AA9)</f>
-        <v>0.916659589738979</v>
+        <v>0.929417158408771</v>
       </c>
       <c r="AC9" s="1" t="n">
         <f aca="false">(Z9*12+AA9)/(Z9*12/Q9+AA9)</f>
-        <v>1.07170511964715</v>
+        <v>1.06006930737651</v>
       </c>
       <c r="AD9" s="0" t="n">
         <f aca="false">(S9-AC9)/S9*100</f>
-        <v>15.3077824189192</v>
+        <v>16.227310306294</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5632,7 +6655,7 @@
         <v>0.503874079303549</v>
       </c>
       <c r="V11" s="0" t="n">
-        <f aca="false">K11-$Q$137*J11</f>
+        <f aca="false">K$11-$Q$137*J$11</f>
         <v>20.9645584113574</v>
       </c>
       <c r="W11" s="0" t="n">
@@ -5652,7 +6675,7 @@
         <v>0.0575127342018476</v>
       </c>
       <c r="AA11" s="0" t="n">
-        <f aca="false">L11-$R$137*J11</f>
+        <f aca="false">L$11-$R$137*J$11</f>
         <v>13.5408652555778</v>
       </c>
       <c r="AB11" s="0" t="n">
@@ -5742,40 +6765,40 @@
         <v>0.503874079303549</v>
       </c>
       <c r="V12" s="0" t="n">
-        <f aca="false">K12-$Q$137*J12</f>
-        <v>21.0587501240505</v>
+        <f aca="false">K$11-$Q$137*J$11</f>
+        <v>20.9645584113574</v>
       </c>
       <c r="W12" s="0" t="n">
         <f aca="false">$V12/($U12*12+$V12)</f>
-        <v>0.776925452132801</v>
+        <v>0.776147556576235</v>
       </c>
       <c r="X12" s="1" t="n">
         <f aca="false">(U12*12+V12)/(U12*12/Q12+V12)</f>
-        <v>1.08500689479666</v>
+        <v>1.0853286211804</v>
       </c>
       <c r="Y12" s="0" t="n">
         <f aca="false">(R12-X12)/R12*100</f>
-        <v>-0.348715514164485</v>
+        <v>-0.378470928172355</v>
       </c>
       <c r="Z12" s="0" t="n">
         <f aca="false">$R$137*J$11/12</f>
         <v>0.0575127342018476</v>
       </c>
       <c r="AA12" s="0" t="n">
-        <f aca="false">L12-$R$137*J12</f>
-        <v>15.9374923206443</v>
+        <f aca="false">L$11-$R$137*J$11</f>
+        <v>13.5408652555778</v>
       </c>
       <c r="AB12" s="0" t="n">
         <f aca="false">$AA12/($Z12*12+$AA12)</f>
-        <v>0.958493652890588</v>
+        <v>0.951503623477856</v>
       </c>
       <c r="AC12" s="1" t="n">
         <f aca="false">(Z12*12+AA12)/(Z12*12/Q12+AA12)</f>
-        <v>1.01479325413308</v>
+        <v>1.01732773543985</v>
       </c>
       <c r="AD12" s="0" t="n">
         <f aca="false">(S12-AC12)/S12*100</f>
-        <v>-16.8408686852304</v>
+        <v>-17.1326828023853</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5852,40 +6875,40 @@
         <v>0.503874079303549</v>
       </c>
       <c r="V13" s="0" t="n">
-        <f aca="false">K13-$Q$137*J13</f>
-        <v>23.7812626515522</v>
+        <f aca="false">K$11-$Q$137*J$11</f>
+        <v>20.9645584113574</v>
       </c>
       <c r="W13" s="0" t="n">
         <f aca="false">$V13/($U13*12+$V13)</f>
-        <v>0.797286465568026</v>
+        <v>0.776147556576235</v>
       </c>
       <c r="X13" s="1" t="n">
         <f aca="false">(U13*12+V13)/(U13*12/Q13+V13)</f>
-        <v>1.08459014715889</v>
+        <v>1.09424249984508</v>
       </c>
       <c r="Y13" s="0" t="n">
         <f aca="false">(R13-X13)/R13*100</f>
-        <v>-10.427971201343</v>
+        <v>-11.4107292756701</v>
       </c>
       <c r="Z13" s="0" t="n">
         <f aca="false">$R$137*J$11/12</f>
         <v>0.0575127342018476</v>
       </c>
       <c r="AA13" s="0" t="n">
-        <f aca="false">L13-$R$137*J13</f>
-        <v>19.1239630354093</v>
+        <f aca="false">L$11-$R$137*J$11</f>
+        <v>13.5408652555778</v>
       </c>
       <c r="AB13" s="0" t="n">
         <f aca="false">$AA13/($Z13*12+$AA13)</f>
-        <v>0.96516862948657</v>
+        <v>0.951503623477856</v>
       </c>
       <c r="AC13" s="1" t="n">
         <f aca="false">(Z13*12+AA13)/(Z13*12/Q13+AA13)</f>
-        <v>1.0135831762571</v>
+        <v>1.01901343483138</v>
       </c>
       <c r="AD13" s="0" t="n">
         <f aca="false">(S13-AC13)/S13*100</f>
-        <v>-39.2318929955568</v>
+        <v>-39.9778260363394</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5962,40 +6985,40 @@
         <v>0.503874079303549</v>
       </c>
       <c r="V14" s="0" t="n">
-        <f aca="false">K14-$Q$137*J14</f>
-        <v>26.8197089094308</v>
+        <f aca="false">K$11-$Q$137*J$11</f>
+        <v>20.9645584113574</v>
       </c>
       <c r="W14" s="0" t="n">
         <f aca="false">$V14/($U14*12+$V14)</f>
-        <v>0.816027123757931</v>
+        <v>0.776147556576235</v>
       </c>
       <c r="X14" s="1" t="n">
         <f aca="false">(U14*12+V14)/(U14*12/Q14+V14)</f>
-        <v>1.07978645246078</v>
+        <v>1.09879025871358</v>
       </c>
       <c r="Y14" s="0" t="n">
         <f aca="false">(R14-X14)/R14*100</f>
-        <v>-21.676873241479</v>
+        <v>-23.8183371571062</v>
       </c>
       <c r="Z14" s="0" t="n">
         <f aca="false">$R$137*J$11/12</f>
         <v>0.0575127342018476</v>
       </c>
       <c r="AA14" s="0" t="n">
-        <f aca="false">L14-$R$137*J14</f>
-        <v>22.3564496781927</v>
+        <f aca="false">L$11-$R$137*J$11</f>
+        <v>13.5408652555778</v>
       </c>
       <c r="AB14" s="0" t="n">
         <f aca="false">$AA14/($Z14*12+$AA14)</f>
-        <v>0.970054032443042</v>
+        <v>0.951503623477856</v>
       </c>
       <c r="AC14" s="1" t="n">
         <f aca="false">(Z14*12+AA14)/(Z14*12/Q14+AA14)</f>
-        <v>1.01217393510019</v>
+        <v>1.0198650416251</v>
       </c>
       <c r="AD14" s="0" t="n">
         <f aca="false">(S14-AC14)/S14*100</f>
-        <v>-61.9462668217436</v>
+        <v>-63.176831990677</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6072,40 +7095,40 @@
         <v>0.503874079303549</v>
       </c>
       <c r="V15" s="0" t="n">
-        <f aca="false">K15-$Q$137*J15</f>
-        <v>27.5612855580171</v>
+        <f aca="false">K$11-$Q$137*J$11</f>
+        <v>20.9645584113574</v>
       </c>
       <c r="W15" s="0" t="n">
         <f aca="false">$V15/($U15*12+$V15)</f>
-        <v>0.820086600798137</v>
+        <v>0.776147556576235</v>
       </c>
       <c r="X15" s="1" t="n">
         <f aca="false">(U15*12+V15)/(U15*12/Q15+V15)</f>
-        <v>1.07457149743328</v>
+        <v>1.09450472390917</v>
       </c>
       <c r="Y15" s="0" t="n">
         <f aca="false">(R15-X15)/R15*100</f>
-        <v>-24.4223300859333</v>
+        <v>-26.7303556479231</v>
       </c>
       <c r="Z15" s="0" t="n">
         <f aca="false">$R$137*J$11/12</f>
         <v>0.0575127342018476</v>
       </c>
       <c r="AA15" s="0" t="n">
-        <f aca="false">L15-$R$137*J15</f>
-        <v>23.0666546690087</v>
+        <f aca="false">L$11-$R$137*J$11</f>
+        <v>13.5408652555778</v>
       </c>
       <c r="AB15" s="0" t="n">
         <f aca="false">$AA15/($Z15*12+$AA15)</f>
-        <v>0.970949261132005</v>
+        <v>0.951503623477856</v>
       </c>
       <c r="AC15" s="1" t="n">
         <f aca="false">(Z15*12+AA15)/(Z15*12/Q15+AA15)</f>
-        <v>1.01133248566667</v>
+        <v>1.01906269201641</v>
       </c>
       <c r="AD15" s="0" t="n">
         <f aca="false">(S15-AC15)/S15*100</f>
-        <v>-66.9368092237156</v>
+        <v>-68.2128050025084</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6182,40 +7205,40 @@
         <v>0.503874079303549</v>
       </c>
       <c r="V16" s="0" t="n">
-        <f aca="false">K16-$Q$137*J16</f>
-        <v>27.4060164739689</v>
+        <f aca="false">K$11-$Q$137*J$11</f>
+        <v>20.9645584113574</v>
       </c>
       <c r="W16" s="0" t="n">
         <f aca="false">$V16/($U16*12+$V16)</f>
-        <v>0.819251536627408</v>
+        <v>0.776147556576235</v>
       </c>
       <c r="X16" s="1" t="n">
         <f aca="false">(U16*12+V16)/(U16*12/Q16+V16)</f>
-        <v>1.07563777271954</v>
+        <v>1.09539621612922</v>
       </c>
       <c r="Y16" s="0" t="n">
         <f aca="false">(R16-X16)/R16*100</f>
-        <v>-23.8474946048745</v>
+        <v>-26.1224553543415</v>
       </c>
       <c r="Z16" s="0" t="n">
         <f aca="false">$R$137*J$11/12</f>
         <v>0.0575127342018476</v>
       </c>
       <c r="AA16" s="0" t="n">
-        <f aca="false">L16-$R$137*J16</f>
-        <v>22.9648212075677</v>
+        <f aca="false">L$11-$R$137*J$11</f>
+        <v>13.5408652555778</v>
       </c>
       <c r="AB16" s="0" t="n">
         <f aca="false">$AA16/($Z16*12+$AA16)</f>
-        <v>0.970824199176997</v>
+        <v>0.951503623477856</v>
       </c>
       <c r="AC16" s="1" t="n">
         <f aca="false">(Z16*12+AA16)/(Z16*12/Q16+AA16)</f>
-        <v>1.01148096981178</v>
+        <v>1.01923001254899</v>
       </c>
       <c r="AD16" s="0" t="n">
         <f aca="false">(S16-AC16)/S16*100</f>
-        <v>-66.2212352502387</v>
+        <v>-67.4946704351104</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6292,40 +7315,40 @@
         <v>0.503874079303549</v>
       </c>
       <c r="V17" s="0" t="n">
-        <f aca="false">K17-$Q$137*J17</f>
-        <v>28.4509707224138</v>
+        <f aca="false">K$11-$Q$137*J$11</f>
+        <v>20.9645584113574</v>
       </c>
       <c r="W17" s="0" t="n">
         <f aca="false">$V17/($U17*12+$V17)</f>
-        <v>0.824726544830493</v>
+        <v>0.776147556576235</v>
       </c>
       <c r="X17" s="1" t="n">
         <f aca="false">(U17*12+V17)/(U17*12/Q17+V17)</f>
-        <v>1.06958138681559</v>
+        <v>1.09061415958182</v>
       </c>
       <c r="Y17" s="0" t="n">
         <f aca="false">(R17-X17)/R17*100</f>
-        <v>-27.7161126351262</v>
+        <v>-30.2275848884331</v>
       </c>
       <c r="Z17" s="0" t="n">
         <f aca="false">$R$137*J$11/12</f>
         <v>0.0575127342018476</v>
       </c>
       <c r="AA17" s="0" t="n">
-        <f aca="false">L17-$R$137*J17</f>
-        <v>23.7752339598822</v>
+        <f aca="false">L$11-$R$137*J$11</f>
+        <v>13.5408652555778</v>
       </c>
       <c r="AB17" s="0" t="n">
         <f aca="false">$AA17/($Z17*12+$AA17)</f>
-        <v>0.971790643781693</v>
+        <v>0.951503623477856</v>
       </c>
       <c r="AC17" s="1" t="n">
         <f aca="false">(Z17*12+AA17)/(Z17*12/Q17+AA17)</f>
-        <v>1.01058101686907</v>
+        <v>1.01832993380787</v>
       </c>
       <c r="AD17" s="0" t="n">
         <f aca="false">(S17-AC17)/S17*100</f>
-        <v>-71.9159279880036</v>
+        <v>-73.2341421877553</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6402,40 +7425,40 @@
         <v>0.503874079303549</v>
       </c>
       <c r="V18" s="0" t="n">
-        <f aca="false">K18-$Q$137*J18</f>
-        <v>27.9417406942611</v>
+        <f aca="false">K$11-$Q$137*J$11</f>
+        <v>20.9645584113574</v>
       </c>
       <c r="W18" s="0" t="n">
         <f aca="false">$V18/($U18*12+$V18)</f>
-        <v>0.822100503184892</v>
+        <v>0.776147556576235</v>
       </c>
       <c r="X18" s="1" t="n">
         <f aca="false">(U18*12+V18)/(U18*12/Q18+V18)</f>
-        <v>1.07464574198717</v>
+        <v>1.09577404881155</v>
       </c>
       <c r="Y18" s="0" t="n">
         <f aca="false">(R18-X18)/R18*100</f>
-        <v>-25.8308468721621</v>
+        <v>-28.3047716613402</v>
       </c>
       <c r="Z18" s="0" t="n">
         <f aca="false">$R$137*J$11/12</f>
         <v>0.0575127342018476</v>
       </c>
       <c r="AA18" s="0" t="n">
-        <f aca="false">L18-$R$137*J18</f>
-        <v>23.3584918917433</v>
+        <f aca="false">L$11-$R$137*J$11</f>
+        <v>13.5408652555778</v>
       </c>
       <c r="AB18" s="0" t="n">
         <f aca="false">$AA18/($Z18*12+$AA18)</f>
-        <v>0.971301800206644</v>
+        <v>0.951503623477856</v>
       </c>
       <c r="AC18" s="1" t="n">
         <f aca="false">(Z18*12+AA18)/(Z18*12/Q18+AA18)</f>
-        <v>1.01133218037996</v>
+        <v>1.01930086083049</v>
       </c>
       <c r="AD18" s="0" t="n">
         <f aca="false">(S18-AC18)/S18*100</f>
-        <v>-68.987521417187</v>
+        <v>-70.3190399671002</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15447,6 +16470,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -23323,10 +24347,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AG430"/>
+  <dimension ref="A1:AM430"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AC1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AH1" activeCellId="0" sqref="AH1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AL1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BE16" activeCellId="0" sqref="BE16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -23352,15 +24376,21 @@
     <col collapsed="false" hidden="false" max="23" min="23" style="0" width="19.6377551020408"/>
     <col collapsed="false" hidden="false" max="24" min="24" style="0" width="27"/>
     <col collapsed="false" hidden="false" max="25" min="25" style="0" width="22.1275510204082"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="22.5510204081633"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="28.7959183673469"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="31.3010204081633"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="23.6581632653061"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="18.8010204081633"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="19.2142857142857"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="25.469387755102"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="27.969387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="34" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="26.4387755102041"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="22.5510204081633"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="28.7959183673469"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="31.3010204081633"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="32.9744897959184"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="32.5510204081633"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="23.6581632653061"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="18.8010204081633"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="23.1020408163265"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="19.2142857142857"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="25.469387755102"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="27.969387755102"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="29.6326530612245"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="29.219387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="40" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23439,22 +24469,22 @@
       <c r="Y1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" s="0" t="s">
+      <c r="AB1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="0" t="s">
+      <c r="AC1" s="0" t="s">
         <v>24</v>
-      </c>
-      <c r="AC1" s="0" t="s">
-        <v>73</v>
       </c>
       <c r="AD1" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="0" t="s">
         <v>75</v>
       </c>
       <c r="AF1" s="0" t="s">
@@ -23462,6 +24492,24 @@
       </c>
       <c r="AG1" s="0" t="s">
         <v>77</v>
+      </c>
+      <c r="AH1" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ1" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK1" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL1" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM1" s="0" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23553,36 +24601,60 @@
         <f aca="false">N$2-$T$377*M$2</f>
         <v>13.0227151874099</v>
       </c>
-      <c r="Z2" s="0" t="n">
+      <c r="Z2" s="2" t="n">
+        <f aca="false">N2-$T$377*M2</f>
+        <v>13.0227151874099</v>
+      </c>
+      <c r="AA2" s="0" t="n">
         <f aca="false">$Y2/($X2*12+$Y2)</f>
         <v>0.0633617355213466</v>
       </c>
-      <c r="AA2" s="1" t="n">
+      <c r="AB2" s="1" t="n">
         <f aca="false">(X2*12+Y2)/(X2*12/S2+Y2)</f>
         <v>1</v>
       </c>
-      <c r="AB2" s="0" t="n">
-        <f aca="false">(T2-AA2)/T2*100</f>
+      <c r="AC2" s="0" t="n">
+        <f aca="false">(T2-AB2)/T2*100</f>
         <v>0</v>
       </c>
-      <c r="AC2" s="0" t="n">
+      <c r="AD2" s="1" t="n">
+        <f aca="false">(X2*12+Z2)/(X2*12/S2+Z2)</f>
+        <v>1</v>
+      </c>
+      <c r="AE2" s="0" t="n">
+        <f aca="false">(T2-AD2)/T2*100</f>
+        <v>0</v>
+      </c>
+      <c r="AF2" s="0" t="n">
         <f aca="false">$U$377*M$2/12</f>
         <v>19.4954003316202</v>
       </c>
-      <c r="AD2" s="0" t="n">
+      <c r="AG2" s="0" t="n">
         <f aca="false">(N$2+O$2)-$U$377*M$2</f>
         <v>13.3516742915579</v>
       </c>
-      <c r="AE2" s="0" t="n">
-        <f aca="false">$AD2/($AC2*12+$AD2)</f>
+      <c r="AH2" s="2" t="n">
+        <f aca="false">(N2+O2)-$U$377*M2</f>
+        <v>13.3516742915579</v>
+      </c>
+      <c r="AI2" s="0" t="n">
+        <f aca="false">$AG2/($AF2*12+$AG2)</f>
         <v>0.0539905557285231</v>
       </c>
-      <c r="AF2" s="1" t="n">
-        <f aca="false">(AC2*12+AD2)/(AC2*12/S2+AD2)</f>
+      <c r="AJ2" s="1" t="n">
+        <f aca="false">(AF2*12+AG2)/(AF2*12/S2+AG2)</f>
         <v>1</v>
       </c>
-      <c r="AG2" s="0" t="n">
-        <f aca="false">(V2-AF2)/V2*100</f>
+      <c r="AK2" s="0" t="n">
+        <f aca="false">(V2-AJ2)/V2*100</f>
+        <v>0</v>
+      </c>
+      <c r="AL2" s="1" t="n">
+        <f aca="false">(AF2*12+AH2)/(AF2*12/S2+AH2)</f>
+        <v>1</v>
+      </c>
+      <c r="AM2" s="0" t="n">
+        <f aca="false">(V2-AL2)/V2*100</f>
         <v>0</v>
       </c>
     </row>
@@ -23672,37 +24744,61 @@
         <f aca="false">N$2-$T$377*M$2</f>
         <v>13.0227151874099</v>
       </c>
-      <c r="Z3" s="0" t="n">
+      <c r="Z3" s="2" t="n">
+        <f aca="false">N3-$T$377*M3</f>
+        <v>13.6979025004334</v>
+      </c>
+      <c r="AA3" s="0" t="n">
         <f aca="false">$Y3/($X3*12+$Y3)</f>
         <v>0.0633617355213466</v>
       </c>
-      <c r="AA3" s="1" t="n">
+      <c r="AB3" s="1" t="n">
         <f aca="false">(X3*12+Y3)/(X3*12/S3+Y3)</f>
         <v>1.89203885994664</v>
       </c>
-      <c r="AB3" s="0" t="n">
-        <f aca="false">(T3-AA3)/T3*100</f>
+      <c r="AC3" s="0" t="n">
+        <f aca="false">(T3-AB3)/T3*100</f>
         <v>-0.621555404531611</v>
       </c>
-      <c r="AC3" s="0" t="n">
+      <c r="AD3" s="1" t="n">
+        <f aca="false">(X3*12+Z3)/(X3*12/S3+Z3)</f>
+        <v>1.88652859356065</v>
+      </c>
+      <c r="AE3" s="0" t="n">
+        <f aca="false">(T3-AD3)/T3*100</f>
+        <v>-0.328510908358996</v>
+      </c>
+      <c r="AF3" s="0" t="n">
         <f aca="false">$U$377*M$2/12</f>
         <v>19.4954003316202</v>
       </c>
-      <c r="AD3" s="0" t="n">
+      <c r="AG3" s="0" t="n">
         <f aca="false">(N$2+O$2)-$U$377*M$2</f>
         <v>13.3516742915579</v>
       </c>
-      <c r="AE3" s="0" t="n">
-        <f aca="false">$AD3/($AC3*12+$AD3)</f>
+      <c r="AH3" s="2" t="n">
+        <f aca="false">(N3+O3)-$U$377*M3</f>
+        <v>13.8866587122761</v>
+      </c>
+      <c r="AI3" s="0" t="n">
+        <f aca="false">$AG3/($AF3*12+$AG3)</f>
         <v>0.0539905557285231</v>
       </c>
-      <c r="AF3" s="1" t="n">
-        <f aca="false">(AC3*12+AD3)/(AC3*12/S3+AD3)</f>
+      <c r="AJ3" s="1" t="n">
+        <f aca="false">(AF3*12+AG3)/(AF3*12/S3+AG3)</f>
         <v>1.90907729331823</v>
       </c>
-      <c r="AG3" s="0" t="n">
-        <f aca="false">(V3-AF3)/V3*100</f>
+      <c r="AK3" s="0" t="n">
+        <f aca="false">(V3-AJ3)/V3*100</f>
         <v>-0.412996827537889</v>
+      </c>
+      <c r="AL3" s="1" t="n">
+        <f aca="false">(AF3*12+AH3)/(AF3*12/S3+AH3)</f>
+        <v>1.90533827496414</v>
+      </c>
+      <c r="AM3" s="0" t="n">
+        <f aca="false">(V3-AL3)/V3*100</f>
+        <v>-0.216333214471397</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23791,37 +24887,61 @@
         <f aca="false">N$2-$T$377*M$2</f>
         <v>13.0227151874099</v>
       </c>
-      <c r="Z4" s="0" t="n">
+      <c r="Z4" s="2" t="n">
+        <f aca="false">N4-$T$377*M4</f>
+        <v>10.577348287914</v>
+      </c>
+      <c r="AA4" s="0" t="n">
         <f aca="false">$Y4/($X4*12+$Y4)</f>
         <v>0.0633617355213466</v>
       </c>
-      <c r="AA4" s="1" t="n">
+      <c r="AB4" s="1" t="n">
         <f aca="false">(X4*12+Y4)/(X4*12/S4+Y4)</f>
         <v>2.67752927623236</v>
       </c>
-      <c r="AB4" s="0" t="n">
-        <f aca="false">(T4-AA4)/T4*100</f>
+      <c r="AC4" s="0" t="n">
+        <f aca="false">(T4-AB4)/T4*100</f>
         <v>3.18569195916735</v>
       </c>
-      <c r="AC4" s="0" t="n">
+      <c r="AD4" s="1" t="n">
+        <f aca="false">(X4*12+Z4)/(X4*12/S4+Z4)</f>
+        <v>2.73272867428318</v>
+      </c>
+      <c r="AE4" s="0" t="n">
+        <f aca="false">(T4-AD4)/T4*100</f>
+        <v>1.18978790911675</v>
+      </c>
+      <c r="AF4" s="0" t="n">
         <f aca="false">$U$377*M$2/12</f>
         <v>19.4954003316202</v>
       </c>
-      <c r="AD4" s="0" t="n">
+      <c r="AG4" s="0" t="n">
         <f aca="false">(N$2+O$2)-$U$377*M$2</f>
         <v>13.3516742915579</v>
       </c>
-      <c r="AE4" s="0" t="n">
-        <f aca="false">$AD4/($AC4*12+$AD4)</f>
+      <c r="AH4" s="2" t="n">
+        <f aca="false">(N4+O4)-$U$377*M4</f>
+        <v>10.6966956872194</v>
+      </c>
+      <c r="AI4" s="0" t="n">
+        <f aca="false">$AG4/($AF4*12+$AG4)</f>
         <v>0.0539905557285231</v>
       </c>
-      <c r="AF4" s="1" t="n">
-        <f aca="false">(AC4*12+AD4)/(AC4*12/S4+AD4)</f>
+      <c r="AJ4" s="1" t="n">
+        <f aca="false">(AF4*12+AG4)/(AF4*12/S4+AG4)</f>
         <v>2.72323575055339</v>
       </c>
-      <c r="AG4" s="0" t="n">
-        <f aca="false">(V4-AF4)/V4*100</f>
+      <c r="AK4" s="0" t="n">
+        <f aca="false">(V4-AJ4)/V4*100</f>
         <v>2.9236698811237</v>
+      </c>
+      <c r="AL4" s="1" t="n">
+        <f aca="false">(AF4*12+AH4)/(AF4*12/S4+AH4)</f>
+        <v>2.7751348330156</v>
+      </c>
+      <c r="AM4" s="0" t="n">
+        <f aca="false">(V4-AL4)/V4*100</f>
+        <v>1.07360146125049</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23910,37 +25030,61 @@
         <f aca="false">N$2-$T$377*M$2</f>
         <v>13.0227151874099</v>
       </c>
-      <c r="Z5" s="0" t="n">
+      <c r="Z5" s="2" t="n">
+        <f aca="false">N5-$T$377*M5</f>
+        <v>11.2512553565376</v>
+      </c>
+      <c r="AA5" s="0" t="n">
         <f aca="false">$Y5/($X5*12+$Y5)</f>
         <v>0.0633617355213466</v>
       </c>
-      <c r="AA5" s="1" t="n">
+      <c r="AB5" s="1" t="n">
         <f aca="false">(X5*12+Y5)/(X5*12/S5+Y5)</f>
         <v>3.3793891818619</v>
       </c>
-      <c r="AB5" s="0" t="n">
-        <f aca="false">(T5-AA5)/T5*100</f>
+      <c r="AC5" s="0" t="n">
+        <f aca="false">(T5-AB5)/T5*100</f>
         <v>2.91269520083624</v>
       </c>
-      <c r="AC5" s="0" t="n">
+      <c r="AD5" s="1" t="n">
+        <f aca="false">(X5*12+Z5)/(X5*12/S5+Z5)</f>
+        <v>3.45077272129857</v>
+      </c>
+      <c r="AE5" s="0" t="n">
+        <f aca="false">(T5-AD5)/T5*100</f>
+        <v>0.861899900866535</v>
+      </c>
+      <c r="AF5" s="0" t="n">
         <f aca="false">$U$377*M$2/12</f>
         <v>19.4954003316202</v>
       </c>
-      <c r="AD5" s="0" t="n">
+      <c r="AG5" s="0" t="n">
         <f aca="false">(N$2+O$2)-$U$377*M$2</f>
         <v>13.3516742915579</v>
       </c>
-      <c r="AE5" s="0" t="n">
-        <f aca="false">$AD5/($AC5*12+$AD5)</f>
+      <c r="AH5" s="2" t="n">
+        <f aca="false">(N5+O5)-$U$377*M5</f>
+        <v>11.3527789581508</v>
+      </c>
+      <c r="AI5" s="0" t="n">
+        <f aca="false">$AG5/($AF5*12+$AG5)</f>
         <v>0.0539905557285231</v>
       </c>
-      <c r="AF5" s="1" t="n">
-        <f aca="false">(AC5*12+AD5)/(AC5*12/S5+AD5)</f>
+      <c r="AJ5" s="1" t="n">
+        <f aca="false">(AF5*12+AG5)/(AF5*12/S5+AG5)</f>
         <v>3.46180108950001</v>
       </c>
-      <c r="AG5" s="0" t="n">
-        <f aca="false">(V5-AF5)/V5*100</f>
+      <c r="AK5" s="0" t="n">
+        <f aca="false">(V5-AJ5)/V5*100</f>
         <v>2.79817088029944</v>
+      </c>
+      <c r="AL5" s="1" t="n">
+        <f aca="false">(AF5*12+AH5)/(AF5*12/S5+AH5)</f>
+        <v>3.53266951022947</v>
+      </c>
+      <c r="AM5" s="0" t="n">
+        <f aca="false">(V5-AL5)/V5*100</f>
+        <v>0.808299150631914</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24029,37 +25173,61 @@
         <f aca="false">N$2-$T$377*M$2</f>
         <v>13.0227151874099</v>
       </c>
-      <c r="Z6" s="0" t="n">
+      <c r="Z6" s="2" t="n">
+        <f aca="false">N6-$T$377*M6</f>
+        <v>10.7267767998447</v>
+      </c>
+      <c r="AA6" s="0" t="n">
         <f aca="false">$Y6/($X6*12+$Y6)</f>
         <v>0.0633617355213466</v>
       </c>
-      <c r="AA6" s="1" t="n">
+      <c r="AB6" s="1" t="n">
         <f aca="false">(X6*12+Y6)/(X6*12/S6+Y6)</f>
         <v>4.00971067923391</v>
       </c>
-      <c r="AB6" s="0" t="n">
-        <f aca="false">(T6-AA6)/T6*100</f>
+      <c r="AC6" s="0" t="n">
+        <f aca="false">(T6-AB6)/T6*100</f>
         <v>4.4791828180585</v>
       </c>
-      <c r="AC6" s="0" t="n">
+      <c r="AD6" s="1" t="n">
+        <f aca="false">(X6*12+Z6)/(X6*12/S6+Z6)</f>
+        <v>4.15084268332966</v>
+      </c>
+      <c r="AE6" s="0" t="n">
+        <f aca="false">(T6-AD6)/T6*100</f>
+        <v>1.11708379391462</v>
+      </c>
+      <c r="AF6" s="0" t="n">
         <f aca="false">$U$377*M$2/12</f>
         <v>19.4954003316202</v>
       </c>
-      <c r="AD6" s="0" t="n">
+      <c r="AG6" s="0" t="n">
         <f aca="false">(N$2+O$2)-$U$377*M$2</f>
         <v>13.3516742915579</v>
       </c>
-      <c r="AE6" s="0" t="n">
-        <f aca="false">$AD6/($AC6*12+$AD6)</f>
+      <c r="AH6" s="2" t="n">
+        <f aca="false">(N6+O6)-$U$377*M6</f>
+        <v>10.8263366952371</v>
+      </c>
+      <c r="AI6" s="0" t="n">
+        <f aca="false">$AG6/($AF6*12+$AG6)</f>
         <v>0.0539905557285231</v>
       </c>
-      <c r="AF6" s="1" t="n">
-        <f aca="false">(AC6*12+AD6)/(AC6*12/S6+AD6)</f>
+      <c r="AJ6" s="1" t="n">
+        <f aca="false">(AF6*12+AG6)/(AF6*12/S6+AG6)</f>
         <v>4.13420192364497</v>
       </c>
-      <c r="AG6" s="0" t="n">
-        <f aca="false">(V6-AF6)/V6*100</f>
+      <c r="AK6" s="0" t="n">
+        <f aca="false">(V6-AJ6)/V6*100</f>
         <v>4.2217566629159</v>
+      </c>
+      <c r="AL6" s="1" t="n">
+        <f aca="false">(AF6*12+AH6)/(AF6*12/S6+AH6)</f>
+        <v>4.2723526914295</v>
+      </c>
+      <c r="AM6" s="0" t="n">
+        <f aca="false">(V6-AL6)/V6*100</f>
+        <v>1.02117814777506</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24148,37 +25316,61 @@
         <f aca="false">N$2-$T$377*M$2</f>
         <v>13.0227151874099</v>
       </c>
-      <c r="Z7" s="0" t="n">
+      <c r="Z7" s="2" t="n">
+        <f aca="false">N7-$T$377*M7</f>
+        <v>10.3631549542713</v>
+      </c>
+      <c r="AA7" s="0" t="n">
         <f aca="false">$Y7/($X7*12+$Y7)</f>
         <v>0.0633617355213466</v>
       </c>
-      <c r="AA7" s="1" t="n">
+      <c r="AB7" s="1" t="n">
         <f aca="false">(X7*12+Y7)/(X7*12/S7+Y7)</f>
         <v>4.57283479795088</v>
       </c>
-      <c r="AB7" s="0" t="n">
-        <f aca="false">(T7-AA7)/T7*100</f>
+      <c r="AC7" s="0" t="n">
+        <f aca="false">(T7-AB7)/T7*100</f>
         <v>5.91726289122986</v>
       </c>
-      <c r="AC7" s="0" t="n">
+      <c r="AD7" s="1" t="n">
+        <f aca="false">(X7*12+Z7)/(X7*12/S7+Z7)</f>
+        <v>4.79754555165661</v>
+      </c>
+      <c r="AE7" s="0" t="n">
+        <f aca="false">(T7-AD7)/T7*100</f>
+        <v>1.29400320647522</v>
+      </c>
+      <c r="AF7" s="0" t="n">
         <f aca="false">$U$377*M$2/12</f>
         <v>19.4954003316202</v>
       </c>
-      <c r="AD7" s="0" t="n">
+      <c r="AG7" s="0" t="n">
         <f aca="false">(N$2+O$2)-$U$377*M$2</f>
         <v>13.3516742915579</v>
       </c>
-      <c r="AE7" s="0" t="n">
-        <f aca="false">$AD7/($AC7*12+$AD7)</f>
+      <c r="AH7" s="2" t="n">
+        <f aca="false">(N7+O7)-$U$377*M7</f>
+        <v>10.44871201661</v>
+      </c>
+      <c r="AI7" s="0" t="n">
+        <f aca="false">$AG7/($AF7*12+$AG7)</f>
         <v>0.0539905557285231</v>
       </c>
-      <c r="AF7" s="1" t="n">
-        <f aca="false">(AC7*12+AD7)/(AC7*12/S7+AD7)</f>
+      <c r="AJ7" s="1" t="n">
+        <f aca="false">(AF7*12+AG7)/(AF7*12/S7+AG7)</f>
         <v>4.7423582018023</v>
       </c>
-      <c r="AG7" s="0" t="n">
-        <f aca="false">(V7-AF7)/V7*100</f>
+      <c r="AK7" s="0" t="n">
+        <f aca="false">(V7-AJ7)/V7*100</f>
         <v>5.56695633127279</v>
+      </c>
+      <c r="AL7" s="1" t="n">
+        <f aca="false">(AF7*12+AH7)/(AF7*12/S7+AH7)</f>
+        <v>4.9629753065363</v>
+      </c>
+      <c r="AM7" s="0" t="n">
+        <f aca="false">(V7-AL7)/V7*100</f>
+        <v>1.17387934322572</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24267,37 +25459,61 @@
         <f aca="false">N$2-$T$377*M$2</f>
         <v>13.0227151874099</v>
       </c>
-      <c r="Z8" s="0" t="n">
+      <c r="Z8" s="2" t="n">
+        <f aca="false">N8-$T$377*M8</f>
+        <v>10.1926820452239</v>
+      </c>
+      <c r="AA8" s="0" t="n">
         <f aca="false">$Y8/($X8*12+$Y8)</f>
         <v>0.0633617355213466</v>
       </c>
-      <c r="AA8" s="1" t="n">
+      <c r="AB8" s="1" t="n">
         <f aca="false">(X8*12+Y8)/(X8*12/S8+Y8)</f>
         <v>5.08879046907318</v>
       </c>
-      <c r="AB8" s="0" t="n">
-        <f aca="false">(T8-AA8)/T8*100</f>
+      <c r="AC8" s="0" t="n">
+        <f aca="false">(T8-AB8)/T8*100</f>
         <v>7.00699185415795</v>
       </c>
-      <c r="AC8" s="0" t="n">
+      <c r="AD8" s="1" t="n">
+        <f aca="false">(X8*12+Z8)/(X8*12/S8+Z8)</f>
+        <v>5.3968794542711</v>
+      </c>
+      <c r="AE8" s="0" t="n">
+        <f aca="false">(T8-AD8)/T8*100</f>
+        <v>1.37694642700314</v>
+      </c>
+      <c r="AF8" s="0" t="n">
         <f aca="false">$U$377*M$2/12</f>
         <v>19.4954003316202</v>
       </c>
-      <c r="AD8" s="0" t="n">
+      <c r="AG8" s="0" t="n">
         <f aca="false">(N$2+O$2)-$U$377*M$2</f>
         <v>13.3516742915579</v>
       </c>
-      <c r="AE8" s="0" t="n">
-        <f aca="false">$AD8/($AC8*12+$AD8)</f>
+      <c r="AH8" s="2" t="n">
+        <f aca="false">(N8+O8)-$U$377*M8</f>
+        <v>10.3067303775089</v>
+      </c>
+      <c r="AI8" s="0" t="n">
+        <f aca="false">$AG8/($AF8*12+$AG8)</f>
         <v>0.0539905557285231</v>
       </c>
-      <c r="AF8" s="1" t="n">
-        <f aca="false">(AC8*12+AD8)/(AC8*12/S8+AD8)</f>
+      <c r="AJ8" s="1" t="n">
+        <f aca="false">(AF8*12+AG8)/(AF8*12/S8+AG8)</f>
         <v>5.30584652816925</v>
       </c>
-      <c r="AG8" s="0" t="n">
-        <f aca="false">(V8-AF8)/V8*100</f>
+      <c r="AK8" s="0" t="n">
+        <f aca="false">(V8-AJ8)/V8*100</f>
         <v>6.53305101948225</v>
+      </c>
+      <c r="AL8" s="1" t="n">
+        <f aca="false">(AF8*12+AH8)/(AF8*12/S8+AH8)</f>
+        <v>5.60681189996558</v>
+      </c>
+      <c r="AM8" s="0" t="n">
+        <f aca="false">(V8-AL8)/V8*100</f>
+        <v>1.23129287377568</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24386,37 +25602,61 @@
         <f aca="false">N$2-$T$377*M$2</f>
         <v>13.0227151874099</v>
       </c>
-      <c r="Z9" s="0" t="n">
+      <c r="Z9" s="2" t="n">
+        <f aca="false">N9-$T$377*M9</f>
+        <v>10.0284174287454</v>
+      </c>
+      <c r="AA9" s="0" t="n">
         <f aca="false">$Y9/($X9*12+$Y9)</f>
         <v>0.0633617355213466</v>
       </c>
-      <c r="AA9" s="1" t="n">
+      <c r="AB9" s="1" t="n">
         <f aca="false">(X9*12+Y9)/(X9*12/S9+Y9)</f>
         <v>5.56004363291836</v>
       </c>
-      <c r="AB9" s="0" t="n">
-        <f aca="false">(T9-AA9)/T9*100</f>
+      <c r="AC9" s="0" t="n">
+        <f aca="false">(T9-AB9)/T9*100</f>
         <v>8.10025529851433</v>
       </c>
-      <c r="AC9" s="0" t="n">
+      <c r="AD9" s="1" t="n">
+        <f aca="false">(X9*12+Z9)/(X9*12/S9+Z9)</f>
+        <v>5.96197638821585</v>
+      </c>
+      <c r="AE9" s="0" t="n">
+        <f aca="false">(T9-AD9)/T9*100</f>
+        <v>1.45686901637904</v>
+      </c>
+      <c r="AF9" s="0" t="n">
         <f aca="false">$U$377*M$2/12</f>
         <v>19.4954003316202</v>
       </c>
-      <c r="AD9" s="0" t="n">
+      <c r="AG9" s="0" t="n">
         <f aca="false">(N$2+O$2)-$U$377*M$2</f>
         <v>13.3516742915579</v>
       </c>
-      <c r="AE9" s="0" t="n">
-        <f aca="false">$AD9/($AC9*12+$AD9)</f>
+      <c r="AH9" s="2" t="n">
+        <f aca="false">(N9+O9)-$U$377*M9</f>
+        <v>10.1082263679393</v>
+      </c>
+      <c r="AI9" s="0" t="n">
+        <f aca="false">$AG9/($AF9*12+$AG9)</f>
         <v>0.0539905557285231</v>
       </c>
-      <c r="AF9" s="1" t="n">
-        <f aca="false">(AC9*12+AD9)/(AC9*12/S9+AD9)</f>
+      <c r="AJ9" s="1" t="n">
+        <f aca="false">(AF9*12+AG9)/(AF9*12/S9+AG9)</f>
         <v>5.82584056739223</v>
       </c>
-      <c r="AG9" s="0" t="n">
-        <f aca="false">(V9-AF9)/V9*100</f>
+      <c r="AK9" s="0" t="n">
+        <f aca="false">(V9-AJ9)/V9*100</f>
         <v>7.64095413883512</v>
+      </c>
+      <c r="AL9" s="1" t="n">
+        <f aca="false">(AF9*12+AH9)/(AF9*12/S9+AH9)</f>
+        <v>6.22508707446641</v>
+      </c>
+      <c r="AM9" s="0" t="n">
+        <f aca="false">(V9-AL9)/V9*100</f>
+        <v>1.31156252054033</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24505,37 +25745,61 @@
         <f aca="false">N$2-$T$377*M$2</f>
         <v>13.0227151874099</v>
       </c>
-      <c r="Z10" s="0" t="n">
+      <c r="Z10" s="2" t="n">
+        <f aca="false">N10-$T$377*M10</f>
+        <v>9.99071395795747</v>
+      </c>
+      <c r="AA10" s="0" t="n">
         <f aca="false">$Y10/($X10*12+$Y10)</f>
         <v>0.0633617355213466</v>
       </c>
-      <c r="AA10" s="1" t="n">
+      <c r="AB10" s="1" t="n">
         <f aca="false">(X10*12+Y10)/(X10*12/S10+Y10)</f>
         <v>5.99171170531557</v>
       </c>
-      <c r="AB10" s="0" t="n">
-        <f aca="false">(T10-AA10)/T10*100</f>
+      <c r="AC10" s="0" t="n">
+        <f aca="false">(T10-AB10)/T10*100</f>
         <v>8.83905434039023</v>
       </c>
-      <c r="AC10" s="0" t="n">
+      <c r="AD10" s="1" t="n">
+        <f aca="false">(X10*12+Z10)/(X10*12/S10+Z10)</f>
+        <v>6.47571294834343</v>
+      </c>
+      <c r="AE10" s="0" t="n">
+        <f aca="false">(T10-AD10)/T10*100</f>
+        <v>1.4752135575129</v>
+      </c>
+      <c r="AF10" s="0" t="n">
         <f aca="false">$U$377*M$2/12</f>
         <v>19.4954003316202</v>
       </c>
-      <c r="AD10" s="0" t="n">
+      <c r="AG10" s="0" t="n">
         <f aca="false">(N$2+O$2)-$U$377*M$2</f>
         <v>13.3516742915579</v>
       </c>
-      <c r="AE10" s="0" t="n">
-        <f aca="false">$AD10/($AC10*12+$AD10)</f>
+      <c r="AH10" s="2" t="n">
+        <f aca="false">(N10+O10)-$U$377*M10</f>
+        <v>10.0564498798369</v>
+      </c>
+      <c r="AI10" s="0" t="n">
+        <f aca="false">$AG10/($AF10*12+$AG10)</f>
         <v>0.0539905557285231</v>
       </c>
-      <c r="AF10" s="1" t="n">
-        <f aca="false">(AC10*12+AD10)/(AC10*12/S10+AD10)</f>
+      <c r="AJ10" s="1" t="n">
+        <f aca="false">(AF10*12+AG10)/(AF10*12/S10+AG10)</f>
         <v>6.30668444700178</v>
       </c>
-      <c r="AG10" s="0" t="n">
-        <f aca="false">(V10-AF10)/V10*100</f>
+      <c r="AK10" s="0" t="n">
+        <f aca="false">(V10-AJ10)/V10*100</f>
         <v>8.40365406417448</v>
+      </c>
+      <c r="AL10" s="1" t="n">
+        <f aca="false">(AF10*12+AH10)/(AF10*12/S10+AH10)</f>
+        <v>6.79355474586264</v>
+      </c>
+      <c r="AM10" s="0" t="n">
+        <f aca="false">(V10-AL10)/V10*100</f>
+        <v>1.33249953042593</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24624,37 +25888,61 @@
         <f aca="false">N$2-$T$377*M$2</f>
         <v>13.0227151874099</v>
       </c>
-      <c r="Z11" s="0" t="n">
+      <c r="Z11" s="2" t="n">
+        <f aca="false">N11-$T$377*M11</f>
+        <v>9.89817236637127</v>
+      </c>
+      <c r="AA11" s="0" t="n">
         <f aca="false">$Y11/($X11*12+$Y11)</f>
         <v>0.0633617355213466</v>
       </c>
-      <c r="AA11" s="1" t="n">
+      <c r="AB11" s="1" t="n">
         <f aca="false">(X11*12+Y11)/(X11*12/S11+Y11)</f>
         <v>6.38517814134966</v>
       </c>
-      <c r="AB11" s="0" t="n">
-        <f aca="false">(T11-AA11)/T11*100</f>
+      <c r="AC11" s="0" t="n">
+        <f aca="false">(T11-AB11)/T11*100</f>
         <v>9.70699980929267</v>
       </c>
-      <c r="AC11" s="0" t="n">
+      <c r="AD11" s="1" t="n">
+        <f aca="false">(X11*12+Z11)/(X11*12/S11+Z11)</f>
+        <v>6.96411474862465</v>
+      </c>
+      <c r="AE11" s="0" t="n">
+        <f aca="false">(T11-AD11)/T11*100</f>
+        <v>1.52023946621492</v>
+      </c>
+      <c r="AF11" s="0" t="n">
         <f aca="false">$U$377*M$2/12</f>
         <v>19.4954003316202</v>
       </c>
-      <c r="AD11" s="0" t="n">
+      <c r="AG11" s="0" t="n">
         <f aca="false">(N$2+O$2)-$U$377*M$2</f>
         <v>13.3516742915579</v>
       </c>
-      <c r="AE11" s="0" t="n">
-        <f aca="false">$AD11/($AC11*12+$AD11)</f>
+      <c r="AH11" s="2" t="n">
+        <f aca="false">(N11+O11)-$U$377*M11</f>
+        <v>9.95175827096942</v>
+      </c>
+      <c r="AI11" s="0" t="n">
+        <f aca="false">$AG11/($AF11*12+$AG11)</f>
         <v>0.0539905557285231</v>
       </c>
-      <c r="AF11" s="1" t="n">
-        <f aca="false">(AC11*12+AD11)/(AC11*12/S11+AD11)</f>
+      <c r="AJ11" s="1" t="n">
+        <f aca="false">(AF11*12+AG11)/(AF11*12/S11+AG11)</f>
         <v>6.7487991364305</v>
       </c>
-      <c r="AG11" s="0" t="n">
-        <f aca="false">(V11-AF11)/V11*100</f>
+      <c r="AK11" s="0" t="n">
+        <f aca="false">(V11-AJ11)/V11*100</f>
         <v>9.27847839326656</v>
+      </c>
+      <c r="AL11" s="1" t="n">
+        <f aca="false">(AF11*12+AH11)/(AF11*12/S11+AH11)</f>
+        <v>7.33675343470409</v>
+      </c>
+      <c r="AM11" s="0" t="n">
+        <f aca="false">(V11-AL11)/V11*100</f>
+        <v>1.37483398241633</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24743,37 +26031,61 @@
         <f aca="false">N$2-$T$377*M$2</f>
         <v>13.0227151874099</v>
       </c>
-      <c r="Z12" s="0" t="n">
+      <c r="Z12" s="2" t="n">
+        <f aca="false">N12-$T$377*M12</f>
+        <v>9.78917899708233</v>
+      </c>
+      <c r="AA12" s="0" t="n">
         <f aca="false">$Y12/($X12*12+$Y12)</f>
         <v>0.0633617355213466</v>
       </c>
-      <c r="AA12" s="1" t="n">
+      <c r="AB12" s="1" t="n">
         <f aca="false">(X12*12+Y12)/(X12*12/S12+Y12)</f>
         <v>6.75212134983364</v>
       </c>
-      <c r="AB12" s="0" t="n">
-        <f aca="false">(T12-AA12)/T12*100</f>
+      <c r="AC12" s="0" t="n">
+        <f aca="false">(T12-AB12)/T12*100</f>
         <v>10.6229096273974</v>
       </c>
-      <c r="AC12" s="0" t="n">
+      <c r="AD12" s="1" t="n">
+        <f aca="false">(X12*12+Z12)/(X12*12/S12+Z12)</f>
+        <v>7.43578944655026</v>
+      </c>
+      <c r="AE12" s="0" t="n">
+        <f aca="false">(T12-AD12)/T12*100</f>
+        <v>1.57326995132561</v>
+      </c>
+      <c r="AF12" s="0" t="n">
         <f aca="false">$U$377*M$2/12</f>
         <v>19.4954003316202</v>
       </c>
-      <c r="AD12" s="0" t="n">
+      <c r="AG12" s="0" t="n">
         <f aca="false">(N$2+O$2)-$U$377*M$2</f>
         <v>13.3516742915579</v>
       </c>
-      <c r="AE12" s="0" t="n">
-        <f aca="false">$AD12/($AC12*12+$AD12)</f>
+      <c r="AH12" s="2" t="n">
+        <f aca="false">(N12+O12)-$U$377*M12</f>
+        <v>9.84103953823844</v>
+      </c>
+      <c r="AI12" s="0" t="n">
+        <f aca="false">$AG12/($AF12*12+$AG12)</f>
         <v>0.0539905557285231</v>
       </c>
-      <c r="AF12" s="1" t="n">
-        <f aca="false">(AC12*12+AD12)/(AC12*12/S12+AD12)</f>
+      <c r="AJ12" s="1" t="n">
+        <f aca="false">(AF12*12+AG12)/(AF12*12/S12+AG12)</f>
         <v>7.16443968193688</v>
       </c>
-      <c r="AG12" s="0" t="n">
-        <f aca="false">(V12-AF12)/V12*100</f>
+      <c r="AK12" s="0" t="n">
+        <f aca="false">(V12-AJ12)/V12*100</f>
         <v>10.1706789806793</v>
+      </c>
+      <c r="AL12" s="1" t="n">
+        <f aca="false">(AF12*12+AH12)/(AF12*12/S12+AH12)</f>
+        <v>7.8623914908708</v>
+      </c>
+      <c r="AM12" s="0" t="n">
+        <f aca="false">(V12-AL12)/V12*100</f>
+        <v>1.41960564010634</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24862,37 +26174,61 @@
         <f aca="false">N$2-$T$377*M$2</f>
         <v>13.0227151874099</v>
       </c>
-      <c r="Z13" s="0" t="n">
+      <c r="Z13" s="2" t="n">
+        <f aca="false">N13-$T$377*M13</f>
+        <v>9.70825205051342</v>
+      </c>
+      <c r="AA13" s="0" t="n">
         <f aca="false">$Y13/($X13*12+$Y13)</f>
         <v>0.0633617355213466</v>
       </c>
-      <c r="AA13" s="1" t="n">
+      <c r="AB13" s="1" t="n">
         <f aca="false">(X13*12+Y13)/(X13*12/S13+Y13)</f>
         <v>7.0856795706846</v>
       </c>
-      <c r="AB13" s="0" t="n">
-        <f aca="false">(T13-AA13)/T13*100</f>
+      <c r="AC13" s="0" t="n">
+        <f aca="false">(T13-AB13)/T13*100</f>
         <v>11.4266841719413</v>
       </c>
-      <c r="AC13" s="0" t="n">
+      <c r="AD13" s="1" t="n">
+        <f aca="false">(X13*12+Z13)/(X13*12/S13+Z13)</f>
+        <v>7.87078214673402</v>
+      </c>
+      <c r="AE13" s="0" t="n">
+        <f aca="false">(T13-AD13)/T13*100</f>
+        <v>1.61264477993285</v>
+      </c>
+      <c r="AF13" s="0" t="n">
         <f aca="false">$U$377*M$2/12</f>
         <v>19.4954003316202</v>
       </c>
-      <c r="AD13" s="0" t="n">
+      <c r="AG13" s="0" t="n">
         <f aca="false">(N$2+O$2)-$U$377*M$2</f>
         <v>13.3516742915579</v>
       </c>
-      <c r="AE13" s="0" t="n">
-        <f aca="false">$AD13/($AC13*12+$AD13)</f>
+      <c r="AH13" s="2" t="n">
+        <f aca="false">(N13+O13)-$U$377*M13</f>
+        <v>9.74403203793889</v>
+      </c>
+      <c r="AI13" s="0" t="n">
+        <f aca="false">$AG13/($AF13*12+$AG13)</f>
         <v>0.0539905557285231</v>
       </c>
-      <c r="AF13" s="1" t="n">
-        <f aca="false">(AC13*12+AD13)/(AC13*12/S13+AD13)</f>
+      <c r="AJ13" s="1" t="n">
+        <f aca="false">(AF13*12+AG13)/(AF13*12/S13+AG13)</f>
         <v>7.54508440208105</v>
       </c>
-      <c r="AG13" s="0" t="n">
-        <f aca="false">(V13-AF13)/V13*100</f>
+      <c r="AK13" s="0" t="n">
+        <f aca="false">(V13-AJ13)/V13*100</f>
         <v>11.0070169564811</v>
+      </c>
+      <c r="AL13" s="1" t="n">
+        <f aca="false">(AF13*12+AH13)/(AF13*12/S13+AH13)</f>
+        <v>8.3546072715423</v>
+      </c>
+      <c r="AM13" s="0" t="n">
+        <f aca="false">(V13-AL13)/V13*100</f>
+        <v>1.45883284664717</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24981,37 +26317,61 @@
         <f aca="false">N$2-$T$377*M$2</f>
         <v>13.0227151874099</v>
       </c>
-      <c r="Z14" s="0" t="n">
+      <c r="Z14" s="2" t="n">
+        <f aca="false">N14-$T$377*M14</f>
+        <v>9.49441829761895</v>
+      </c>
+      <c r="AA14" s="0" t="n">
         <f aca="false">$Y14/($X14*12+$Y14)</f>
         <v>0.0633617355213466</v>
       </c>
-      <c r="AA14" s="1" t="n">
+      <c r="AB14" s="1" t="n">
         <f aca="false">(X14*12+Y14)/(X14*12/S14+Y14)</f>
         <v>6.10170275926228</v>
       </c>
-      <c r="AB14" s="0" t="n">
-        <f aca="false">(T14-AA14)/T14*100</f>
+      <c r="AC14" s="0" t="n">
+        <f aca="false">(T14-AB14)/T14*100</f>
         <v>10.4747023582968</v>
       </c>
-      <c r="AC14" s="0" t="n">
+      <c r="AD14" s="1" t="n">
+        <f aca="false">(X14*12+Z14)/(X14*12/S14+Z14)</f>
+        <v>6.69861580318922</v>
+      </c>
+      <c r="AE14" s="0" t="n">
+        <f aca="false">(T14-AD14)/T14*100</f>
+        <v>1.71668512406579</v>
+      </c>
+      <c r="AF14" s="0" t="n">
         <f aca="false">$U$377*M$2/12</f>
         <v>19.4954003316202</v>
       </c>
-      <c r="AD14" s="0" t="n">
+      <c r="AG14" s="0" t="n">
         <f aca="false">(N$2+O$2)-$U$377*M$2</f>
         <v>13.3516742915579</v>
       </c>
-      <c r="AE14" s="0" t="n">
-        <f aca="false">$AD14/($AC14*12+$AD14)</f>
+      <c r="AH14" s="2" t="n">
+        <f aca="false">(N14+O14)-$U$377*M14</f>
+        <v>9.55311838723998</v>
+      </c>
+      <c r="AI14" s="0" t="n">
+        <f aca="false">$AG14/($AF14*12+$AG14)</f>
         <v>0.0539905557285231</v>
       </c>
-      <c r="AF14" s="1" t="n">
-        <f aca="false">(AC14*12+AD14)/(AC14*12/S14+AD14)</f>
+      <c r="AJ14" s="1" t="n">
+        <f aca="false">(AF14*12+AG14)/(AF14*12/S14+AG14)</f>
         <v>6.4299054304103</v>
       </c>
-      <c r="AG14" s="0" t="n">
-        <f aca="false">(V14-AF14)/V14*100</f>
+      <c r="AK14" s="0" t="n">
+        <f aca="false">(V14-AJ14)/V14*100</f>
         <v>9.87654794263814</v>
+      </c>
+      <c r="AL14" s="1" t="n">
+        <f aca="false">(AF14*12+AH14)/(AF14*12/S14+AH14)</f>
+        <v>7.02496387616652</v>
+      </c>
+      <c r="AM14" s="0" t="n">
+        <f aca="false">(V14-AL14)/V14*100</f>
+        <v>1.5360331578015</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25100,37 +26460,61 @@
         <f aca="false">N$2-$T$377*M$2</f>
         <v>13.0227151874099</v>
       </c>
-      <c r="Z15" s="0" t="n">
+      <c r="Z15" s="2" t="n">
+        <f aca="false">N15-$T$377*M15</f>
+        <v>9.39938427563486</v>
+      </c>
+      <c r="AA15" s="0" t="n">
         <f aca="false">$Y15/($X15*12+$Y15)</f>
         <v>0.0633617355213466</v>
       </c>
-      <c r="AA15" s="1" t="n">
+      <c r="AB15" s="1" t="n">
         <f aca="false">(X15*12+Y15)/(X15*12/S15+Y15)</f>
         <v>5.79223989810707</v>
       </c>
-      <c r="AB15" s="0" t="n">
-        <f aca="false">(T15-AA15)/T15*100</f>
+      <c r="AC15" s="0" t="n">
+        <f aca="false">(T15-AB15)/T15*100</f>
         <v>10.2112771043589</v>
       </c>
-      <c r="AC15" s="0" t="n">
+      <c r="AD15" s="1" t="n">
+        <f aca="false">(X15*12+Z15)/(X15*12/S15+Z15)</f>
+        <v>6.33724029428167</v>
+      </c>
+      <c r="AE15" s="0" t="n">
+        <f aca="false">(T15-AD15)/T15*100</f>
+        <v>1.76292371931902</v>
+      </c>
+      <c r="AF15" s="0" t="n">
         <f aca="false">$U$377*M$2/12</f>
         <v>19.4954003316202</v>
       </c>
-      <c r="AD15" s="0" t="n">
+      <c r="AG15" s="0" t="n">
         <f aca="false">(N$2+O$2)-$U$377*M$2</f>
         <v>13.3516742915579</v>
       </c>
-      <c r="AE15" s="0" t="n">
-        <f aca="false">$AD15/($AC15*12+$AD15)</f>
+      <c r="AH15" s="2" t="n">
+        <f aca="false">(N15+O15)-$U$377*M15</f>
+        <v>9.44590335904711</v>
+      </c>
+      <c r="AI15" s="0" t="n">
+        <f aca="false">$AG15/($AF15*12+$AG15)</f>
         <v>0.0539905557285231</v>
       </c>
-      <c r="AF15" s="1" t="n">
-        <f aca="false">(AC15*12+AD15)/(AC15*12/S15+AD15)</f>
+      <c r="AJ15" s="1" t="n">
+        <f aca="false">(AF15*12+AG15)/(AF15*12/S15+AG15)</f>
         <v>6.08394653735786</v>
       </c>
-      <c r="AG15" s="0" t="n">
-        <f aca="false">(V15-AF15)/V15*100</f>
+      <c r="AK15" s="0" t="n">
+        <f aca="false">(V15-AJ15)/V15*100</f>
         <v>9.60891222822913</v>
+      </c>
+      <c r="AL15" s="1" t="n">
+        <f aca="false">(AF15*12+AH15)/(AF15*12/S15+AH15)</f>
+        <v>6.62438915459714</v>
+      </c>
+      <c r="AM15" s="0" t="n">
+        <f aca="false">(V15-AL15)/V15*100</f>
+        <v>1.57938801224282</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25219,37 +26603,61 @@
         <f aca="false">N$2-$T$377*M$2</f>
         <v>13.0227151874099</v>
       </c>
-      <c r="Z16" s="0" t="n">
+      <c r="Z16" s="2" t="n">
+        <f aca="false">N16-$T$377*M16</f>
+        <v>9.04604517933006</v>
+      </c>
+      <c r="AA16" s="0" t="n">
         <f aca="false">$Y16/($X16*12+$Y16)</f>
         <v>0.0633617355213466</v>
       </c>
-      <c r="AA16" s="1" t="n">
+      <c r="AB16" s="1" t="n">
         <f aca="false">(X16*12+Y16)/(X16*12/S16+Y16)</f>
         <v>6.04489456767684</v>
       </c>
-      <c r="AB16" s="0" t="n">
-        <f aca="false">(T16-AA16)/T16*100</f>
+      <c r="AC16" s="0" t="n">
+        <f aca="false">(T16-AB16)/T16*100</f>
         <v>11.6959043055039</v>
       </c>
-      <c r="AC16" s="0" t="n">
+      <c r="AD16" s="1" t="n">
+        <f aca="false">(X16*12+Z16)/(X16*12/S16+Z16)</f>
+        <v>6.7130923860322</v>
+      </c>
+      <c r="AE16" s="0" t="n">
+        <f aca="false">(T16-AD16)/T16*100</f>
+        <v>1.93484008274421</v>
+      </c>
+      <c r="AF16" s="0" t="n">
         <f aca="false">$U$377*M$2/12</f>
         <v>19.4954003316202</v>
       </c>
-      <c r="AD16" s="0" t="n">
+      <c r="AG16" s="0" t="n">
         <f aca="false">(N$2+O$2)-$U$377*M$2</f>
         <v>13.3516742915579</v>
       </c>
-      <c r="AE16" s="0" t="n">
-        <f aca="false">$AD16/($AC16*12+$AD16)</f>
+      <c r="AH16" s="2" t="n">
+        <f aca="false">(N16+O16)-$U$377*M16</f>
+        <v>9.11502103339325</v>
+      </c>
+      <c r="AI16" s="0" t="n">
+        <f aca="false">$AG16/($AF16*12+$AG16)</f>
         <v>0.0539905557285231</v>
       </c>
-      <c r="AF16" s="1" t="n">
-        <f aca="false">(AC16*12+AD16)/(AC16*12/S16+AD16)</f>
+      <c r="AJ16" s="1" t="n">
+        <f aca="false">(AF16*12+AG16)/(AF16*12/S16+AG16)</f>
         <v>6.36622857975281</v>
       </c>
-      <c r="AG16" s="0" t="n">
-        <f aca="false">(V16-AF16)/V16*100</f>
+      <c r="AK16" s="0" t="n">
+        <f aca="false">(V16-AJ16)/V16*100</f>
         <v>10.9065455534203</v>
+      </c>
+      <c r="AL16" s="1" t="n">
+        <f aca="false">(AF16*12+AH16)/(AF16*12/S16+AH16)</f>
+        <v>7.02314571040725</v>
+      </c>
+      <c r="AM16" s="0" t="n">
+        <f aca="false">(V16-AL16)/V16*100</f>
+        <v>1.71318786574951</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25338,37 +26746,61 @@
         <f aca="false">N$2-$T$377*M$2</f>
         <v>13.0227151874099</v>
       </c>
-      <c r="Z17" s="0" t="n">
+      <c r="Z17" s="2" t="n">
+        <f aca="false">N17-$T$377*M17</f>
+        <v>8.81850680196351</v>
+      </c>
+      <c r="AA17" s="0" t="n">
         <f aca="false">$Y17/($X17*12+$Y17)</f>
         <v>0.0633617355213466</v>
       </c>
-      <c r="AA17" s="1" t="n">
+      <c r="AB17" s="1" t="n">
         <f aca="false">(X17*12+Y17)/(X17*12/S17+Y17)</f>
         <v>6.28394154384328</v>
       </c>
-      <c r="AB17" s="0" t="n">
-        <f aca="false">(T17-AA17)/T17*100</f>
+      <c r="AC17" s="0" t="n">
+        <f aca="false">(T17-AB17)/T17*100</f>
         <v>12.8541064569518</v>
       </c>
-      <c r="AC17" s="0" t="n">
+      <c r="AD17" s="1" t="n">
+        <f aca="false">(X17*12+Z17)/(X17*12/S17+Z17)</f>
+        <v>7.06332820631775</v>
+      </c>
+      <c r="AE17" s="0" t="n">
+        <f aca="false">(T17-AD17)/T17*100</f>
+        <v>2.04554838189826</v>
+      </c>
+      <c r="AF17" s="0" t="n">
         <f aca="false">$U$377*M$2/12</f>
         <v>19.4954003316202</v>
       </c>
-      <c r="AD17" s="0" t="n">
+      <c r="AG17" s="0" t="n">
         <f aca="false">(N$2+O$2)-$U$377*M$2</f>
         <v>13.3516742915579</v>
       </c>
-      <c r="AE17" s="0" t="n">
-        <f aca="false">$AD17/($AC17*12+$AD17)</f>
+      <c r="AH17" s="2" t="n">
+        <f aca="false">(N17+O17)-$U$377*M17</f>
+        <v>8.86181749459293</v>
+      </c>
+      <c r="AI17" s="0" t="n">
+        <f aca="false">$AG17/($AF17*12+$AG17)</f>
         <v>0.0539905557285231</v>
       </c>
-      <c r="AF17" s="1" t="n">
-        <f aca="false">(AC17*12+AD17)/(AC17*12/S17+AD17)</f>
+      <c r="AJ17" s="1" t="n">
+        <f aca="false">(AF17*12+AG17)/(AF17*12/S17+AG17)</f>
         <v>6.63469447339297</v>
       </c>
-      <c r="AG17" s="0" t="n">
-        <f aca="false">(V17-AF17)/V17*100</f>
+      <c r="AK17" s="0" t="n">
+        <f aca="false">(V17-AJ17)/V17*100</f>
         <v>12.0457955104825</v>
+      </c>
+      <c r="AL17" s="1" t="n">
+        <f aca="false">(AF17*12+AH17)/(AF17*12/S17+AH17)</f>
+        <v>7.40639581256689</v>
+      </c>
+      <c r="AM17" s="0" t="n">
+        <f aca="false">(V17-AL17)/V17*100</f>
+        <v>1.81557652108767</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25457,37 +26889,61 @@
         <f aca="false">N$2-$T$377*M$2</f>
         <v>13.0227151874099</v>
       </c>
-      <c r="Z18" s="0" t="n">
+      <c r="Z18" s="2" t="n">
+        <f aca="false">N18-$T$377*M18</f>
+        <v>8.78035047515589</v>
+      </c>
+      <c r="AA18" s="0" t="n">
         <f aca="false">$Y18/($X18*12+$Y18)</f>
         <v>0.0633617355213466</v>
       </c>
-      <c r="AA18" s="1" t="n">
+      <c r="AB18" s="1" t="n">
         <f aca="false">(X18*12+Y18)/(X18*12/S18+Y18)</f>
         <v>6.51537520993132</v>
       </c>
-      <c r="AB18" s="0" t="n">
-        <f aca="false">(T18-AA18)/T18*100</f>
+      <c r="AC18" s="0" t="n">
+        <f aca="false">(T18-AB18)/T18*100</f>
         <v>13.4484723590696</v>
       </c>
-      <c r="AC18" s="0" t="n">
+      <c r="AD18" s="1" t="n">
+        <f aca="false">(X18*12+Z18)/(X18*12/S18+Z18)</f>
+        <v>7.37236032714816</v>
+      </c>
+      <c r="AE18" s="0" t="n">
+        <f aca="false">(T18-AD18)/T18*100</f>
+        <v>2.06411325913666</v>
+      </c>
+      <c r="AF18" s="0" t="n">
         <f aca="false">$U$377*M$2/12</f>
         <v>19.4954003316202</v>
       </c>
-      <c r="AD18" s="0" t="n">
+      <c r="AG18" s="0" t="n">
         <f aca="false">(N$2+O$2)-$U$377*M$2</f>
         <v>13.3516742915579</v>
       </c>
-      <c r="AE18" s="0" t="n">
-        <f aca="false">$AD18/($AC18*12+$AD18)</f>
+      <c r="AH18" s="2" t="n">
+        <f aca="false">(N18+O18)-$U$377*M18</f>
+        <v>8.83849730841717</v>
+      </c>
+      <c r="AI18" s="0" t="n">
+        <f aca="false">$AG18/($AF18*12+$AG18)</f>
         <v>0.0539905557285231</v>
       </c>
-      <c r="AF18" s="1" t="n">
-        <f aca="false">(AC18*12+AD18)/(AC18*12/S18+AD18)</f>
+      <c r="AJ18" s="1" t="n">
+        <f aca="false">(AF18*12+AG18)/(AF18*12/S18+AG18)</f>
         <v>6.89590504200868</v>
       </c>
-      <c r="AG18" s="0" t="n">
-        <f aca="false">(V18-AF18)/V18*100</f>
+      <c r="AK18" s="0" t="n">
+        <f aca="false">(V18-AJ18)/V18*100</f>
         <v>12.5850720281638</v>
+      </c>
+      <c r="AL18" s="1" t="n">
+        <f aca="false">(AF18*12+AH18)/(AF18*12/S18+AH18)</f>
+        <v>7.7447347710545</v>
+      </c>
+      <c r="AM18" s="0" t="n">
+        <f aca="false">(V18-AL18)/V18*100</f>
+        <v>1.82500657295853</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25576,37 +27032,61 @@
         <f aca="false">N$2-$T$377*M$2</f>
         <v>13.0227151874099</v>
       </c>
-      <c r="Z19" s="0" t="n">
+      <c r="Z19" s="2" t="n">
+        <f aca="false">N19-$T$377*M19</f>
+        <v>8.66242276387318</v>
+      </c>
+      <c r="AA19" s="0" t="n">
         <f aca="false">$Y19/($X19*12+$Y19)</f>
         <v>0.0633617355213466</v>
       </c>
-      <c r="AA19" s="1" t="n">
+      <c r="AB19" s="1" t="n">
         <f aca="false">(X19*12+Y19)/(X19*12/S19+Y19)</f>
         <v>6.73027906468804</v>
       </c>
-      <c r="AB19" s="0" t="n">
-        <f aca="false">(T19-AA19)/T19*100</f>
+      <c r="AC19" s="0" t="n">
+        <f aca="false">(T19-AB19)/T19*100</f>
         <v>14.2782246378139</v>
       </c>
-      <c r="AC19" s="0" t="n">
+      <c r="AD19" s="1" t="n">
+        <f aca="false">(X19*12+Z19)/(X19*12/S19+Z19)</f>
+        <v>7.68474146793721</v>
+      </c>
+      <c r="AE19" s="0" t="n">
+        <f aca="false">(T19-AD19)/T19*100</f>
+        <v>2.12149072877646</v>
+      </c>
+      <c r="AF19" s="0" t="n">
         <f aca="false">$U$377*M$2/12</f>
         <v>19.4954003316202</v>
       </c>
-      <c r="AD19" s="0" t="n">
+      <c r="AG19" s="0" t="n">
         <f aca="false">(N$2+O$2)-$U$377*M$2</f>
         <v>13.3516742915579</v>
       </c>
-      <c r="AE19" s="0" t="n">
-        <f aca="false">$AD19/($AC19*12+$AD19)</f>
+      <c r="AH19" s="2" t="n">
+        <f aca="false">(N19+O19)-$U$377*M19</f>
+        <v>8.73333276460256</v>
+      </c>
+      <c r="AI19" s="0" t="n">
+        <f aca="false">$AG19/($AF19*12+$AG19)</f>
         <v>0.0539905557285231</v>
       </c>
-      <c r="AF19" s="1" t="n">
-        <f aca="false">(AC19*12+AD19)/(AC19*12/S19+AD19)</f>
+      <c r="AJ19" s="1" t="n">
+        <f aca="false">(AF19*12+AG19)/(AF19*12/S19+AG19)</f>
         <v>7.13960806844735</v>
       </c>
-      <c r="AG19" s="0" t="n">
-        <f aca="false">(V19-AF19)/V19*100</f>
+      <c r="AK19" s="0" t="n">
+        <f aca="false">(V19-AJ19)/V19*100</f>
         <v>13.3334484418182</v>
+      </c>
+      <c r="AL19" s="1" t="n">
+        <f aca="false">(AF19*12+AH19)/(AF19*12/S19+AH19)</f>
+        <v>8.08417256492045</v>
+      </c>
+      <c r="AM19" s="0" t="n">
+        <f aca="false">(V19-AL19)/V19*100</f>
+        <v>1.8675322670363</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25695,37 +27175,61 @@
         <f aca="false">N$2-$T$377*M$2</f>
         <v>13.0227151874099</v>
       </c>
-      <c r="Z20" s="0" t="n">
+      <c r="Z20" s="2" t="n">
+        <f aca="false">N20-$T$377*M20</f>
+        <v>8.49039195937951</v>
+      </c>
+      <c r="AA20" s="0" t="n">
         <f aca="false">$Y20/($X20*12+$Y20)</f>
         <v>0.0633617355213466</v>
       </c>
-      <c r="AA20" s="1" t="n">
+      <c r="AB20" s="1" t="n">
         <f aca="false">(X20*12+Y20)/(X20*12/S20+Y20)</f>
         <v>6.93533295857942</v>
       </c>
-      <c r="AB20" s="0" t="n">
-        <f aca="false">(T20-AA20)/T20*100</f>
+      <c r="AC20" s="0" t="n">
+        <f aca="false">(T20-AB20)/T20*100</f>
         <v>15.2937403409324</v>
       </c>
-      <c r="AC20" s="0" t="n">
+      <c r="AD20" s="1" t="n">
+        <f aca="false">(X20*12+Z20)/(X20*12/S20+Z20)</f>
+        <v>8.00695908716594</v>
+      </c>
+      <c r="AE20" s="0" t="n">
+        <f aca="false">(T20-AD20)/T20*100</f>
+        <v>2.20519193992166</v>
+      </c>
+      <c r="AF20" s="0" t="n">
         <f aca="false">$U$377*M$2/12</f>
         <v>19.4954003316202</v>
       </c>
-      <c r="AD20" s="0" t="n">
+      <c r="AG20" s="0" t="n">
         <f aca="false">(N$2+O$2)-$U$377*M$2</f>
         <v>13.3516742915579</v>
       </c>
-      <c r="AE20" s="0" t="n">
-        <f aca="false">$AD20/($AC20*12+$AD20)</f>
+      <c r="AH20" s="2" t="n">
+        <f aca="false">(N20+O20)-$U$377*M20</f>
+        <v>8.54821258479482</v>
+      </c>
+      <c r="AI20" s="0" t="n">
+        <f aca="false">$AG20/($AF20*12+$AG20)</f>
         <v>0.0539905557285231</v>
       </c>
-      <c r="AF20" s="1" t="n">
-        <f aca="false">(AC20*12+AD20)/(AC20*12/S20+AD20)</f>
+      <c r="AJ20" s="1" t="n">
+        <f aca="false">(AF20*12+AG20)/(AF20*12/S20+AG20)</f>
         <v>7.37317986920563</v>
       </c>
-      <c r="AG20" s="0" t="n">
-        <f aca="false">(V20-AF20)/V20*100</f>
+      <c r="AK20" s="0" t="n">
+        <f aca="false">(V20-AJ20)/V20*100</f>
         <v>14.3215897801805</v>
+      </c>
+      <c r="AL20" s="1" t="n">
+        <f aca="false">(AF20*12+AH20)/(AF20*12/S20+AH20)</f>
+        <v>8.43848987493392</v>
+      </c>
+      <c r="AM20" s="0" t="n">
+        <f aca="false">(V20-AL20)/V20*100</f>
+        <v>1.94238985542659</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25814,37 +27318,61 @@
         <f aca="false">N$2-$T$377*M$2</f>
         <v>13.0227151874099</v>
       </c>
-      <c r="Z21" s="0" t="n">
+      <c r="Z21" s="2" t="n">
+        <f aca="false">N21-$T$377*M21</f>
+        <v>8.28873490157516</v>
+      </c>
+      <c r="AA21" s="0" t="n">
         <f aca="false">$Y21/($X21*12+$Y21)</f>
         <v>0.0633617355213466</v>
       </c>
-      <c r="AA21" s="1" t="n">
+      <c r="AB21" s="1" t="n">
         <f aca="false">(X21*12+Y21)/(X21*12/S21+Y21)</f>
         <v>7.13231835935265</v>
       </c>
-      <c r="AB21" s="0" t="n">
-        <f aca="false">(T21-AA21)/T21*100</f>
+      <c r="AC21" s="0" t="n">
+        <f aca="false">(T21-AB21)/T21*100</f>
         <v>16.4279240793001</v>
       </c>
-      <c r="AC21" s="0" t="n">
+      <c r="AD21" s="1" t="n">
+        <f aca="false">(X21*12+Z21)/(X21*12/S21+Z21)</f>
+        <v>8.33776000152432</v>
+      </c>
+      <c r="AE21" s="0" t="n">
+        <f aca="false">(T21-AD21)/T21*100</f>
+        <v>2.30330773972787</v>
+      </c>
+      <c r="AF21" s="0" t="n">
         <f aca="false">$U$377*M$2/12</f>
         <v>19.4954003316202</v>
       </c>
-      <c r="AD21" s="0" t="n">
+      <c r="AG21" s="0" t="n">
         <f aca="false">(N$2+O$2)-$U$377*M$2</f>
         <v>13.3516742915579</v>
       </c>
-      <c r="AE21" s="0" t="n">
-        <f aca="false">$AD21/($AC21*12+$AD21)</f>
+      <c r="AH21" s="2" t="n">
+        <f aca="false">(N21+O21)-$U$377*M21</f>
+        <v>8.33763316008535</v>
+      </c>
+      <c r="AI21" s="0" t="n">
+        <f aca="false">$AG21/($AF21*12+$AG21)</f>
         <v>0.0539905557285231</v>
       </c>
-      <c r="AF21" s="1" t="n">
-        <f aca="false">(AC21*12+AD21)/(AC21*12/S21+AD21)</f>
+      <c r="AJ21" s="1" t="n">
+        <f aca="false">(AF21*12+AG21)/(AF21*12/S21+AG21)</f>
         <v>7.59852260830081</v>
       </c>
-      <c r="AG21" s="0" t="n">
-        <f aca="false">(V21-AF21)/V21*100</f>
+      <c r="AK21" s="0" t="n">
+        <f aca="false">(V21-AJ21)/V21*100</f>
         <v>15.4063273212865</v>
+      </c>
+      <c r="AL21" s="1" t="n">
+        <f aca="false">(AF21*12+AH21)/(AF21*12/S21+AH21)</f>
+        <v>8.80025550298777</v>
+      </c>
+      <c r="AM21" s="0" t="n">
+        <f aca="false">(V21-AL21)/V21*100</f>
+        <v>2.02754247311923</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25933,37 +27461,61 @@
         <f aca="false">N$2-$T$377*M$2</f>
         <v>13.0227151874099</v>
       </c>
-      <c r="Z22" s="0" t="n">
+      <c r="Z22" s="2" t="n">
+        <f aca="false">N22-$T$377*M22</f>
+        <v>8.30153526524276</v>
+      </c>
+      <c r="AA22" s="0" t="n">
         <f aca="false">$Y22/($X22*12+$Y22)</f>
         <v>0.0633617355213466</v>
       </c>
-      <c r="AA22" s="1" t="n">
+      <c r="AB22" s="1" t="n">
         <f aca="false">(X22*12+Y22)/(X22*12/S22+Y22)</f>
         <v>7.32182960521839</v>
       </c>
-      <c r="AB22" s="0" t="n">
-        <f aca="false">(T22-AA22)/T22*100</f>
+      <c r="AC22" s="0" t="n">
+        <f aca="false">(T22-AB22)/T22*100</f>
         <v>16.8188265251067</v>
       </c>
-      <c r="AC22" s="0" t="n">
+      <c r="AD22" s="1" t="n">
+        <f aca="false">(X22*12+Z22)/(X22*12/S22+Z22)</f>
+        <v>8.60007263798282</v>
+      </c>
+      <c r="AE22" s="0" t="n">
+        <f aca="false">(T22-AD22)/T22*100</f>
+        <v>2.2970797508207</v>
+      </c>
+      <c r="AF22" s="0" t="n">
         <f aca="false">$U$377*M$2/12</f>
         <v>19.4954003316202</v>
       </c>
-      <c r="AD22" s="0" t="n">
+      <c r="AG22" s="0" t="n">
         <f aca="false">(N$2+O$2)-$U$377*M$2</f>
         <v>13.3516742915579</v>
       </c>
-      <c r="AE22" s="0" t="n">
-        <f aca="false">$AD22/($AC22*12+$AD22)</f>
+      <c r="AH22" s="2" t="n">
+        <f aca="false">(N22+O22)-$U$377*M22</f>
+        <v>8.35082723059258</v>
+      </c>
+      <c r="AI22" s="0" t="n">
+        <f aca="false">$AG22/($AF22*12+$AG22)</f>
         <v>0.0539905557285231</v>
       </c>
-      <c r="AF22" s="1" t="n">
-        <f aca="false">(AC22*12+AD22)/(AC22*12/S22+AD22)</f>
+      <c r="AJ22" s="1" t="n">
+        <f aca="false">(AF22*12+AG22)/(AF22*12/S22+AG22)</f>
         <v>7.81621016928541</v>
       </c>
-      <c r="AG22" s="0" t="n">
-        <f aca="false">(V22-AF22)/V22*100</f>
+      <c r="AK22" s="0" t="n">
+        <f aca="false">(V22-AJ22)/V22*100</f>
         <v>15.8059960765491</v>
+      </c>
+      <c r="AL22" s="1" t="n">
+        <f aca="false">(AF22*12+AH22)/(AF22*12/S22+AH22)</f>
+        <v>9.09583800704229</v>
+      </c>
+      <c r="AM22" s="0" t="n">
+        <f aca="false">(V22-AL22)/V22*100</f>
+        <v>2.02220714824946</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26052,37 +27604,61 @@
         <f aca="false">N$2-$T$377*M$2</f>
         <v>13.0227151874099</v>
       </c>
-      <c r="Z23" s="0" t="n">
+      <c r="Z23" s="2" t="n">
+        <f aca="false">N23-$T$377*M23</f>
+        <v>8.20147890553728</v>
+      </c>
+      <c r="AA23" s="0" t="n">
         <f aca="false">$Y23/($X23*12+$Y23)</f>
         <v>0.0633617355213466</v>
       </c>
-      <c r="AA23" s="1" t="n">
+      <c r="AB23" s="1" t="n">
         <f aca="false">(X23*12+Y23)/(X23*12/S23+Y23)</f>
         <v>7.49814179801473</v>
       </c>
-      <c r="AB23" s="0" t="n">
-        <f aca="false">(T23-AA23)/T23*100</f>
+      <c r="AC23" s="0" t="n">
+        <f aca="false">(T23-AB23)/T23*100</f>
         <v>17.5888557516738</v>
       </c>
-      <c r="AC23" s="0" t="n">
+      <c r="AD23" s="1" t="n">
+        <f aca="false">(X23*12+Z23)/(X23*12/S23+Z23)</f>
+        <v>8.88502799868199</v>
+      </c>
+      <c r="AE23" s="0" t="n">
+        <f aca="false">(T23-AD23)/T23*100</f>
+        <v>2.34576195349237</v>
+      </c>
+      <c r="AF23" s="0" t="n">
         <f aca="false">$U$377*M$2/12</f>
         <v>19.4954003316202</v>
       </c>
-      <c r="AD23" s="0" t="n">
+      <c r="AG23" s="0" t="n">
         <f aca="false">(N$2+O$2)-$U$377*M$2</f>
         <v>13.3516742915579</v>
       </c>
-      <c r="AE23" s="0" t="n">
-        <f aca="false">$AD23/($AC23*12+$AD23)</f>
+      <c r="AH23" s="2" t="n">
+        <f aca="false">(N23+O23)-$U$377*M23</f>
+        <v>8.24986130525114</v>
+      </c>
+      <c r="AI23" s="0" t="n">
+        <f aca="false">$AG23/($AF23*12+$AG23)</f>
         <v>0.0539905557285231</v>
       </c>
-      <c r="AF23" s="1" t="n">
-        <f aca="false">(AC23*12+AD23)/(AC23*12/S23+AD23)</f>
+      <c r="AJ23" s="1" t="n">
+        <f aca="false">(AF23*12+AG23)/(AF23*12/S23+AG23)</f>
         <v>8.01952906887387</v>
       </c>
-      <c r="AG23" s="0" t="n">
-        <f aca="false">(V23-AF23)/V23*100</f>
+      <c r="AK23" s="0" t="n">
+        <f aca="false">(V23-AJ23)/V23*100</f>
         <v>16.5445694308714</v>
+      </c>
+      <c r="AL23" s="1" t="n">
+        <f aca="false">(AF23*12+AH23)/(AF23*12/S23+AH23)</f>
+        <v>9.41111120151658</v>
+      </c>
+      <c r="AM23" s="0" t="n">
+        <f aca="false">(V23-AL23)/V23*100</f>
+        <v>2.0630350346987</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26171,37 +27747,61 @@
         <f aca="false">N$2-$T$377*M$2</f>
         <v>13.0227151874099</v>
       </c>
-      <c r="Z24" s="0" t="n">
+      <c r="Z24" s="2" t="n">
+        <f aca="false">N24-$T$377*M24</f>
+        <v>8.38488471891579</v>
+      </c>
+      <c r="AA24" s="0" t="n">
         <f aca="false">$Y24/($X24*12+$Y24)</f>
         <v>0.0633617355213466</v>
       </c>
-      <c r="AA24" s="1" t="n">
+      <c r="AB24" s="1" t="n">
         <f aca="false">(X24*12+Y24)/(X24*12/S24+Y24)</f>
         <v>6.78959480320611</v>
       </c>
-      <c r="AB24" s="0" t="n">
-        <f aca="false">(T24-AA24)/T24*100</f>
+      <c r="AC24" s="0" t="n">
+        <f aca="false">(T24-AB24)/T24*100</f>
         <v>15.3208989457052</v>
       </c>
-      <c r="AC24" s="0" t="n">
+      <c r="AD24" s="1" t="n">
+        <f aca="false">(X24*12+Z24)/(X24*12/S24+Z24)</f>
+        <v>7.83709998231314</v>
+      </c>
+      <c r="AE24" s="0" t="n">
+        <f aca="false">(T24-AD24)/T24*100</f>
+        <v>2.25652625668776</v>
+      </c>
+      <c r="AF24" s="0" t="n">
         <f aca="false">$U$377*M$2/12</f>
         <v>19.4954003316202</v>
       </c>
-      <c r="AD24" s="0" t="n">
+      <c r="AG24" s="0" t="n">
         <f aca="false">(N$2+O$2)-$U$377*M$2</f>
         <v>13.3516742915579</v>
       </c>
-      <c r="AE24" s="0" t="n">
-        <f aca="false">$AD24/($AC24*12+$AD24)</f>
+      <c r="AH24" s="2" t="n">
+        <f aca="false">(N24+O24)-$U$377*M24</f>
+        <v>8.43375426635985</v>
+      </c>
+      <c r="AI24" s="0" t="n">
+        <f aca="false">$AG24/($AF24*12+$AG24)</f>
         <v>0.0539905557285231</v>
       </c>
-      <c r="AF24" s="1" t="n">
-        <f aca="false">(AC24*12+AD24)/(AC24*12/S24+AD24)</f>
+      <c r="AJ24" s="1" t="n">
+        <f aca="false">(AF24*12+AG24)/(AF24*12/S24+AG24)</f>
         <v>7.20706857770031</v>
       </c>
-      <c r="AG24" s="0" t="n">
-        <f aca="false">(V24-AF24)/V24*100</f>
+      <c r="AK24" s="0" t="n">
+        <f aca="false">(V24-AJ24)/V24*100</f>
         <v>14.3325077368902</v>
+      </c>
+      <c r="AL24" s="1" t="n">
+        <f aca="false">(AF24*12+AH24)/(AF24*12/S24+AH24)</f>
+        <v>8.24553551612857</v>
+      </c>
+      <c r="AM24" s="0" t="n">
+        <f aca="false">(V24-AL24)/V24*100</f>
+        <v>1.98867370032209</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26290,37 +27890,61 @@
         <f aca="false">N$2-$T$377*M$2</f>
         <v>13.0227151874099</v>
       </c>
-      <c r="Z25" s="0" t="n">
+      <c r="Z25" s="2" t="n">
+        <f aca="false">N25-$T$377*M25</f>
+        <v>8.14180778979932</v>
+      </c>
+      <c r="AA25" s="0" t="n">
         <f aca="false">$Y25/($X25*12+$Y25)</f>
         <v>0.0633617355213466</v>
       </c>
-      <c r="AA25" s="1" t="n">
+      <c r="AB25" s="1" t="n">
         <f aca="false">(X25*12+Y25)/(X25*12/S25+Y25)</f>
         <v>7.8370893820154</v>
       </c>
-      <c r="AB25" s="0" t="n">
-        <f aca="false">(T25-AA25)/T25*100</f>
+      <c r="AC25" s="0" t="n">
+        <f aca="false">(T25-AB25)/T25*100</f>
         <v>18.611479144173</v>
       </c>
-      <c r="AC25" s="0" t="n">
+      <c r="AD25" s="1" t="n">
+        <f aca="false">(X25*12+Z25)/(X25*12/S25+Z25)</f>
+        <v>9.40055736376722</v>
+      </c>
+      <c r="AE25" s="0" t="n">
+        <f aca="false">(T25-AD25)/T25*100</f>
+        <v>2.37479480416324</v>
+      </c>
+      <c r="AF25" s="0" t="n">
         <f aca="false">$U$377*M$2/12</f>
         <v>19.4954003316202</v>
       </c>
-      <c r="AD25" s="0" t="n">
+      <c r="AG25" s="0" t="n">
         <f aca="false">(N$2+O$2)-$U$377*M$2</f>
         <v>13.3516742915579</v>
       </c>
-      <c r="AE25" s="0" t="n">
-        <f aca="false">$AD25/($AC25*12+$AD25)</f>
+      <c r="AH25" s="2" t="n">
+        <f aca="false">(N25+O25)-$U$377*M25</f>
+        <v>8.1809829154513</v>
+      </c>
+      <c r="AI25" s="0" t="n">
+        <f aca="false">$AG25/($AF25*12+$AG25)</f>
         <v>0.0539905557285231</v>
       </c>
-      <c r="AF25" s="1" t="n">
-        <f aca="false">(AC25*12+AD25)/(AC25*12/S25+AD25)</f>
+      <c r="AJ25" s="1" t="n">
+        <f aca="false">(AF25*12+AG25)/(AF25*12/S25+AG25)</f>
         <v>8.41255808237286</v>
       </c>
-      <c r="AG25" s="0" t="n">
-        <f aca="false">(V25-AF25)/V25*100</f>
+      <c r="AK25" s="0" t="n">
+        <f aca="false">(V25-AJ25)/V25*100</f>
         <v>17.5897132994564</v>
+      </c>
+      <c r="AL25" s="1" t="n">
+        <f aca="false">(AF25*12+AH25)/(AF25*12/S25+AH25)</f>
+        <v>9.99470002975243</v>
+      </c>
+      <c r="AM25" s="0" t="n">
+        <f aca="false">(V25-AL25)/V25*100</f>
+        <v>2.09088759057877</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26399,22 +28023,22 @@
       <c r="Y26" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="Z26" s="1" t="s">
+      <c r="Z26" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AA26" s="0" t="s">
+      <c r="AB26" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="AB26" s="0" t="s">
+      <c r="AC26" s="0" t="s">
         <v>24</v>
-      </c>
-      <c r="AC26" s="0" t="s">
-        <v>73</v>
       </c>
       <c r="AD26" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="AE26" s="1" t="s">
+      <c r="AE26" s="0" t="s">
         <v>75</v>
       </c>
       <c r="AF26" s="0" t="s">
@@ -26422,6 +28046,24 @@
       </c>
       <c r="AG26" s="0" t="s">
         <v>77</v>
+      </c>
+      <c r="AH26" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ26" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK26" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL26" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM26" s="0" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26513,36 +28155,60 @@
         <f aca="false">N$27-$T$377*M$27</f>
         <v>15.9887087824977</v>
       </c>
-      <c r="Z27" s="0" t="n">
+      <c r="Z27" s="2" t="n">
+        <f aca="false">N27-$T$377*M27</f>
+        <v>15.9887087824977</v>
+      </c>
+      <c r="AA27" s="0" t="n">
         <f aca="false">$Y27/($X27*12+$Y27)</f>
         <v>0.115419738539448</v>
       </c>
-      <c r="AA27" s="1" t="n">
+      <c r="AB27" s="1" t="n">
         <f aca="false">(X27*12+Y27)/(X27*12/S27+Y27)</f>
         <v>1</v>
       </c>
-      <c r="AB27" s="0" t="n">
-        <f aca="false">(T27-AA27)/T27*100</f>
+      <c r="AC27" s="0" t="n">
+        <f aca="false">(T27-AB27)/T27*100</f>
         <v>0</v>
       </c>
-      <c r="AC27" s="0" t="n">
+      <c r="AD27" s="1" t="n">
+        <f aca="false">(X27*12+Z27)/(X27*12/S27+Z27)</f>
+        <v>1</v>
+      </c>
+      <c r="AE27" s="0" t="n">
+        <f aca="false">(T27-AD27)/T27*100</f>
+        <v>0</v>
+      </c>
+      <c r="AF27" s="0" t="n">
         <f aca="false">$U$377*M$27/12</f>
         <v>12.4095585967041</v>
       </c>
-      <c r="AD27" s="0" t="n">
-        <f aca="false">(N$27+O$27)-$U$377*M$27</f>
+      <c r="AG27" s="0" t="n">
+        <f aca="false">(N27+O27)-$U$377*M27</f>
         <v>32.9077455685511</v>
       </c>
-      <c r="AE27" s="0" t="n">
-        <f aca="false">$AD27/($AC27*12+$AD27)</f>
+      <c r="AH27" s="2" t="n">
+        <f aca="false">(N27+O27)-$U$377*M27</f>
+        <v>32.9077455685511</v>
+      </c>
+      <c r="AI27" s="0" t="n">
+        <f aca="false">$AG27/($AF27*12+$AG27)</f>
         <v>0.180988353190639</v>
       </c>
-      <c r="AF27" s="1" t="n">
-        <f aca="false">(AC27*12+AD27)/(AC27*12/S27+AD27)</f>
+      <c r="AJ27" s="1" t="n">
+        <f aca="false">(AF27*12+AG27)/(AF27*12/S27+AG27)</f>
         <v>1</v>
       </c>
-      <c r="AG27" s="0" t="n">
-        <f aca="false">(V27-AF27)/V27*100</f>
+      <c r="AK27" s="0" t="n">
+        <f aca="false">(V27-AJ27)/V27*100</f>
+        <v>0</v>
+      </c>
+      <c r="AL27" s="1" t="n">
+        <f aca="false">(AF27*12+AH27)/(AF27*12/S27+AH27)</f>
+        <v>1</v>
+      </c>
+      <c r="AM27" s="0" t="n">
+        <f aca="false">(V27-AL27)/V27*100</f>
         <v>0</v>
       </c>
     </row>
@@ -26632,37 +28298,61 @@
         <f aca="false">N$27-$T$377*M$27</f>
         <v>15.9887087824977</v>
       </c>
-      <c r="Z28" s="0" t="n">
+      <c r="Z28" s="2" t="n">
+        <f aca="false">N28-$T$377*M28</f>
+        <v>14.0807475589391</v>
+      </c>
+      <c r="AA28" s="0" t="n">
         <f aca="false">$Y28/($X28*12+$Y28)</f>
         <v>0.115419738539448</v>
       </c>
-      <c r="AA28" s="1" t="n">
+      <c r="AB28" s="1" t="n">
         <f aca="false">(X28*12+Y28)/(X28*12/S28+Y28)</f>
         <v>1.75115068548825</v>
       </c>
-      <c r="AB28" s="0" t="n">
-        <f aca="false">(T28-AA28)/T28*100</f>
+      <c r="AC28" s="0" t="n">
+        <f aca="false">(T28-AB28)/T28*100</f>
         <v>2.41190254814521</v>
       </c>
-      <c r="AC28" s="0" t="n">
+      <c r="AD28" s="1" t="n">
+        <f aca="false">(X28*12+Z28)/(X28*12/S28+Z28)</f>
+        <v>1.769715472585</v>
+      </c>
+      <c r="AE28" s="0" t="n">
+        <f aca="false">(T28-AD28)/T28*100</f>
+        <v>1.37732438911887</v>
+      </c>
+      <c r="AF28" s="0" t="n">
         <f aca="false">$U$377*M$27/12</f>
         <v>12.4095585967041</v>
       </c>
-      <c r="AD28" s="0" t="n">
+      <c r="AG28" s="0" t="n">
         <f aca="false">(N$27+O$27)-$U$377*M$27</f>
         <v>32.9077455685511</v>
       </c>
-      <c r="AE28" s="0" t="n">
-        <f aca="false">$AD28/($AC28*12+$AD28)</f>
+      <c r="AH28" s="2" t="n">
+        <f aca="false">(N28+O28)-$U$377*M28</f>
+        <v>27.0291876416687</v>
+      </c>
+      <c r="AI28" s="0" t="n">
+        <f aca="false">$AG28/($AF28*12+$AG28)</f>
         <v>0.180988353190639</v>
       </c>
-      <c r="AF28" s="1" t="n">
-        <f aca="false">(AC28*12+AD28)/(AC28*12/S28+AD28)</f>
+      <c r="AJ28" s="1" t="n">
+        <f aca="false">(AF28*12+AG28)/(AF28*12/S28+AG28)</f>
         <v>1.6587919958527</v>
       </c>
-      <c r="AG28" s="0" t="n">
-        <f aca="false">(V28-AF28)/V28*100</f>
+      <c r="AK28" s="0" t="n">
+        <f aca="false">(V28-AJ28)/V28*100</f>
         <v>5.36309179885869</v>
+      </c>
+      <c r="AL28" s="1" t="n">
+        <f aca="false">(AF28*12+AH28)/(AF28*12/S28+AH28)</f>
+        <v>1.69612586502985</v>
+      </c>
+      <c r="AM28" s="0" t="n">
+        <f aca="false">(V28-AL28)/V28*100</f>
+        <v>3.23313098463668</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26751,37 +28441,61 @@
         <f aca="false">N$27-$T$377*M$27</f>
         <v>15.9887087824977</v>
       </c>
-      <c r="Z29" s="0" t="n">
+      <c r="Z29" s="2" t="n">
+        <f aca="false">N29-$T$377*M29</f>
+        <v>14.2099490427013</v>
+      </c>
+      <c r="AA29" s="0" t="n">
         <f aca="false">$Y29/($X29*12+$Y29)</f>
         <v>0.115419738539448</v>
       </c>
-      <c r="AA29" s="1" t="n">
+      <c r="AB29" s="1" t="n">
         <f aca="false">(X29*12+Y29)/(X29*12/S29+Y29)</f>
         <v>2.30905993745614</v>
       </c>
-      <c r="AB29" s="0" t="n">
-        <f aca="false">(T29-AA29)/T29*100</f>
+      <c r="AC29" s="0" t="n">
+        <f aca="false">(T29-AB29)/T29*100</f>
         <v>2.96496240637923</v>
       </c>
-      <c r="AC29" s="0" t="n">
+      <c r="AD29" s="1" t="n">
+        <f aca="false">(X29*12+Z29)/(X29*12/S29+Z29)</f>
+        <v>2.34905903055186</v>
+      </c>
+      <c r="AE29" s="0" t="n">
+        <f aca="false">(T29-AD29)/T29*100</f>
+        <v>1.28405606034017</v>
+      </c>
+      <c r="AF29" s="0" t="n">
         <f aca="false">$U$377*M$27/12</f>
         <v>12.4095585967041</v>
       </c>
-      <c r="AD29" s="0" t="n">
+      <c r="AG29" s="0" t="n">
         <f aca="false">(N$27+O$27)-$U$377*M$27</f>
         <v>32.9077455685511</v>
       </c>
-      <c r="AE29" s="0" t="n">
-        <f aca="false">$AD29/($AC29*12+$AD29)</f>
+      <c r="AH29" s="2" t="n">
+        <f aca="false">(N29+O29)-$U$377*M29</f>
+        <v>25.194439170855</v>
+      </c>
+      <c r="AI29" s="0" t="n">
+        <f aca="false">$AG29/($AF29*12+$AG29)</f>
         <v>0.180988353190639</v>
       </c>
-      <c r="AF29" s="1" t="n">
-        <f aca="false">(AC29*12+AD29)/(AC29*12/S29+AD29)</f>
+      <c r="AJ29" s="1" t="n">
+        <f aca="false">(AF29*12+AG29)/(AF29*12/S29+AG29)</f>
         <v>2.10482317718049</v>
       </c>
-      <c r="AG29" s="0" t="n">
-        <f aca="false">(V29-AF29)/V29*100</f>
+      <c r="AK29" s="0" t="n">
+        <f aca="false">(V29-AJ29)/V29*100</f>
         <v>8.92912079451927</v>
+      </c>
+      <c r="AL29" s="1" t="n">
+        <f aca="false">(AF29*12+AH29)/(AF29*12/S29+AH29)</f>
+        <v>2.21314649295052</v>
+      </c>
+      <c r="AM29" s="0" t="n">
+        <f aca="false">(V29-AL29)/V29*100</f>
+        <v>4.24221896229793</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26870,37 +28584,61 @@
         <f aca="false">N$27-$T$377*M$27</f>
         <v>15.9887087824977</v>
       </c>
-      <c r="Z30" s="0" t="n">
+      <c r="Z30" s="2" t="n">
+        <f aca="false">N30-$T$377*M30</f>
+        <v>14.0599152002642</v>
+      </c>
+      <c r="AA30" s="0" t="n">
         <f aca="false">$Y30/($X30*12+$Y30)</f>
         <v>0.115419738539448</v>
       </c>
-      <c r="AA30" s="1" t="n">
+      <c r="AB30" s="1" t="n">
         <f aca="false">(X30*12+Y30)/(X30*12/S30+Y30)</f>
         <v>2.69153039402456</v>
       </c>
-      <c r="AB30" s="0" t="n">
-        <f aca="false">(T30-AA30)/T30*100</f>
+      <c r="AC30" s="0" t="n">
+        <f aca="false">(T30-AB30)/T30*100</f>
         <v>3.74758709316713</v>
       </c>
-      <c r="AC30" s="0" t="n">
+      <c r="AD30" s="1" t="n">
+        <f aca="false">(X30*12+Z30)/(X30*12/S30+Z30)</f>
+        <v>2.75739011931251</v>
+      </c>
+      <c r="AE30" s="0" t="n">
+        <f aca="false">(T30-AD30)/T30*100</f>
+        <v>1.39236291051631</v>
+      </c>
+      <c r="AF30" s="0" t="n">
         <f aca="false">$U$377*M$27/12</f>
         <v>12.4095585967041</v>
       </c>
-      <c r="AD30" s="0" t="n">
+      <c r="AG30" s="0" t="n">
         <f aca="false">(N$27+O$27)-$U$377*M$27</f>
         <v>32.9077455685511</v>
       </c>
-      <c r="AE30" s="0" t="n">
-        <f aca="false">$AD30/($AC30*12+$AD30)</f>
+      <c r="AH30" s="2" t="n">
+        <f aca="false">(N30+O30)-$U$377*M30</f>
+        <v>23.7553092594134</v>
+      </c>
+      <c r="AI30" s="0" t="n">
+        <f aca="false">$AG30/($AF30*12+$AG30)</f>
         <v>0.180988353190639</v>
       </c>
-      <c r="AF30" s="1" t="n">
-        <f aca="false">(AC30*12+AD30)/(AC30*12/S30+AD30)</f>
+      <c r="AJ30" s="1" t="n">
+        <f aca="false">(AF30*12+AG30)/(AF30*12/S30+AG30)</f>
         <v>2.39165728862285</v>
       </c>
-      <c r="AG30" s="0" t="n">
-        <f aca="false">(V30-AF30)/V30*100</f>
+      <c r="AK30" s="0" t="n">
+        <f aca="false">(V30-AJ30)/V30*100</f>
         <v>12.0389375241729</v>
+      </c>
+      <c r="AL30" s="1" t="n">
+        <f aca="false">(AF30*12+AH30)/(AF30*12/S30+AH30)</f>
+        <v>2.58212878454634</v>
+      </c>
+      <c r="AM30" s="0" t="n">
+        <f aca="false">(V30-AL30)/V30*100</f>
+        <v>5.0337218385938</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26989,37 +28727,61 @@
         <f aca="false">N$27-$T$377*M$27</f>
         <v>15.9887087824977</v>
       </c>
-      <c r="Z31" s="0" t="n">
+      <c r="Z31" s="2" t="n">
+        <f aca="false">N31-$T$377*M31</f>
+        <v>14.1443146404113</v>
+      </c>
+      <c r="AA31" s="0" t="n">
         <f aca="false">$Y31/($X31*12+$Y31)</f>
         <v>0.115419738539448</v>
       </c>
-      <c r="AA31" s="1" t="n">
+      <c r="AB31" s="1" t="n">
         <f aca="false">(X31*12+Y31)/(X31*12/S31+Y31)</f>
         <v>2.88280802682779</v>
       </c>
-      <c r="AB31" s="0" t="n">
-        <f aca="false">(T31-AA31)/T31*100</f>
+      <c r="AC31" s="0" t="n">
+        <f aca="false">(T31-AB31)/T31*100</f>
         <v>3.83827555957808</v>
       </c>
-      <c r="AC31" s="0" t="n">
+      <c r="AD31" s="1" t="n">
+        <f aca="false">(X31*12+Z31)/(X31*12/S31+Z31)</f>
+        <v>2.95795992405929</v>
+      </c>
+      <c r="AE31" s="0" t="n">
+        <f aca="false">(T31-AD31)/T31*100</f>
+        <v>1.33143640639911</v>
+      </c>
+      <c r="AF31" s="0" t="n">
         <f aca="false">$U$377*M$27/12</f>
         <v>12.4095585967041</v>
       </c>
-      <c r="AD31" s="0" t="n">
+      <c r="AG31" s="0" t="n">
         <f aca="false">(N$27+O$27)-$U$377*M$27</f>
         <v>32.9077455685511</v>
       </c>
-      <c r="AE31" s="0" t="n">
-        <f aca="false">$AD31/($AC31*12+$AD31)</f>
+      <c r="AH31" s="2" t="n">
+        <f aca="false">(N31+O31)-$U$377*M31</f>
+        <v>23.8777501631623</v>
+      </c>
+      <c r="AI31" s="0" t="n">
+        <f aca="false">$AG31/($AF31*12+$AG31)</f>
         <v>0.180988353190639</v>
       </c>
-      <c r="AF31" s="1" t="n">
-        <f aca="false">(AC31*12+AD31)/(AC31*12/S31+AD31)</f>
+      <c r="AJ31" s="1" t="n">
+        <f aca="false">(AF31*12+AG31)/(AF31*12/S31+AG31)</f>
         <v>2.52975262551651</v>
       </c>
-      <c r="AG31" s="0" t="n">
-        <f aca="false">(V31-AF31)/V31*100</f>
+      <c r="AK31" s="0" t="n">
+        <f aca="false">(V31-AJ31)/V31*100</f>
         <v>12.5637151764643</v>
+      </c>
+      <c r="AL31" s="1" t="n">
+        <f aca="false">(AF31*12+AH31)/(AF31*12/S31+AH31)</f>
+        <v>2.74956269997503</v>
+      </c>
+      <c r="AM31" s="0" t="n">
+        <f aca="false">(V31-AL31)/V31*100</f>
+        <v>4.9663809218892</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27108,37 +28870,61 @@
         <f aca="false">N$27-$T$377*M$27</f>
         <v>15.9887087824977</v>
       </c>
-      <c r="Z32" s="0" t="n">
+      <c r="Z32" s="2" t="n">
+        <f aca="false">N32-$T$377*M32</f>
+        <v>15.2685638373993</v>
+      </c>
+      <c r="AA32" s="0" t="n">
         <f aca="false">$Y32/($X32*12+$Y32)</f>
         <v>0.115419738539448</v>
       </c>
-      <c r="AA32" s="1" t="n">
+      <c r="AB32" s="1" t="n">
         <f aca="false">(X32*12+Y32)/(X32*12/S32+Y32)</f>
         <v>2.94213484590157</v>
       </c>
-      <c r="AB32" s="0" t="n">
-        <f aca="false">(T32-AA32)/T32*100</f>
+      <c r="AC32" s="0" t="n">
+        <f aca="false">(T32-AB32)/T32*100</f>
         <v>1.52949895330938</v>
       </c>
-      <c r="AC32" s="0" t="n">
+      <c r="AD32" s="1" t="n">
+        <f aca="false">(X32*12+Z32)/(X32*12/S32+Z32)</f>
+        <v>2.97230117167851</v>
+      </c>
+      <c r="AE32" s="0" t="n">
+        <f aca="false">(T32-AD32)/T32*100</f>
+        <v>0.519860248907348</v>
+      </c>
+      <c r="AF32" s="0" t="n">
         <f aca="false">$U$377*M$27/12</f>
         <v>12.4095585967041</v>
       </c>
-      <c r="AD32" s="0" t="n">
+      <c r="AG32" s="0" t="n">
         <f aca="false">(N$27+O$27)-$U$377*M$27</f>
         <v>32.9077455685511</v>
       </c>
-      <c r="AE32" s="0" t="n">
-        <f aca="false">$AD32/($AC32*12+$AD32)</f>
+      <c r="AH32" s="2" t="n">
+        <f aca="false">(N32+O32)-$U$377*M32</f>
+        <v>25.2721868933899</v>
+      </c>
+      <c r="AI32" s="0" t="n">
+        <f aca="false">$AG32/($AF32*12+$AG32)</f>
         <v>0.180988353190639</v>
       </c>
-      <c r="AF32" s="1" t="n">
-        <f aca="false">(AC32*12+AD32)/(AC32*12/S32+AD32)</f>
+      <c r="AJ32" s="1" t="n">
+        <f aca="false">(AF32*12+AG32)/(AF32*12/S32+AG32)</f>
         <v>2.57188887291733</v>
       </c>
-      <c r="AG32" s="0" t="n">
-        <f aca="false">(V32-AF32)/V32*100</f>
+      <c r="AK32" s="0" t="n">
+        <f aca="false">(V32-AJ32)/V32*100</f>
         <v>10.8005411501326</v>
+      </c>
+      <c r="AL32" s="1" t="n">
+        <f aca="false">(AF32*12+AH32)/(AF32*12/S32+AH32)</f>
+        <v>2.76221794749113</v>
+      </c>
+      <c r="AM32" s="0" t="n">
+        <f aca="false">(V32-AL32)/V32*100</f>
+        <v>4.19945871840154</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27227,37 +29013,61 @@
         <f aca="false">N$27-$T$377*M$27</f>
         <v>15.9887087824977</v>
       </c>
-      <c r="Z33" s="0" t="n">
+      <c r="Z33" s="2" t="n">
+        <f aca="false">N33-$T$377*M33</f>
+        <v>14.6244948439337</v>
+      </c>
+      <c r="AA33" s="0" t="n">
         <f aca="false">$Y33/($X33*12+$Y33)</f>
         <v>0.115419738539448</v>
       </c>
-      <c r="AA33" s="1" t="n">
+      <c r="AB33" s="1" t="n">
         <f aca="false">(X33*12+Y33)/(X33*12/S33+Y33)</f>
         <v>3.19962387598012</v>
       </c>
-      <c r="AB33" s="0" t="n">
-        <f aca="false">(T33-AA33)/T33*100</f>
+      <c r="AC33" s="0" t="n">
+        <f aca="false">(T33-AB33)/T33*100</f>
         <v>3.1509978381331</v>
       </c>
-      <c r="AC33" s="0" t="n">
+      <c r="AD33" s="1" t="n">
+        <f aca="false">(X33*12+Z33)/(X33*12/S33+Z33)</f>
+        <v>3.27118899201855</v>
+      </c>
+      <c r="AE33" s="0" t="n">
+        <f aca="false">(T33-AD33)/T33*100</f>
+        <v>0.984802576886582</v>
+      </c>
+      <c r="AF33" s="0" t="n">
         <f aca="false">$U$377*M$27/12</f>
         <v>12.4095585967041</v>
       </c>
-      <c r="AD33" s="0" t="n">
+      <c r="AG33" s="0" t="n">
         <f aca="false">(N$27+O$27)-$U$377*M$27</f>
         <v>32.9077455685511</v>
       </c>
-      <c r="AE33" s="0" t="n">
-        <f aca="false">$AD33/($AC33*12+$AD33)</f>
+      <c r="AH33" s="2" t="n">
+        <f aca="false">(N33+O33)-$U$377*M33</f>
+        <v>23.2158971490612</v>
+      </c>
+      <c r="AI33" s="0" t="n">
+        <f aca="false">$AG33/($AF33*12+$AG33)</f>
         <v>0.180988353190639</v>
       </c>
-      <c r="AF33" s="1" t="n">
-        <f aca="false">(AC33*12+AD33)/(AC33*12/S33+AD33)</f>
+      <c r="AJ33" s="1" t="n">
+        <f aca="false">(AF33*12+AG33)/(AF33*12/S33+AG33)</f>
         <v>2.75107513646938</v>
       </c>
-      <c r="AG33" s="0" t="n">
-        <f aca="false">(V33-AF33)/V33*100</f>
+      <c r="AK33" s="0" t="n">
+        <f aca="false">(V33-AJ33)/V33*100</f>
         <v>14.6643076251981</v>
+      </c>
+      <c r="AL33" s="1" t="n">
+        <f aca="false">(AF33*12+AH33)/(AF33*12/S33+AH33)</f>
+        <v>3.05198444840466</v>
+      </c>
+      <c r="AM33" s="0" t="n">
+        <f aca="false">(V33-AL33)/V33*100</f>
+        <v>5.33039153704021</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27346,37 +29156,61 @@
         <f aca="false">N$27-$T$377*M$27</f>
         <v>15.9887087824977</v>
       </c>
-      <c r="Z34" s="0" t="n">
+      <c r="Z34" s="2" t="n">
+        <f aca="false">N34-$T$377*M34</f>
+        <v>16.6344292061431</v>
+      </c>
+      <c r="AA34" s="0" t="n">
         <f aca="false">$Y34/($X34*12+$Y34)</f>
         <v>0.115419738539448</v>
       </c>
-      <c r="AA34" s="1" t="n">
+      <c r="AB34" s="1" t="n">
         <f aca="false">(X34*12+Y34)/(X34*12/S34+Y34)</f>
         <v>3.1034828384991</v>
       </c>
-      <c r="AB34" s="0" t="n">
-        <f aca="false">(T34-AA34)/T34*100</f>
+      <c r="AC34" s="0" t="n">
+        <f aca="false">(T34-AB34)/T34*100</f>
         <v>-1.44664031883057</v>
       </c>
-      <c r="AC34" s="0" t="n">
+      <c r="AD34" s="1" t="n">
+        <f aca="false">(X34*12+Z34)/(X34*12/S34+Z34)</f>
+        <v>3.07348694041339</v>
+      </c>
+      <c r="AE34" s="0" t="n">
+        <f aca="false">(T34-AD34)/T34*100</f>
+        <v>-0.466134467020341</v>
+      </c>
+      <c r="AF34" s="0" t="n">
         <f aca="false">$U$377*M$27/12</f>
         <v>12.4095585967041</v>
       </c>
-      <c r="AD34" s="0" t="n">
+      <c r="AG34" s="0" t="n">
         <f aca="false">(N$27+O$27)-$U$377*M$27</f>
         <v>32.9077455685511</v>
       </c>
-      <c r="AE34" s="0" t="n">
-        <f aca="false">$AD34/($AC34*12+$AD34)</f>
+      <c r="AH34" s="2" t="n">
+        <f aca="false">(N34+O34)-$U$377*M34</f>
+        <v>26.7862386005534</v>
+      </c>
+      <c r="AI34" s="0" t="n">
+        <f aca="false">$AG34/($AF34*12+$AG34)</f>
         <v>0.180988353190639</v>
       </c>
-      <c r="AF34" s="1" t="n">
-        <f aca="false">(AC34*12+AD34)/(AC34*12/S34+AD34)</f>
+      <c r="AJ34" s="1" t="n">
+        <f aca="false">(AF34*12+AG34)/(AF34*12/S34+AG34)</f>
         <v>2.68486294925543</v>
       </c>
-      <c r="AG34" s="0" t="n">
-        <f aca="false">(V34-AF34)/V34*100</f>
+      <c r="AK34" s="0" t="n">
+        <f aca="false">(V34-AJ34)/V34*100</f>
         <v>9.0392618551092</v>
+      </c>
+      <c r="AL34" s="1" t="n">
+        <f aca="false">(AF34*12+AH34)/(AF34*12/S34+AH34)</f>
+        <v>2.85229691800832</v>
+      </c>
+      <c r="AM34" s="0" t="n">
+        <f aca="false">(V34-AL34)/V34*100</f>
+        <v>3.36674982148194</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27465,37 +29299,61 @@
         <f aca="false">N$27-$T$377*M$27</f>
         <v>15.9887087824977</v>
       </c>
-      <c r="Z35" s="0" t="n">
+      <c r="Z35" s="2" t="n">
+        <f aca="false">N35-$T$377*M35</f>
+        <v>18.0211685565117</v>
+      </c>
+      <c r="AA35" s="0" t="n">
         <f aca="false">$Y35/($X35*12+$Y35)</f>
         <v>0.115419738539448</v>
       </c>
-      <c r="AA35" s="1" t="n">
+      <c r="AB35" s="1" t="n">
         <f aca="false">(X35*12+Y35)/(X35*12/S35+Y35)</f>
         <v>3.0784536233849</v>
       </c>
-      <c r="AB35" s="0" t="n">
-        <f aca="false">(T35-AA35)/T35*100</f>
+      <c r="AC35" s="0" t="n">
+        <f aca="false">(T35-AB35)/T35*100</f>
         <v>-4.51670023351769</v>
       </c>
-      <c r="AC35" s="0" t="n">
+      <c r="AD35" s="1" t="n">
+        <f aca="false">(X35*12+Z35)/(X35*12/S35+Z35)</f>
+        <v>2.98863303064591</v>
+      </c>
+      <c r="AE35" s="0" t="n">
+        <f aca="false">(T35-AD35)/T35*100</f>
+        <v>-1.46719775123699</v>
+      </c>
+      <c r="AF35" s="0" t="n">
         <f aca="false">$U$377*M$27/12</f>
         <v>12.4095585967041</v>
       </c>
-      <c r="AD35" s="0" t="n">
+      <c r="AG35" s="0" t="n">
         <f aca="false">(N$27+O$27)-$U$377*M$27</f>
         <v>32.9077455685511</v>
       </c>
-      <c r="AE35" s="0" t="n">
-        <f aca="false">$AD35/($AC35*12+$AD35)</f>
+      <c r="AH35" s="2" t="n">
+        <f aca="false">(N35+O35)-$U$377*M35</f>
+        <v>28.019024035915</v>
+      </c>
+      <c r="AI35" s="0" t="n">
+        <f aca="false">$AG35/($AF35*12+$AG35)</f>
         <v>0.180988353190639</v>
       </c>
-      <c r="AF35" s="1" t="n">
-        <f aca="false">(AC35*12+AD35)/(AC35*12/S35+AD35)</f>
+      <c r="AJ35" s="1" t="n">
+        <f aca="false">(AF35*12+AG35)/(AF35*12/S35+AG35)</f>
         <v>2.66749121328397</v>
       </c>
-      <c r="AG35" s="0" t="n">
-        <f aca="false">(V35-AF35)/V35*100</f>
+      <c r="AK35" s="0" t="n">
+        <f aca="false">(V35-AJ35)/V35*100</f>
         <v>7.17217363623536</v>
+      </c>
+      <c r="AL35" s="1" t="n">
+        <f aca="false">(AF35*12+AH35)/(AF35*12/S35+AH35)</f>
+        <v>2.79632689744298</v>
+      </c>
+      <c r="AM35" s="0" t="n">
+        <f aca="false">(V35-AL35)/V35*100</f>
+        <v>2.68873374372081</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27584,37 +29442,61 @@
         <f aca="false">N$27-$T$377*M$27</f>
         <v>15.9887087824977</v>
       </c>
-      <c r="Z36" s="0" t="n">
+      <c r="Z36" s="2" t="n">
+        <f aca="false">N36-$T$377*M36</f>
+        <v>19.6574174653455</v>
+      </c>
+      <c r="AA36" s="0" t="n">
         <f aca="false">$Y36/($X36*12+$Y36)</f>
         <v>0.115419738539448</v>
       </c>
-      <c r="AA36" s="1" t="n">
+      <c r="AB36" s="1" t="n">
         <f aca="false">(X36*12+Y36)/(X36*12/S36+Y36)</f>
         <v>2.99561981565312</v>
       </c>
-      <c r="AB36" s="0" t="n">
-        <f aca="false">(T36-AA36)/T36*100</f>
+      <c r="AC36" s="0" t="n">
+        <f aca="false">(T36-AB36)/T36*100</f>
         <v>-7.93353269943163</v>
       </c>
-      <c r="AC36" s="0" t="n">
+      <c r="AD36" s="1" t="n">
+        <f aca="false">(X36*12+Z36)/(X36*12/S36+Z36)</f>
+        <v>2.84893402980743</v>
+      </c>
+      <c r="AE36" s="0" t="n">
+        <f aca="false">(T36-AD36)/T36*100</f>
+        <v>-2.64837769398382</v>
+      </c>
+      <c r="AF36" s="0" t="n">
         <f aca="false">$U$377*M$27/12</f>
         <v>12.4095585967041</v>
       </c>
-      <c r="AD36" s="0" t="n">
+      <c r="AG36" s="0" t="n">
         <f aca="false">(N$27+O$27)-$U$377*M$27</f>
         <v>32.9077455685511</v>
       </c>
-      <c r="AE36" s="0" t="n">
-        <f aca="false">$AD36/($AC36*12+$AD36)</f>
+      <c r="AH36" s="2" t="n">
+        <f aca="false">(N36+O36)-$U$377*M36</f>
+        <v>30.1197344454008</v>
+      </c>
+      <c r="AI36" s="0" t="n">
+        <f aca="false">$AG36/($AF36*12+$AG36)</f>
         <v>0.180988353190639</v>
       </c>
-      <c r="AF36" s="1" t="n">
-        <f aca="false">(AC36*12+AD36)/(AC36*12/S36+AD36)</f>
+      <c r="AJ36" s="1" t="n">
+        <f aca="false">(AF36*12+AG36)/(AF36*12/S36+AG36)</f>
         <v>2.60959929077146</v>
       </c>
-      <c r="AG36" s="0" t="n">
-        <f aca="false">(V36-AF36)/V36*100</f>
+      <c r="AK36" s="0" t="n">
+        <f aca="false">(V36-AJ36)/V36*100</f>
         <v>4.00148161049123</v>
+      </c>
+      <c r="AL36" s="1" t="n">
+        <f aca="false">(AF36*12+AH36)/(AF36*12/S36+AH36)</f>
+        <v>2.67669180501369</v>
+      </c>
+      <c r="AM36" s="0" t="n">
+        <f aca="false">(V36-AL36)/V36*100</f>
+        <v>1.5333701325878</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27703,37 +29585,61 @@
         <f aca="false">N$27-$T$377*M$27</f>
         <v>15.9887087824977</v>
       </c>
-      <c r="Z37" s="0" t="n">
+      <c r="Z37" s="2" t="n">
+        <f aca="false">N37-$T$377*M37</f>
+        <v>21.1108732987796</v>
+      </c>
+      <c r="AA37" s="0" t="n">
         <f aca="false">$Y37/($X37*12+$Y37)</f>
         <v>0.115419738539448</v>
       </c>
-      <c r="AA37" s="1" t="n">
+      <c r="AB37" s="1" t="n">
         <f aca="false">(X37*12+Y37)/(X37*12/S37+Y37)</f>
         <v>2.94890637138087</v>
       </c>
-      <c r="AB37" s="0" t="n">
-        <f aca="false">(T37-AA37)/T37*100</f>
+      <c r="AC37" s="0" t="n">
+        <f aca="false">(T37-AB37)/T37*100</f>
         <v>-10.9038834524161</v>
       </c>
-      <c r="AC37" s="0" t="n">
+      <c r="AD37" s="1" t="n">
+        <f aca="false">(X37*12+Z37)/(X37*12/S37+Z37)</f>
+        <v>2.75729317198983</v>
+      </c>
+      <c r="AE37" s="0" t="n">
+        <f aca="false">(T37-AD37)/T37*100</f>
+        <v>-3.69760245975875</v>
+      </c>
+      <c r="AF37" s="0" t="n">
         <f aca="false">$U$377*M$27/12</f>
         <v>12.4095585967041</v>
       </c>
-      <c r="AD37" s="0" t="n">
+      <c r="AG37" s="0" t="n">
         <f aca="false">(N$27+O$27)-$U$377*M$27</f>
         <v>32.9077455685511</v>
       </c>
-      <c r="AE37" s="0" t="n">
-        <f aca="false">$AD37/($AC37*12+$AD37)</f>
+      <c r="AH37" s="2" t="n">
+        <f aca="false">(N37+O37)-$U$377*M37</f>
+        <v>31.5286382256676</v>
+      </c>
+      <c r="AI37" s="0" t="n">
+        <f aca="false">$AG37/($AF37*12+$AG37)</f>
         <v>0.180988353190639</v>
       </c>
-      <c r="AF37" s="1" t="n">
-        <f aca="false">(AC37*12+AD37)/(AC37*12/S37+AD37)</f>
+      <c r="AJ37" s="1" t="n">
+        <f aca="false">(AF37*12+AG37)/(AF37*12/S37+AG37)</f>
         <v>2.57667768824127</v>
       </c>
-      <c r="AG37" s="0" t="n">
-        <f aca="false">(V37-AF37)/V37*100</f>
+      <c r="AK37" s="0" t="n">
+        <f aca="false">(V37-AJ37)/V37*100</f>
         <v>1.95438745047047</v>
+      </c>
+      <c r="AL37" s="1" t="n">
+        <f aca="false">(AF37*12+AH37)/(AF37*12/S37+AH37)</f>
+        <v>2.6081063162768</v>
+      </c>
+      <c r="AM37" s="0" t="n">
+        <f aca="false">(V37-AL37)/V37*100</f>
+        <v>0.758491238306361</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27822,37 +29728,61 @@
         <f aca="false">N$27-$T$377*M$27</f>
         <v>15.9887087824977</v>
       </c>
-      <c r="Z38" s="0" t="n">
+      <c r="Z38" s="2" t="n">
+        <f aca="false">N38-$T$377*M38</f>
+        <v>22.6252634700821</v>
+      </c>
+      <c r="AA38" s="0" t="n">
         <f aca="false">$Y38/($X38*12+$Y38)</f>
         <v>0.115419738539448</v>
       </c>
-      <c r="AA38" s="1" t="n">
+      <c r="AB38" s="1" t="n">
         <f aca="false">(X38*12+Y38)/(X38*12/S38+Y38)</f>
         <v>2.88902927876115</v>
       </c>
-      <c r="AB38" s="0" t="n">
-        <f aca="false">(T38-AA38)/T38*100</f>
+      <c r="AC38" s="0" t="n">
+        <f aca="false">(T38-AB38)/T38*100</f>
         <v>-13.8408038678828</v>
       </c>
-      <c r="AC38" s="0" t="n">
+      <c r="AD38" s="1" t="n">
+        <f aca="false">(X38*12+Z38)/(X38*12/S38+Z38)</f>
+        <v>2.65936045300018</v>
+      </c>
+      <c r="AE38" s="0" t="n">
+        <f aca="false">(T38-AD38)/T38*100</f>
+        <v>-4.79081467593084</v>
+      </c>
+      <c r="AF38" s="0" t="n">
         <f aca="false">$U$377*M$27/12</f>
         <v>12.4095585967041</v>
       </c>
-      <c r="AD38" s="0" t="n">
+      <c r="AG38" s="0" t="n">
         <f aca="false">(N$27+O$27)-$U$377*M$27</f>
         <v>32.9077455685511</v>
       </c>
-      <c r="AE38" s="0" t="n">
-        <f aca="false">$AD38/($AC38*12+$AD38)</f>
+      <c r="AH38" s="2" t="n">
+        <f aca="false">(N38+O38)-$U$377*M38</f>
+        <v>33.1700047849038</v>
+      </c>
+      <c r="AI38" s="0" t="n">
+        <f aca="false">$AG38/($AF38*12+$AG38)</f>
         <v>0.180988353190639</v>
       </c>
-      <c r="AF38" s="1" t="n">
-        <f aca="false">(AC38*12+AD38)/(AC38*12/S38+AD38)</f>
+      <c r="AJ38" s="1" t="n">
+        <f aca="false">(AF38*12+AG38)/(AF38*12/S38+AG38)</f>
         <v>2.53418646103377</v>
       </c>
-      <c r="AG38" s="0" t="n">
-        <f aca="false">(V38-AF38)/V38*100</f>
+      <c r="AK38" s="0" t="n">
+        <f aca="false">(V38-AJ38)/V38*100</f>
         <v>-0.365528987211567</v>
+      </c>
+      <c r="AL38" s="1" t="n">
+        <f aca="false">(AF38*12+AH38)/(AF38*12/S38+AH38)</f>
+        <v>2.52859898863209</v>
+      </c>
+      <c r="AM38" s="0" t="n">
+        <f aca="false">(V38-AL38)/V38*100</f>
+        <v>-0.144239183987439</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27941,37 +29871,61 @@
         <f aca="false">N$27-$T$377*M$27</f>
         <v>15.9887087824977</v>
       </c>
-      <c r="Z39" s="0" t="n">
+      <c r="Z39" s="2" t="n">
+        <f aca="false">N39-$T$377*M39</f>
+        <v>22.5954037429724</v>
+      </c>
+      <c r="AA39" s="0" t="n">
         <f aca="false">$Y39/($X39*12+$Y39)</f>
         <v>0.115419738539448</v>
       </c>
-      <c r="AA39" s="1" t="n">
+      <c r="AB39" s="1" t="n">
         <f aca="false">(X39*12+Y39)/(X39*12/S39+Y39)</f>
         <v>2.91480572277098</v>
       </c>
-      <c r="AB39" s="0" t="n">
-        <f aca="false">(T39-AA39)/T39*100</f>
+      <c r="AC39" s="0" t="n">
+        <f aca="false">(T39-AB39)/T39*100</f>
         <v>-13.9014647456344</v>
       </c>
-      <c r="AC39" s="0" t="n">
+      <c r="AD39" s="1" t="n">
+        <f aca="false">(X39*12+Z39)/(X39*12/S39+Z39)</f>
+        <v>2.68110719826751</v>
+      </c>
+      <c r="AE39" s="0" t="n">
+        <f aca="false">(T39-AD39)/T39*100</f>
+        <v>-4.76925945253696</v>
+      </c>
+      <c r="AF39" s="0" t="n">
         <f aca="false">$U$377*M$27/12</f>
         <v>12.4095585967041</v>
       </c>
-      <c r="AD39" s="0" t="n">
+      <c r="AG39" s="0" t="n">
         <f aca="false">(N$27+O$27)-$U$377*M$27</f>
         <v>32.9077455685511</v>
       </c>
-      <c r="AE39" s="0" t="n">
-        <f aca="false">$AD39/($AC39*12+$AD39)</f>
+      <c r="AH39" s="2" t="n">
+        <f aca="false">(N39+O39)-$U$377*M39</f>
+        <v>33.1266366876243</v>
+      </c>
+      <c r="AI39" s="0" t="n">
+        <f aca="false">$AG39/($AF39*12+$AG39)</f>
         <v>0.180988353190639</v>
       </c>
-      <c r="AF39" s="1" t="n">
-        <f aca="false">(AC39*12+AD39)/(AC39*12/S39+AD39)</f>
+      <c r="AJ39" s="1" t="n">
+        <f aca="false">(AF39*12+AG39)/(AF39*12/S39+AG39)</f>
         <v>2.55251896657359</v>
       </c>
-      <c r="AG39" s="0" t="n">
-        <f aca="false">(V39-AF39)/V39*100</f>
+      <c r="AK39" s="0" t="n">
+        <f aca="false">(V39-AJ39)/V39*100</f>
         <v>-0.307290841672452</v>
+      </c>
+      <c r="AL39" s="1" t="n">
+        <f aca="false">(AF39*12+AH39)/(AF39*12/S39+AH39)</f>
+        <v>2.54776283313655</v>
+      </c>
+      <c r="AM39" s="0" t="n">
+        <f aca="false">(V39-AL39)/V39*100</f>
+        <v>-0.120387290240159</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28060,37 +30014,61 @@
         <f aca="false">N$27-$T$377*M$27</f>
         <v>15.9887087824977</v>
       </c>
-      <c r="Z40" s="0" t="n">
+      <c r="Z40" s="2" t="n">
+        <f aca="false">N40-$T$377*M40</f>
+        <v>22.3325519855668</v>
+      </c>
+      <c r="AA40" s="0" t="n">
         <f aca="false">$Y40/($X40*12+$Y40)</f>
         <v>0.115419738539448</v>
       </c>
-      <c r="AA40" s="1" t="n">
+      <c r="AB40" s="1" t="n">
         <f aca="false">(X40*12+Y40)/(X40*12/S40+Y40)</f>
         <v>2.96082716135599</v>
       </c>
-      <c r="AB40" s="0" t="n">
-        <f aca="false">(T40-AA40)/T40*100</f>
+      <c r="AC40" s="0" t="n">
+        <f aca="false">(T40-AB40)/T40*100</f>
         <v>-13.5591414134238</v>
       </c>
-      <c r="AC40" s="0" t="n">
+      <c r="AD40" s="1" t="n">
+        <f aca="false">(X40*12+Z40)/(X40*12/S40+Z40)</f>
+        <v>2.72670129145957</v>
+      </c>
+      <c r="AE40" s="0" t="n">
+        <f aca="false">(T40-AD40)/T40*100</f>
+        <v>-4.57951129008627</v>
+      </c>
+      <c r="AF40" s="0" t="n">
         <f aca="false">$U$377*M$27/12</f>
         <v>12.4095585967041</v>
       </c>
-      <c r="AD40" s="0" t="n">
+      <c r="AG40" s="0" t="n">
         <f aca="false">(N$27+O$27)-$U$377*M$27</f>
         <v>32.9077455685511</v>
       </c>
-      <c r="AE40" s="0" t="n">
-        <f aca="false">$AD40/($AC40*12+$AD40)</f>
+      <c r="AH40" s="2" t="n">
+        <f aca="false">(N40+O40)-$U$377*M40</f>
+        <v>33.0091984155492</v>
+      </c>
+      <c r="AI40" s="0" t="n">
+        <f aca="false">$AG40/($AF40*12+$AG40)</f>
         <v>0.180988353190639</v>
       </c>
-      <c r="AF40" s="1" t="n">
-        <f aca="false">(AC40*12+AD40)/(AC40*12/S40+AD40)</f>
+      <c r="AJ40" s="1" t="n">
+        <f aca="false">(AF40*12+AG40)/(AF40*12/S40+AG40)</f>
         <v>2.58509785930867</v>
       </c>
-      <c r="AG40" s="0" t="n">
-        <f aca="false">(V40-AF40)/V40*100</f>
+      <c r="AK40" s="0" t="n">
+        <f aca="false">(V40-AJ40)/V40*100</f>
         <v>-0.144242660589408</v>
+      </c>
+      <c r="AL40" s="1" t="n">
+        <f aca="false">(AF40*12+AH40)/(AF40*12/S40+AH40)</f>
+        <v>2.58281476517918</v>
+      </c>
+      <c r="AM40" s="0" t="n">
+        <f aca="false">(V40-AL40)/V40*100</f>
+        <v>-0.0557977563866698</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28179,37 +30157,61 @@
         <f aca="false">N$27-$T$377*M$27</f>
         <v>15.9887087824977</v>
       </c>
-      <c r="Z41" s="0" t="n">
+      <c r="Z41" s="2" t="n">
+        <f aca="false">N41-$T$377*M41</f>
+        <v>22.2518273278133</v>
+      </c>
+      <c r="AA41" s="0" t="n">
         <f aca="false">$Y41/($X41*12+$Y41)</f>
         <v>0.115419738539448</v>
       </c>
-      <c r="AA41" s="1" t="n">
+      <c r="AB41" s="1" t="n">
         <f aca="false">(X41*12+Y41)/(X41*12/S41+Y41)</f>
         <v>2.98484909854131</v>
       </c>
-      <c r="AB41" s="0" t="n">
-        <f aca="false">(T41-AA41)/T41*100</f>
+      <c r="AC41" s="0" t="n">
+        <f aca="false">(T41-AB41)/T41*100</f>
         <v>-13.4952118199475</v>
       </c>
-      <c r="AC41" s="0" t="n">
+      <c r="AD41" s="1" t="n">
+        <f aca="false">(X41*12+Z41)/(X41*12/S41+Z41)</f>
+        <v>2.74883950319432</v>
+      </c>
+      <c r="AE41" s="0" t="n">
+        <f aca="false">(T41-AD41)/T41*100</f>
+        <v>-4.52123754817036</v>
+      </c>
+      <c r="AF41" s="0" t="n">
         <f aca="false">$U$377*M$27/12</f>
         <v>12.4095585967041</v>
       </c>
-      <c r="AD41" s="0" t="n">
+      <c r="AG41" s="0" t="n">
         <f aca="false">(N$27+O$27)-$U$377*M$27</f>
         <v>32.9077455685511</v>
       </c>
-      <c r="AE41" s="0" t="n">
-        <f aca="false">$AD41/($AC41*12+$AD41)</f>
+      <c r="AH41" s="2" t="n">
+        <f aca="false">(N41+O41)-$U$377*M41</f>
+        <v>32.8162719293787</v>
+      </c>
+      <c r="AI41" s="0" t="n">
+        <f aca="false">$AG41/($AF41*12+$AG41)</f>
         <v>0.180988353190639</v>
       </c>
-      <c r="AF41" s="1" t="n">
-        <f aca="false">(AC41*12+AD41)/(AC41*12/S41+AD41)</f>
+      <c r="AJ41" s="1" t="n">
+        <f aca="false">(AF41*12+AG41)/(AF41*12/S41+AG41)</f>
         <v>2.60202618771079</v>
       </c>
-      <c r="AG41" s="0" t="n">
-        <f aca="false">(V41-AF41)/V41*100</f>
+      <c r="AK41" s="0" t="n">
+        <f aca="false">(V41-AJ41)/V41*100</f>
         <v>0.13090617042921</v>
+      </c>
+      <c r="AL41" s="1" t="n">
+        <f aca="false">(AF41*12+AH41)/(AF41*12/S41+AH41)</f>
+        <v>2.6041260877411</v>
+      </c>
+      <c r="AM41" s="0" t="n">
+        <f aca="false">(V41-AL41)/V41*100</f>
+        <v>0.0503093208851942</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28298,37 +30300,61 @@
         <f aca="false">N$27-$T$377*M$27</f>
         <v>15.9887087824977</v>
       </c>
-      <c r="Z42" s="0" t="n">
+      <c r="Z42" s="2" t="n">
+        <f aca="false">N42-$T$377*M42</f>
+        <v>21.9563883718456</v>
+      </c>
+      <c r="AA42" s="0" t="n">
         <f aca="false">$Y42/($X42*12+$Y42)</f>
         <v>0.115419738539448</v>
       </c>
-      <c r="AA42" s="1" t="n">
+      <c r="AB42" s="1" t="n">
         <f aca="false">(X42*12+Y42)/(X42*12/S42+Y42)</f>
         <v>3.02496565361996</v>
       </c>
-      <c r="AB42" s="0" t="n">
-        <f aca="false">(T42-AA42)/T42*100</f>
+      <c r="AC42" s="0" t="n">
+        <f aca="false">(T42-AB42)/T42*100</f>
         <v>-13.0314469109739</v>
       </c>
-      <c r="AC42" s="0" t="n">
+      <c r="AD42" s="1" t="n">
+        <f aca="false">(X42*12+Z42)/(X42*12/S42+Z42)</f>
+        <v>2.79150644264058</v>
+      </c>
+      <c r="AE42" s="0" t="n">
+        <f aca="false">(T42-AD42)/T42*100</f>
+        <v>-4.3079652475985</v>
+      </c>
+      <c r="AF42" s="0" t="n">
         <f aca="false">$U$377*M$27/12</f>
         <v>12.4095585967041</v>
       </c>
-      <c r="AD42" s="0" t="n">
+      <c r="AG42" s="0" t="n">
         <f aca="false">(N$27+O$27)-$U$377*M$27</f>
         <v>32.9077455685511</v>
       </c>
-      <c r="AE42" s="0" t="n">
-        <f aca="false">$AD42/($AC42*12+$AD42)</f>
+      <c r="AH42" s="2" t="n">
+        <f aca="false">(N42+O42)-$U$377*M42</f>
+        <v>32.7886782237488</v>
+      </c>
+      <c r="AI42" s="0" t="n">
+        <f aca="false">$AG42/($AF42*12+$AG42)</f>
         <v>0.180988353190639</v>
       </c>
-      <c r="AF42" s="1" t="n">
-        <f aca="false">(AC42*12+AD42)/(AC42*12/S42+AD42)</f>
+      <c r="AJ42" s="1" t="n">
+        <f aca="false">(AF42*12+AG42)/(AF42*12/S42+AG42)</f>
         <v>2.63017957806638</v>
       </c>
-      <c r="AG42" s="0" t="n">
-        <f aca="false">(V42-AF42)/V42*100</f>
+      <c r="AK42" s="0" t="n">
+        <f aca="false">(V42-AJ42)/V42*100</f>
         <v>0.172238632194589</v>
+      </c>
+      <c r="AL42" s="1" t="n">
+        <f aca="false">(AF42*12+AH42)/(AF42*12/S42+AH42)</f>
+        <v>2.63299222153259</v>
+      </c>
+      <c r="AM42" s="0" t="n">
+        <f aca="false">(V42-AL42)/V42*100</f>
+        <v>0.0654855028268614</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28417,37 +30443,61 @@
         <f aca="false">N$27-$T$377*M$27</f>
         <v>15.9887087824977</v>
       </c>
-      <c r="Z43" s="0" t="n">
+      <c r="Z43" s="2" t="n">
+        <f aca="false">N43-$T$377*M43</f>
+        <v>21.8704769294441</v>
+      </c>
+      <c r="AA43" s="0" t="n">
         <f aca="false">$Y43/($X43*12+$Y43)</f>
         <v>0.115419738539448</v>
       </c>
-      <c r="AA43" s="1" t="n">
+      <c r="AB43" s="1" t="n">
         <f aca="false">(X43*12+Y43)/(X43*12/S43+Y43)</f>
         <v>3.04055521992664</v>
       </c>
-      <c r="AB43" s="0" t="n">
-        <f aca="false">(T43-AA43)/T43*100</f>
+      <c r="AC43" s="0" t="n">
+        <f aca="false">(T43-AB43)/T43*100</f>
         <v>-12.9100370899099</v>
       </c>
-      <c r="AC43" s="0" t="n">
+      <c r="AD43" s="1" t="n">
+        <f aca="false">(X43*12+Z43)/(X43*12/S43+Z43)</f>
+        <v>2.80723988098751</v>
+      </c>
+      <c r="AE43" s="0" t="n">
+        <f aca="false">(T43-AD43)/T43*100</f>
+        <v>-4.24594725506133</v>
+      </c>
+      <c r="AF43" s="0" t="n">
         <f aca="false">$U$377*M$27/12</f>
         <v>12.4095585967041</v>
       </c>
-      <c r="AD43" s="0" t="n">
+      <c r="AG43" s="0" t="n">
         <f aca="false">(N$27+O$27)-$U$377*M$27</f>
         <v>32.9077455685511</v>
       </c>
-      <c r="AE43" s="0" t="n">
-        <f aca="false">$AD43/($AC43*12+$AD43)</f>
+      <c r="AH43" s="2" t="n">
+        <f aca="false">(N43+O43)-$U$377*M43</f>
+        <v>33.0105253314486</v>
+      </c>
+      <c r="AI43" s="0" t="n">
+        <f aca="false">$AG43/($AF43*12+$AG43)</f>
         <v>0.180988353190639</v>
       </c>
-      <c r="AF43" s="1" t="n">
-        <f aca="false">(AC43*12+AD43)/(AC43*12/S43+AD43)</f>
+      <c r="AJ43" s="1" t="n">
+        <f aca="false">(AF43*12+AG43)/(AF43*12/S43+AG43)</f>
         <v>2.641080936914</v>
       </c>
-      <c r="AG43" s="0" t="n">
-        <f aca="false">(V43-AF43)/V43*100</f>
+      <c r="AK43" s="0" t="n">
+        <f aca="false">(V43-AJ43)/V43*100</f>
         <v>-0.149293816240333</v>
+      </c>
+      <c r="AL43" s="1" t="n">
+        <f aca="false">(AF43*12+AH43)/(AF43*12/S43+AH43)</f>
+        <v>2.63863455684984</v>
+      </c>
+      <c r="AM43" s="0" t="n">
+        <f aca="false">(V43-AL43)/V43*100</f>
+        <v>-0.056527543004701</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28536,37 +30586,61 @@
         <f aca="false">N$27-$T$377*M$27</f>
         <v>15.9887087824977</v>
       </c>
-      <c r="Z44" s="0" t="n">
+      <c r="Z44" s="2" t="n">
+        <f aca="false">N44-$T$377*M44</f>
+        <v>21.4989928848529</v>
+      </c>
+      <c r="AA44" s="0" t="n">
         <f aca="false">$Y44/($X44*12+$Y44)</f>
         <v>0.115419738539448</v>
       </c>
-      <c r="AA44" s="1" t="n">
+      <c r="AB44" s="1" t="n">
         <f aca="false">(X44*12+Y44)/(X44*12/S44+Y44)</f>
         <v>3.08695094094272</v>
       </c>
-      <c r="AB44" s="0" t="n">
-        <f aca="false">(T44-AA44)/T44*100</f>
+      <c r="AC44" s="0" t="n">
+        <f aca="false">(T44-AB44)/T44*100</f>
         <v>-12.2792095932418</v>
       </c>
-      <c r="AC44" s="0" t="n">
+      <c r="AD44" s="1" t="n">
+        <f aca="false">(X44*12+Z44)/(X44*12/S44+Z44)</f>
+        <v>2.85871538328707</v>
+      </c>
+      <c r="AE44" s="0" t="n">
+        <f aca="false">(T44-AD44)/T44*100</f>
+        <v>-3.97777931303694</v>
+      </c>
+      <c r="AF44" s="0" t="n">
         <f aca="false">$U$377*M$27/12</f>
         <v>12.4095585967041</v>
       </c>
-      <c r="AD44" s="0" t="n">
+      <c r="AG44" s="0" t="n">
         <f aca="false">(N$27+O$27)-$U$377*M$27</f>
         <v>32.9077455685511</v>
       </c>
-      <c r="AE44" s="0" t="n">
-        <f aca="false">$AD44/($AC44*12+$AD44)</f>
+      <c r="AH44" s="2" t="n">
+        <f aca="false">(N44+O44)-$U$377*M44</f>
+        <v>32.4289675908737</v>
+      </c>
+      <c r="AI44" s="0" t="n">
+        <f aca="false">$AG44/($AF44*12+$AG44)</f>
         <v>0.180988353190639</v>
       </c>
-      <c r="AF44" s="1" t="n">
-        <f aca="false">(AC44*12+AD44)/(AC44*12/S44+AD44)</f>
+      <c r="AJ44" s="1" t="n">
+        <f aca="false">(AF44*12+AG44)/(AF44*12/S44+AG44)</f>
         <v>2.67339510638865</v>
       </c>
-      <c r="AG44" s="0" t="n">
-        <f aca="false">(V44-AF44)/V44*100</f>
+      <c r="AK44" s="0" t="n">
+        <f aca="false">(V44-AJ44)/V44*100</f>
         <v>0.70396296580352</v>
+      </c>
+      <c r="AL44" s="1" t="n">
+        <f aca="false">(AF44*12+AH44)/(AF44*12/S44+AH44)</f>
+        <v>2.68525870353955</v>
+      </c>
+      <c r="AM44" s="0" t="n">
+        <f aca="false">(V44-AL44)/V44*100</f>
+        <v>0.263321708086193</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28655,37 +30729,61 @@
         <f aca="false">N$27-$T$377*M$27</f>
         <v>15.9887087824977</v>
       </c>
-      <c r="Z45" s="0" t="n">
+      <c r="Z45" s="2" t="n">
+        <f aca="false">N45-$T$377*M45</f>
+        <v>22.8114157512761</v>
+      </c>
+      <c r="AA45" s="0" t="n">
         <f aca="false">$Y45/($X45*12+$Y45)</f>
         <v>0.115419738539448</v>
       </c>
-      <c r="AA45" s="1" t="n">
+      <c r="AB45" s="1" t="n">
         <f aca="false">(X45*12+Y45)/(X45*12/S45+Y45)</f>
         <v>2.94058086712941</v>
       </c>
-      <c r="AB45" s="0" t="n">
-        <f aca="false">(T45-AA45)/T45*100</f>
+      <c r="AC45" s="0" t="n">
+        <f aca="false">(T45-AB45)/T45*100</f>
         <v>-14.4829336127767</v>
       </c>
-      <c r="AC45" s="0" t="n">
+      <c r="AD45" s="1" t="n">
+        <f aca="false">(X45*12+Z45)/(X45*12/S45+Z45)</f>
+        <v>2.69508310617997</v>
+      </c>
+      <c r="AE45" s="0" t="n">
+        <f aca="false">(T45-AD45)/T45*100</f>
+        <v>-4.92519480578509</v>
+      </c>
+      <c r="AF45" s="0" t="n">
         <f aca="false">$U$377*M$27/12</f>
         <v>12.4095585967041</v>
       </c>
-      <c r="AD45" s="0" t="n">
+      <c r="AG45" s="0" t="n">
         <f aca="false">(N$27+O$27)-$U$377*M$27</f>
         <v>32.9077455685511</v>
       </c>
-      <c r="AE45" s="0" t="n">
-        <f aca="false">$AD45/($AC45*12+$AD45)</f>
+      <c r="AH45" s="2" t="n">
+        <f aca="false">(N45+O45)-$U$377*M45</f>
+        <v>34.1869717103452</v>
+      </c>
+      <c r="AI45" s="0" t="n">
+        <f aca="false">$AG45/($AF45*12+$AG45)</f>
         <v>0.180988353190639</v>
       </c>
-      <c r="AF45" s="1" t="n">
-        <f aca="false">(AC45*12+AD45)/(AC45*12/S45+AD45)</f>
+      <c r="AJ45" s="1" t="n">
+        <f aca="false">(AF45*12+AG45)/(AF45*12/S45+AG45)</f>
         <v>2.57078930793891</v>
       </c>
-      <c r="AG45" s="0" t="n">
-        <f aca="false">(V45-AF45)/V45*100</f>
+      <c r="AK45" s="0" t="n">
+        <f aca="false">(V45-AJ45)/V45*100</f>
         <v>-1.80869904170185</v>
+      </c>
+      <c r="AL45" s="1" t="n">
+        <f aca="false">(AF45*12+AH45)/(AF45*12/S45+AH45)</f>
+        <v>2.54288319438745</v>
+      </c>
+      <c r="AM45" s="0" t="n">
+        <f aca="false">(V45-AL45)/V45*100</f>
+        <v>-0.703557866884064</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28774,37 +30872,61 @@
         <f aca="false">N$27-$T$377*M$27</f>
         <v>15.9887087824977</v>
       </c>
-      <c r="Z46" s="0" t="n">
+      <c r="Z46" s="2" t="n">
+        <f aca="false">N46-$T$377*M46</f>
+        <v>22.7781191023445</v>
+      </c>
+      <c r="AA46" s="0" t="n">
         <f aca="false">$Y46/($X46*12+$Y46)</f>
         <v>0.115419738539448</v>
       </c>
-      <c r="AA46" s="1" t="n">
+      <c r="AB46" s="1" t="n">
         <f aca="false">(X46*12+Y46)/(X46*12/S46+Y46)</f>
         <v>2.96578111468668</v>
       </c>
-      <c r="AB46" s="0" t="n">
-        <f aca="false">(T46-AA46)/T46*100</f>
+      <c r="AC46" s="0" t="n">
+        <f aca="false">(T46-AB46)/T46*100</f>
         <v>-14.5357634013758</v>
       </c>
-      <c r="AC46" s="0" t="n">
+      <c r="AD46" s="1" t="n">
+        <f aca="false">(X46*12+Z46)/(X46*12/S46+Z46)</f>
+        <v>2.71630332422708</v>
+      </c>
+      <c r="AE46" s="0" t="n">
+        <f aca="false">(T46-AD46)/T46*100</f>
+        <v>-4.90115852764524</v>
+      </c>
+      <c r="AF46" s="0" t="n">
         <f aca="false">$U$377*M$27/12</f>
         <v>12.4095585967041</v>
       </c>
-      <c r="AD46" s="0" t="n">
+      <c r="AG46" s="0" t="n">
         <f aca="false">(N$27+O$27)-$U$377*M$27</f>
         <v>32.9077455685511</v>
       </c>
-      <c r="AE46" s="0" t="n">
-        <f aca="false">$AD46/($AC46*12+$AD46)</f>
+      <c r="AH46" s="2" t="n">
+        <f aca="false">(N46+O46)-$U$377*M46</f>
+        <v>34.0735927891202</v>
+      </c>
+      <c r="AI46" s="0" t="n">
+        <f aca="false">$AG46/($AF46*12+$AG46)</f>
         <v>0.180988353190639</v>
       </c>
-      <c r="AF46" s="1" t="n">
-        <f aca="false">(AC46*12+AD46)/(AC46*12/S46+AD46)</f>
+      <c r="AJ46" s="1" t="n">
+        <f aca="false">(AF46*12+AG46)/(AF46*12/S46+AG46)</f>
         <v>2.58859323122142</v>
       </c>
-      <c r="AG46" s="0" t="n">
-        <f aca="false">(V46-AF46)/V46*100</f>
+      <c r="AK46" s="0" t="n">
+        <f aca="false">(V46-AJ46)/V46*100</f>
         <v>-1.6598083706933</v>
+      </c>
+      <c r="AL46" s="1" t="n">
+        <f aca="false">(AF46*12+AH46)/(AF46*12/S46+AH46)</f>
+        <v>2.5626561339057</v>
+      </c>
+      <c r="AM46" s="0" t="n">
+        <f aca="false">(V46-AL46)/V46*100</f>
+        <v>-0.641200923603642</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28893,37 +31015,61 @@
         <f aca="false">N$27-$T$377*M$27</f>
         <v>15.9887087824977</v>
       </c>
-      <c r="Z47" s="0" t="n">
+      <c r="Z47" s="2" t="n">
+        <f aca="false">N47-$T$377*M47</f>
+        <v>23.1848591345249</v>
+      </c>
+      <c r="AA47" s="0" t="n">
         <f aca="false">$Y47/($X47*12+$Y47)</f>
         <v>0.115419738539448</v>
       </c>
-      <c r="AA47" s="1" t="n">
+      <c r="AB47" s="1" t="n">
         <f aca="false">(X47*12+Y47)/(X47*12/S47+Y47)</f>
         <v>2.93230530485352</v>
       </c>
-      <c r="AB47" s="0" t="n">
-        <f aca="false">(T47-AA47)/T47*100</f>
+      <c r="AC47" s="0" t="n">
+        <f aca="false">(T47-AB47)/T47*100</f>
         <v>-15.2326726258069</v>
       </c>
-      <c r="AC47" s="0" t="n">
+      <c r="AD47" s="1" t="n">
+        <f aca="false">(X47*12+Z47)/(X47*12/S47+Z47)</f>
+        <v>2.67687276604983</v>
+      </c>
+      <c r="AE47" s="0" t="n">
+        <f aca="false">(T47-AD47)/T47*100</f>
+        <v>-5.19477716068444</v>
+      </c>
+      <c r="AF47" s="0" t="n">
         <f aca="false">$U$377*M$27/12</f>
         <v>12.4095585967041</v>
       </c>
-      <c r="AD47" s="0" t="n">
+      <c r="AG47" s="0" t="n">
         <f aca="false">(N$27+O$27)-$U$377*M$27</f>
         <v>32.9077455685511</v>
       </c>
-      <c r="AE47" s="0" t="n">
-        <f aca="false">$AD47/($AC47*12+$AD47)</f>
+      <c r="AH47" s="2" t="n">
+        <f aca="false">(N47+O47)-$U$377*M47</f>
+        <v>34.5544868935924</v>
+      </c>
+      <c r="AI47" s="0" t="n">
+        <f aca="false">$AG47/($AF47*12+$AG47)</f>
         <v>0.180988353190639</v>
       </c>
-      <c r="AF47" s="1" t="n">
-        <f aca="false">(AC47*12+AD47)/(AC47*12/S47+AD47)</f>
+      <c r="AJ47" s="1" t="n">
+        <f aca="false">(AF47*12+AG47)/(AF47*12/S47+AG47)</f>
         <v>2.5649299500546</v>
       </c>
-      <c r="AG47" s="0" t="n">
-        <f aca="false">(V47-AF47)/V47*100</f>
+      <c r="AK47" s="0" t="n">
+        <f aca="false">(V47-AJ47)/V47*100</f>
         <v>-2.32302236281416</v>
+      </c>
+      <c r="AL47" s="1" t="n">
+        <f aca="false">(AF47*12+AH47)/(AF47*12/S47+AH47)</f>
+        <v>2.529401608668</v>
+      </c>
+      <c r="AM47" s="0" t="n">
+        <f aca="false">(V47-AL47)/V47*100</f>
+        <v>-0.905686474113921</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29012,37 +31158,61 @@
         <f aca="false">N$27-$T$377*M$27</f>
         <v>15.9887087824977</v>
       </c>
-      <c r="Z48" s="0" t="n">
+      <c r="Z48" s="2" t="n">
+        <f aca="false">N48-$T$377*M48</f>
+        <v>23.5342232851105</v>
+      </c>
+      <c r="AA48" s="0" t="n">
         <f aca="false">$Y48/($X48*12+$Y48)</f>
         <v>0.115419738539448</v>
       </c>
-      <c r="AA48" s="1" t="n">
+      <c r="AB48" s="1" t="n">
         <f aca="false">(X48*12+Y48)/(X48*12/S48+Y48)</f>
         <v>2.90584961853168</v>
       </c>
-      <c r="AB48" s="0" t="n">
-        <f aca="false">(T48-AA48)/T48*100</f>
+      <c r="AC48" s="0" t="n">
+        <f aca="false">(T48-AB48)/T48*100</f>
         <v>-15.828096420309</v>
       </c>
-      <c r="AC48" s="0" t="n">
+      <c r="AD48" s="1" t="n">
+        <f aca="false">(X48*12+Z48)/(X48*12/S48+Z48)</f>
+        <v>2.64541219050675</v>
+      </c>
+      <c r="AE48" s="0" t="n">
+        <f aca="false">(T48-AD48)/T48*100</f>
+        <v>-5.44697713170269</v>
+      </c>
+      <c r="AF48" s="0" t="n">
         <f aca="false">$U$377*M$27/12</f>
         <v>12.4095585967041</v>
       </c>
-      <c r="AD48" s="0" t="n">
+      <c r="AG48" s="0" t="n">
         <f aca="false">(N$27+O$27)-$U$377*M$27</f>
         <v>32.9077455685511</v>
       </c>
-      <c r="AE48" s="0" t="n">
-        <f aca="false">$AD48/($AC48*12+$AD48)</f>
+      <c r="AH48" s="2" t="n">
+        <f aca="false">(N48+O48)-$U$377*M48</f>
+        <v>34.7155518278193</v>
+      </c>
+      <c r="AI48" s="0" t="n">
+        <f aca="false">$AG48/($AF48*12+$AG48)</f>
         <v>0.180988353190639</v>
       </c>
-      <c r="AF48" s="1" t="n">
-        <f aca="false">(AC48*12+AD48)/(AC48*12/S48+AD48)</f>
+      <c r="AJ48" s="1" t="n">
+        <f aca="false">(AF48*12+AG48)/(AF48*12/S48+AG48)</f>
         <v>2.54615624012752</v>
       </c>
-      <c r="AG48" s="0" t="n">
-        <f aca="false">(V48-AF48)/V48*100</f>
+      <c r="AK48" s="0" t="n">
+        <f aca="false">(V48-AJ48)/V48*100</f>
         <v>-2.53156704254815</v>
+      </c>
+      <c r="AL48" s="1" t="n">
+        <f aca="false">(AF48*12+AH48)/(AF48*12/S48+AH48)</f>
+        <v>2.50798069777467</v>
+      </c>
+      <c r="AM48" s="0" t="n">
+        <f aca="false">(V48-AL48)/V48*100</f>
+        <v>-0.994270109057165</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29131,37 +31301,61 @@
         <f aca="false">N$27-$T$377*M$27</f>
         <v>15.9887087824977</v>
       </c>
-      <c r="Z49" s="0" t="n">
+      <c r="Z49" s="2" t="n">
+        <f aca="false">N49-$T$377*M49</f>
+        <v>23.9735460886377</v>
+      </c>
+      <c r="AA49" s="0" t="n">
         <f aca="false">$Y49/($X49*12+$Y49)</f>
         <v>0.115419738539448</v>
       </c>
-      <c r="AA49" s="1" t="n">
+      <c r="AB49" s="1" t="n">
         <f aca="false">(X49*12+Y49)/(X49*12/S49+Y49)</f>
         <v>2.86593059286558</v>
       </c>
-      <c r="AB49" s="0" t="n">
-        <f aca="false">(T49-AA49)/T49*100</f>
+      <c r="AC49" s="0" t="n">
+        <f aca="false">(T49-AB49)/T49*100</f>
         <v>-16.5195584112452</v>
       </c>
-      <c r="AC49" s="0" t="n">
+      <c r="AD49" s="1" t="n">
+        <f aca="false">(X49*12+Z49)/(X49*12/S49+Z49)</f>
+        <v>2.60138831480973</v>
+      </c>
+      <c r="AE49" s="0" t="n">
+        <f aca="false">(T49-AD49)/T49*100</f>
+        <v>-5.76411670693238</v>
+      </c>
+      <c r="AF49" s="0" t="n">
         <f aca="false">$U$377*M$27/12</f>
         <v>12.4095585967041</v>
       </c>
-      <c r="AD49" s="0" t="n">
+      <c r="AG49" s="0" t="n">
         <f aca="false">(N$27+O$27)-$U$377*M$27</f>
         <v>32.9077455685511</v>
       </c>
-      <c r="AE49" s="0" t="n">
-        <f aca="false">$AD49/($AC49*12+$AD49)</f>
+      <c r="AH49" s="2" t="n">
+        <f aca="false">(N49+O49)-$U$377*M49</f>
+        <v>35.3701592715981</v>
+      </c>
+      <c r="AI49" s="0" t="n">
+        <f aca="false">$AG49/($AF49*12+$AG49)</f>
         <v>0.180988353190639</v>
       </c>
-      <c r="AF49" s="1" t="n">
-        <f aca="false">(AC49*12+AD49)/(AC49*12/S49+AD49)</f>
+      <c r="AJ49" s="1" t="n">
+        <f aca="false">(AF49*12+AG49)/(AF49*12/S49+AG49)</f>
         <v>2.5177061236778</v>
       </c>
-      <c r="AG49" s="0" t="n">
-        <f aca="false">(V49-AF49)/V49*100</f>
+      <c r="AK49" s="0" t="n">
+        <f aca="false">(V49-AJ49)/V49*100</f>
         <v>-3.40971871324312</v>
+      </c>
+      <c r="AL49" s="1" t="n">
+        <f aca="false">(AF49*12+AH49)/(AF49*12/S49+AH49)</f>
+        <v>2.46766294557519</v>
+      </c>
+      <c r="AM49" s="0" t="n">
+        <f aca="false">(V49-AL49)/V49*100</f>
+        <v>-1.35429575405024</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29250,37 +31444,61 @@
         <f aca="false">N$27-$T$377*M$27</f>
         <v>15.9887087824977</v>
       </c>
-      <c r="Z50" s="0" t="n">
+      <c r="Z50" s="2" t="n">
+        <f aca="false">N50-$T$377*M50</f>
+        <v>24.5685802771159</v>
+      </c>
+      <c r="AA50" s="0" t="n">
         <f aca="false">$Y50/($X50*12+$Y50)</f>
         <v>0.115419738539448</v>
       </c>
-      <c r="AA50" s="1" t="n">
+      <c r="AB50" s="1" t="n">
         <f aca="false">(X50*12+Y50)/(X50*12/S50+Y50)</f>
         <v>2.81842967731032</v>
       </c>
-      <c r="AB50" s="0" t="n">
-        <f aca="false">(T50-AA50)/T50*100</f>
+      <c r="AC50" s="0" t="n">
+        <f aca="false">(T50-AB50)/T50*100</f>
         <v>-17.4563998129675</v>
       </c>
-      <c r="AC50" s="0" t="n">
+      <c r="AD50" s="1" t="n">
+        <f aca="false">(X50*12+Z50)/(X50*12/S50+Z50)</f>
+        <v>2.54817419928238</v>
+      </c>
+      <c r="AE50" s="0" t="n">
+        <f aca="false">(T50-AD50)/T50*100</f>
+        <v>-6.19366165262157</v>
+      </c>
+      <c r="AF50" s="0" t="n">
         <f aca="false">$U$377*M$27/12</f>
         <v>12.4095585967041</v>
       </c>
-      <c r="AD50" s="0" t="n">
+      <c r="AG50" s="0" t="n">
         <f aca="false">(N$27+O$27)-$U$377*M$27</f>
         <v>32.9077455685511</v>
       </c>
-      <c r="AE50" s="0" t="n">
-        <f aca="false">$AD50/($AC50*12+$AD50)</f>
+      <c r="AH50" s="2" t="n">
+        <f aca="false">(N50+O50)-$U$377*M50</f>
+        <v>36.1995388337312</v>
+      </c>
+      <c r="AI50" s="0" t="n">
+        <f aca="false">$AG50/($AF50*12+$AG50)</f>
         <v>0.180988353190639</v>
       </c>
-      <c r="AF50" s="1" t="n">
-        <f aca="false">(AC50*12+AD50)/(AC50*12/S50+AD50)</f>
+      <c r="AJ50" s="1" t="n">
+        <f aca="false">(AF50*12+AG50)/(AF50*12/S50+AG50)</f>
         <v>2.48365911459247</v>
       </c>
-      <c r="AG50" s="0" t="n">
-        <f aca="false">(V50-AF50)/V50*100</f>
+      <c r="AK50" s="0" t="n">
+        <f aca="false">(V50-AJ50)/V50*100</f>
         <v>-4.49652526603259</v>
+      </c>
+      <c r="AL50" s="1" t="n">
+        <f aca="false">(AF50*12+AH50)/(AF50*12/S50+AH50)</f>
+        <v>2.41981669803402</v>
+      </c>
+      <c r="AM50" s="0" t="n">
+        <f aca="false">(V50-AL50)/V50*100</f>
+        <v>-1.81044380833656</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53668,7 +55886,7 @@
         <v>45</v>
       </c>
       <c r="U376" s="0" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55387,7 +57605,7 @@
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="0" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B404" s="0" t="n">
         <v>1375</v>
@@ -56776,35 +58994,35 @@
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="0" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="0" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="0" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B429" s="0" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C429" s="0" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D429" s="0" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E429" s="0" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F429" s="0" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G429" s="0" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56863,7 +59081,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -56895,10 +59113,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57035,27 +59253,27 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57063,10 +59281,10 @@
         <v>30</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D132" s="0" t="s">
         <v>32</v>
